--- a/src/data/yanesen-01_10.xlsx
+++ b/src/data/yanesen-01_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/lda/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08CFAC1-0E37-974C-AA5F-169D5AFB0DA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3AC141-65FC-E744-BCFE-B34B7ED11376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1132">
   <si>
     <t>page</t>
   </si>
@@ -3429,6 +3429,18 @@
   </si>
   <si>
     <t>http://xmlns.com/foaf/0.1/thumbnail</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>http://purl.org/dc/terms/relation</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Relation</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Thumbnail</t>
     <phoneticPr fontId="6"/>
   </si>
 </sst>
@@ -3436,7 +3448,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3484,6 +3496,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3525,7 +3543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3566,6 +3584,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7477,10 +7496,10 @@
   <dimension ref="A1:AH449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD3" sqref="AD3"/>
+      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -7570,8 +7589,12 @@
       <c r="AA1" s="10"/>
       <c r="AB1" s="10"/>
       <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
+      <c r="AD1" s="24" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AE1" s="17" t="s">
+        <v>1130</v>
+      </c>
       <c r="AF1" s="10"/>
       <c r="AG1" s="10"/>
       <c r="AH1" s="10"/>
@@ -7612,7 +7635,9 @@
       <c r="AD2" s="23" t="s">
         <v>1128</v>
       </c>
-      <c r="AE2" s="10"/>
+      <c r="AE2" s="23" t="s">
+        <v>1129</v>
+      </c>
       <c r="AF2" s="10"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
@@ -7653,7 +7678,9 @@
       <c r="AD3" s="17" t="s">
         <v>1127</v>
       </c>
-      <c r="AE3" s="10"/>
+      <c r="AE3" s="17" t="s">
+        <v>1127</v>
+      </c>
       <c r="AF3" s="10"/>
       <c r="AG3" s="10"/>
       <c r="AH3" s="10"/>
@@ -7688,6 +7715,10 @@
         <f>VLOOKUP(A4, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-001.jpg</v>
       </c>
+      <c r="AE4" t="str">
+        <f>"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A4, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_001.json</v>
+      </c>
     </row>
     <row r="5" spans="1:34" ht="28">
       <c r="A5" t="str">
@@ -7722,6 +7753,10 @@
         <f>VLOOKUP(A5, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-002.jpg</v>
       </c>
+      <c r="AE5" t="str">
+        <f t="shared" ref="AE5:AE68" si="1">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A5, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_002.json</v>
+      </c>
     </row>
     <row r="6" spans="1:34" ht="14">
       <c r="A6" t="str">
@@ -7763,6 +7798,10 @@
         <f>VLOOKUP(A6, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-002.jpg</v>
       </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_003.json</v>
+      </c>
     </row>
     <row r="7" spans="1:34" ht="14">
       <c r="A7" t="str">
@@ -7802,6 +7841,10 @@
         <f>VLOOKUP(A7, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-003.jpg</v>
       </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_004.json</v>
+      </c>
     </row>
     <row r="8" spans="1:34" ht="14">
       <c r="A8" t="str">
@@ -7841,6 +7884,10 @@
         <f>VLOOKUP(A8, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-003.jpg</v>
       </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_005.json</v>
+      </c>
     </row>
     <row r="9" spans="1:34" ht="14">
       <c r="A9" t="str">
@@ -7885,6 +7932,10 @@
         <f>VLOOKUP(A9, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-004.jpg</v>
       </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_006.json</v>
+      </c>
     </row>
     <row r="10" spans="1:34" ht="42">
       <c r="A10" t="str">
@@ -7924,6 +7975,10 @@
         <f>VLOOKUP(A10, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-005.jpg</v>
       </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_007.json</v>
+      </c>
     </row>
     <row r="11" spans="1:34" ht="14">
       <c r="A11" t="str">
@@ -7957,6 +8012,10 @@
         <f>VLOOKUP(A11, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-005.jpg</v>
       </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_008.json</v>
+      </c>
     </row>
     <row r="12" spans="1:34" ht="14">
       <c r="A12" t="str">
@@ -7989,6 +8048,10 @@
         <f>VLOOKUP(A12, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
       </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_009.json</v>
+      </c>
     </row>
     <row r="13" spans="1:34" ht="14">
       <c r="A13" t="str">
@@ -8027,6 +8090,10 @@
         <f>VLOOKUP(A13, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
       </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_010.json</v>
+      </c>
     </row>
     <row r="14" spans="1:34" ht="13">
       <c r="A14" t="str">
@@ -8063,6 +8130,10 @@
       <c r="AD14" t="str">
         <f>VLOOKUP(A14, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_011.json</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="13">
@@ -8114,7 +8185,10 @@
         <f>VLOOKUP(A15, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-001.jpg</v>
       </c>
-      <c r="AE15" s="18"/>
+      <c r="AE15" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_001.json</v>
+      </c>
       <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
       <c r="AH15" s="18"/>
@@ -8147,8 +8221,12 @@
         <f>VLOOKUP(A16, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" ht="14">
+      <c r="AE16" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_002.json</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="14">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_003.json</v>
@@ -8178,8 +8256,12 @@
         <f>VLOOKUP(A17, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" ht="14">
+      <c r="AE17" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_003.json</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="14">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_004.json</v>
@@ -8214,8 +8296,12 @@
         <f>VLOOKUP(A18, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" ht="13">
+      <c r="AE18" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_004.json</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="13">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_005.json</v>
@@ -8245,8 +8331,12 @@
         <f>VLOOKUP(A19, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" ht="14">
+      <c r="AE19" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_005.json</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" ht="14">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_006.json</v>
@@ -8281,8 +8371,12 @@
         <f>VLOOKUP(A20, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="14">
+      <c r="AE20" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_006.json</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" ht="14">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_007.json</v>
@@ -8315,8 +8409,12 @@
         <f>VLOOKUP(A21, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" ht="13">
+      <c r="AE21" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_007.json</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" ht="13">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_008.json</v>
@@ -8349,8 +8447,12 @@
         <f>VLOOKUP(A22, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" ht="13">
+      <c r="AE22" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_008.json</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="13">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_009.json</v>
@@ -8383,8 +8485,12 @@
         <f>VLOOKUP(A23, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" ht="13">
+      <c r="AE23" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_009.json</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="13">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_010.json</v>
@@ -8417,8 +8523,12 @@
         <f>VLOOKUP(A24, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="13">
+      <c r="AE24" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_010.json</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" ht="13">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_011.json</v>
@@ -8451,8 +8561,12 @@
         <f>VLOOKUP(A25, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" ht="13">
+      <c r="AE25" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_011.json</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" ht="13">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_012.json</v>
@@ -8485,8 +8599,12 @@
         <f>VLOOKUP(A26, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" ht="13">
+      <c r="AE26" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_012.json</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" ht="13">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_013.json</v>
@@ -8519,8 +8637,12 @@
         <f>VLOOKUP(A27, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" ht="13">
+      <c r="AE27" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_013.json</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" ht="13">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_014.json</v>
@@ -8553,8 +8675,12 @@
         <f>VLOOKUP(A28, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" ht="13">
+      <c r="AE28" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_014.json</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" ht="13">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_015.json</v>
@@ -8587,8 +8713,12 @@
         <f>VLOOKUP(A29, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" ht="13">
+      <c r="AE29" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_015.json</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" ht="13">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_016.json</v>
@@ -8621,8 +8751,12 @@
         <f>VLOOKUP(A30, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" ht="13">
+      <c r="AE30" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_016.json</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" ht="13">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_017.json</v>
@@ -8655,8 +8789,12 @@
         <f>VLOOKUP(A31, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" ht="13">
+      <c r="AE31" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_017.json</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="13">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_018.json</v>
@@ -8689,8 +8827,12 @@
         <f>VLOOKUP(A32, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" ht="13">
+      <c r="AE32" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_018.json</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" ht="13">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_019.json</v>
@@ -8723,8 +8865,12 @@
         <f>VLOOKUP(A33, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" ht="13">
+      <c r="AE33" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_019.json</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" ht="13">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_020.json</v>
@@ -8757,8 +8903,12 @@
         <f>VLOOKUP(A34, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" ht="13">
+      <c r="AE34" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_020.json</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" ht="13">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_021.json</v>
@@ -8791,8 +8941,12 @@
         <f>VLOOKUP(A35, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" ht="13">
+      <c r="AE35" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_021.json</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" ht="13">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_022.json</v>
@@ -8825,8 +8979,12 @@
         <f>VLOOKUP(A36, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" ht="14">
+      <c r="AE36" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_022.json</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" ht="14">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_023.json</v>
@@ -8859,8 +9017,12 @@
         <f>VLOOKUP(A37, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" ht="14">
+      <c r="AE37" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_023.json</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" ht="14">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_024.json</v>
@@ -8893,8 +9055,12 @@
         <f>VLOOKUP(A38, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" ht="14">
+      <c r="AE38" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_024.json</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" ht="14">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_025.json</v>
@@ -8927,8 +9093,12 @@
         <f>VLOOKUP(A39, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-007.jpg</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" ht="13">
+      <c r="AE39" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_025.json</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" ht="13">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_026.json</v>
@@ -8964,8 +9134,12 @@
         <f>VLOOKUP(A40, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-007.jpg</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" ht="28">
+      <c r="AE40" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_026.json</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" ht="28">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_027.json</v>
@@ -8997,8 +9171,12 @@
         <f>VLOOKUP(A41, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-008.jpg</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" ht="28">
+      <c r="AE41" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_027.json</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" ht="28">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_028.json</v>
@@ -9030,8 +9208,12 @@
         <f>VLOOKUP(A42, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-008.jpg</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" ht="13">
+      <c r="AE42" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_028.json</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" ht="13">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_029.json</v>
@@ -9064,8 +9246,12 @@
         <f>VLOOKUP(A43, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-009.jpg</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" ht="13">
+      <c r="AE43" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_029.json</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" ht="13">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_030.json</v>
@@ -9095,8 +9281,12 @@
         <f>VLOOKUP(A44, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" ht="13">
+      <c r="AE44" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_030.json</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" ht="13">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_031.json</v>
@@ -9126,8 +9316,12 @@
         <f>VLOOKUP(A45, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" ht="13">
+      <c r="AE45" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_031.json</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31" ht="13">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_032.json</v>
@@ -9157,8 +9351,12 @@
         <f>VLOOKUP(A46, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" ht="13">
+      <c r="AE46" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_032.json</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" ht="13">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_033.json</v>
@@ -9191,8 +9389,12 @@
         <f>VLOOKUP(A47, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" ht="13">
+      <c r="AE47" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_033.json</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" ht="13">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_034.json</v>
@@ -9222,8 +9424,12 @@
         <f>VLOOKUP(A48, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" ht="13">
+      <c r="AE48" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_034.json</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" ht="13">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_035.json</v>
@@ -9253,8 +9459,12 @@
         <f>VLOOKUP(A49, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" ht="13">
+      <c r="AE49" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_035.json</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="13">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_036.json</v>
@@ -9284,8 +9494,12 @@
         <f>VLOOKUP(A50, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" ht="13">
+      <c r="AE50" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_036.json</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" ht="13">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_037.json</v>
@@ -9315,8 +9529,12 @@
         <f>VLOOKUP(A51, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" ht="14">
+      <c r="AE51" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_037.json</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" ht="14">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_038.json</v>
@@ -9346,8 +9564,12 @@
         <f>VLOOKUP(A52, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" ht="14">
+      <c r="AE52" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_038.json</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" ht="14">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_039.json</v>
@@ -9379,8 +9601,12 @@
         <f>VLOOKUP(A53, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" ht="14">
+      <c r="AE53" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_039.json</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" ht="14">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_040.json</v>
@@ -9410,8 +9636,12 @@
         <f>VLOOKUP(A54, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-012.jpg</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" ht="14">
+      <c r="AE54" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_040.json</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" ht="14">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_041.json</v>
@@ -9446,8 +9676,12 @@
         <f>VLOOKUP(A55, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-013.jpg</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" ht="28">
+      <c r="AE55" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_041.json</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="28">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_042.json</v>
@@ -9477,8 +9711,12 @@
         <f>VLOOKUP(A56, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" ht="14">
+      <c r="AE56" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_042.json</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="14">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_043.json</v>
@@ -9513,8 +9751,12 @@
         <f>VLOOKUP(A57, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="28">
+      <c r="AE57" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_043.json</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31" ht="28">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_044.json</v>
@@ -9546,8 +9788,12 @@
         <f>VLOOKUP(A58, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" ht="28">
+      <c r="AE58" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_044.json</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" ht="28">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_045.json</v>
@@ -9577,8 +9823,12 @@
         <f>VLOOKUP(A59, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-016.jpg</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" ht="14">
+      <c r="AE59" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_045.json</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" ht="14">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_046.json</v>
@@ -9610,8 +9860,12 @@
         <f>VLOOKUP(A60, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-017.jpg</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" ht="14">
+      <c r="AE60" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_046.json</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" ht="14">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_047.json</v>
@@ -9641,8 +9895,12 @@
         <f>VLOOKUP(A61, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" ht="14">
+      <c r="AE61" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_047.json</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" ht="14">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_048.json</v>
@@ -9672,8 +9930,12 @@
         <f>VLOOKUP(A62, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" ht="14">
+      <c r="AE62" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_048.json</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" ht="14">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_049.json</v>
@@ -9703,8 +9965,12 @@
         <f>VLOOKUP(A63, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" ht="14">
+      <c r="AE63" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_049.json</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="14">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_050.json</v>
@@ -9734,8 +10000,12 @@
         <f>VLOOKUP(A64, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" ht="13">
+      <c r="AE64" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_050.json</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" ht="13">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_001.json</v>
@@ -9763,8 +10033,12 @@
         <f>VLOOKUP(A65, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-001.jpg</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" ht="13">
+      <c r="AE65" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_001.json</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" ht="13">
       <c r="A66" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_002.json</v>
@@ -9793,8 +10067,12 @@
         <f>VLOOKUP(A66, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" ht="14">
+      <c r="AE66" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_002.json</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" ht="14">
       <c r="A67" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_003.json</v>
@@ -9825,8 +10103,12 @@
         <f>VLOOKUP(A67, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" ht="14">
+      <c r="AE67" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_003.json</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" ht="14">
       <c r="A68" t="str">
         <f t="shared" si="0"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_004.json</v>
@@ -9861,10 +10143,14 @@
         <f>VLOOKUP(A68, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" ht="13">
+      <c r="AE68" t="str">
+        <f t="shared" si="1"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_004.json</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" ht="13">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A132" si="1">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B69, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A69:A132" si="2">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B69, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_005.json</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -9893,10 +10179,14 @@
         <f>VLOOKUP(A69, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" ht="13">
+      <c r="AE69" t="str">
+        <f t="shared" ref="AE69:AE132" si="3">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A69, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_005.json</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" ht="13">
       <c r="A70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_006.json</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -9924,10 +10214,14 @@
         <f>VLOOKUP(A70, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-003.jpg</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" ht="14">
+      <c r="AE70" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_006.json</v>
+      </c>
+    </row>
+    <row r="71" spans="1:31" ht="14">
       <c r="A71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_007.json</v>
       </c>
       <c r="B71" s="16" t="s">
@@ -9957,10 +10251,14 @@
         <f>VLOOKUP(A71, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-004.jpg</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" ht="13">
+      <c r="AE71" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_007.json</v>
+      </c>
+    </row>
+    <row r="72" spans="1:31" ht="13">
       <c r="A72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_008.json</v>
       </c>
       <c r="B72" s="16" t="s">
@@ -9988,10 +10286,14 @@
         <f>VLOOKUP(A72, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-004.jpg</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" ht="13">
+      <c r="AE72" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_008.json</v>
+      </c>
+    </row>
+    <row r="73" spans="1:31" ht="13">
       <c r="A73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_009.json</v>
       </c>
       <c r="B73" s="16" t="s">
@@ -10019,10 +10321,14 @@
         <f>VLOOKUP(A73, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-007.jpg</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" ht="13">
+      <c r="AE73" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_009.json</v>
+      </c>
+    </row>
+    <row r="74" spans="1:31" ht="13">
       <c r="A74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_010.json</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -10050,10 +10356,14 @@
         <f>VLOOKUP(A74, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-008.jpg</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" ht="13">
+      <c r="AE74" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_010.json</v>
+      </c>
+    </row>
+    <row r="75" spans="1:31" ht="13">
       <c r="A75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_011.json</v>
       </c>
       <c r="B75" s="16" t="s">
@@ -10081,10 +10391,14 @@
         <f>VLOOKUP(A75, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-008.jpg</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" ht="13">
+      <c r="AE75" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_011.json</v>
+      </c>
+    </row>
+    <row r="76" spans="1:31" ht="13">
       <c r="A76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_012.json</v>
       </c>
       <c r="B76" s="16" t="s">
@@ -10112,10 +10426,14 @@
         <f>VLOOKUP(A76, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-009.jpg</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" ht="14">
+      <c r="AE76" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_012.json</v>
+      </c>
+    </row>
+    <row r="77" spans="1:31" ht="14">
       <c r="A77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_013.json</v>
       </c>
       <c r="B77" s="16" t="s">
@@ -10145,10 +10463,14 @@
         <f>VLOOKUP(A77, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-009.jpg</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" ht="14">
+      <c r="AE77" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_013.json</v>
+      </c>
+    </row>
+    <row r="78" spans="1:31" ht="14">
       <c r="A78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_014.json</v>
       </c>
       <c r="B78" s="16" t="s">
@@ -10178,10 +10500,14 @@
         <f>VLOOKUP(A78, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-010.jpg</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" ht="13">
+      <c r="AE78" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_014.json</v>
+      </c>
+    </row>
+    <row r="79" spans="1:31" ht="13">
       <c r="A79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_015.json</v>
       </c>
       <c r="B79" s="16" t="s">
@@ -10209,10 +10535,14 @@
         <f>VLOOKUP(A79, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" ht="13">
+      <c r="AE79" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_015.json</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" ht="13">
       <c r="A80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_016.json</v>
       </c>
       <c r="B80" s="16" t="s">
@@ -10240,10 +10570,14 @@
         <f>VLOOKUP(A80, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" ht="13">
+      <c r="AE80" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_016.json</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" ht="13">
       <c r="A81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_017.json</v>
       </c>
       <c r="B81" s="16" t="s">
@@ -10271,10 +10605,14 @@
         <f>VLOOKUP(A81, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" ht="14">
+      <c r="AE81" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_017.json</v>
+      </c>
+    </row>
+    <row r="82" spans="1:31" ht="14">
       <c r="A82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_018.json</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -10307,10 +10645,14 @@
         <f>VLOOKUP(A82, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" ht="13">
+      <c r="AE82" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_018.json</v>
+      </c>
+    </row>
+    <row r="83" spans="1:31" ht="13">
       <c r="A83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_019.json</v>
       </c>
       <c r="B83" s="16" t="s">
@@ -10338,10 +10680,14 @@
         <f>VLOOKUP(A83, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" ht="13">
+      <c r="AE83" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_019.json</v>
+      </c>
+    </row>
+    <row r="84" spans="1:31" ht="13">
       <c r="A84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_020.json</v>
       </c>
       <c r="B84" s="16" t="s">
@@ -10369,10 +10715,14 @@
         <f>VLOOKUP(A84, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" ht="14">
+      <c r="AE84" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_020.json</v>
+      </c>
+    </row>
+    <row r="85" spans="1:31" ht="14">
       <c r="A85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_021.json</v>
       </c>
       <c r="B85" s="16" t="s">
@@ -10402,10 +10752,14 @@
         <f>VLOOKUP(A85, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" ht="13">
+      <c r="AE85" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_021.json</v>
+      </c>
+    </row>
+    <row r="86" spans="1:31" ht="13">
       <c r="A86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_022.json</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -10436,10 +10790,14 @@
         <f>VLOOKUP(A86, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-013.jpg</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" ht="13">
+      <c r="AE86" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_022.json</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" ht="13">
       <c r="A87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_023.json</v>
       </c>
       <c r="B87" s="16" t="s">
@@ -10470,10 +10828,14 @@
         <f>VLOOKUP(A87, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" ht="14">
+      <c r="AE87" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_023.json</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" ht="14">
       <c r="A88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_024.json</v>
       </c>
       <c r="B88" s="16" t="s">
@@ -10506,10 +10868,14 @@
         <f>VLOOKUP(A88, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" ht="13">
+      <c r="AE88" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_024.json</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" ht="13">
       <c r="A89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_025.json</v>
       </c>
       <c r="B89" s="16" t="s">
@@ -10537,10 +10903,14 @@
         <f>VLOOKUP(A89, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" ht="13">
+      <c r="AE89" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_025.json</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" ht="13">
       <c r="A90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_026.json</v>
       </c>
       <c r="B90" s="16" t="s">
@@ -10568,10 +10938,14 @@
         <f>VLOOKUP(A90, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" ht="13">
+      <c r="AE90" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_026.json</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" ht="13">
       <c r="A91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_027.json</v>
       </c>
       <c r="B91" s="16" t="s">
@@ -10599,10 +10973,14 @@
         <f>VLOOKUP(A91, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" ht="13">
+      <c r="AE91" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_027.json</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" ht="13">
       <c r="A92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_028.json</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -10630,10 +11008,14 @@
         <f>VLOOKUP(A92, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" ht="13">
+      <c r="AE92" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_028.json</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" ht="13">
       <c r="A93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_029.json</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -10661,10 +11043,14 @@
         <f>VLOOKUP(A93, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" ht="13">
+      <c r="AE93" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_029.json</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" ht="13">
       <c r="A94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_030.json</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -10692,10 +11078,14 @@
         <f>VLOOKUP(A94, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" ht="13">
+      <c r="AE94" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_030.json</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" ht="13">
       <c r="A95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_031.json</v>
       </c>
       <c r="B95" s="16" t="s">
@@ -10723,10 +11113,14 @@
         <f>VLOOKUP(A95, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" ht="13">
+      <c r="AE95" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_031.json</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" ht="13">
       <c r="A96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_032.json</v>
       </c>
       <c r="B96" s="16" t="s">
@@ -10754,10 +11148,14 @@
         <f>VLOOKUP(A96, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" ht="13">
+      <c r="AE96" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_032.json</v>
+      </c>
+    </row>
+    <row r="97" spans="1:31" ht="13">
       <c r="A97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_033.json</v>
       </c>
       <c r="B97" s="16" t="s">
@@ -10785,10 +11183,14 @@
         <f>VLOOKUP(A97, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" ht="13">
+      <c r="AE97" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_033.json</v>
+      </c>
+    </row>
+    <row r="98" spans="1:31" ht="13">
       <c r="A98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_034.json</v>
       </c>
       <c r="B98" s="16" t="s">
@@ -10816,10 +11218,14 @@
         <f>VLOOKUP(A98, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" ht="13">
+      <c r="AE98" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_034.json</v>
+      </c>
+    </row>
+    <row r="99" spans="1:31" ht="13">
       <c r="A99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_035.json</v>
       </c>
       <c r="B99" s="16" t="s">
@@ -10847,10 +11253,14 @@
         <f>VLOOKUP(A99, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" ht="13">
+      <c r="AE99" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_035.json</v>
+      </c>
+    </row>
+    <row r="100" spans="1:31" ht="13">
       <c r="A100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_036.json</v>
       </c>
       <c r="B100" s="16" t="s">
@@ -10878,10 +11288,14 @@
         <f>VLOOKUP(A100, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" ht="14">
+      <c r="AE100" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_036.json</v>
+      </c>
+    </row>
+    <row r="101" spans="1:31" ht="14">
       <c r="A101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_037.json</v>
       </c>
       <c r="B101" s="16" t="s">
@@ -10911,10 +11325,14 @@
         <f>VLOOKUP(A101, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" ht="14">
+      <c r="AE101" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_037.json</v>
+      </c>
+    </row>
+    <row r="102" spans="1:31" ht="14">
       <c r="A102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_038.json</v>
       </c>
       <c r="B102" s="16" t="s">
@@ -10944,10 +11362,14 @@
         <f>VLOOKUP(A102, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" ht="13">
+      <c r="AE102" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_038.json</v>
+      </c>
+    </row>
+    <row r="103" spans="1:31" ht="13">
       <c r="A103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_039.json</v>
       </c>
       <c r="B103" s="16" t="s">
@@ -10976,10 +11398,14 @@
         <f>VLOOKUP(A103, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-017.jpg</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" ht="13">
+      <c r="AE103" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_039.json</v>
+      </c>
+    </row>
+    <row r="104" spans="1:31" ht="13">
       <c r="A104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_040.json</v>
       </c>
       <c r="B104" s="16" t="s">
@@ -11007,10 +11433,14 @@
         <f>VLOOKUP(A104, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" ht="13">
+      <c r="AE104" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_040.json</v>
+      </c>
+    </row>
+    <row r="105" spans="1:31" ht="13">
       <c r="A105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_041.json</v>
       </c>
       <c r="B105" s="16" t="s">
@@ -11038,10 +11468,14 @@
         <f>VLOOKUP(A105, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" ht="13">
+      <c r="AE105" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_041.json</v>
+      </c>
+    </row>
+    <row r="106" spans="1:31" ht="13">
       <c r="A106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_042.json</v>
       </c>
       <c r="B106" s="16" t="s">
@@ -11067,10 +11501,14 @@
         <f>VLOOKUP(A106, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
-    </row>
-    <row r="107" spans="1:30" ht="13">
+      <c r="AE106" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_042.json</v>
+      </c>
+    </row>
+    <row r="107" spans="1:31" ht="13">
       <c r="A107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_001.json</v>
       </c>
       <c r="B107" s="16" t="s">
@@ -11096,10 +11534,14 @@
         <f>VLOOKUP(A107, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-001.jpg</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" ht="13">
+      <c r="AE107" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_001.json</v>
+      </c>
+    </row>
+    <row r="108" spans="1:31" ht="13">
       <c r="A108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_002.json</v>
       </c>
       <c r="B108" s="16" t="s">
@@ -11125,10 +11567,14 @@
         <f>VLOOKUP(A108, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
-    </row>
-    <row r="109" spans="1:30" ht="14">
+      <c r="AE108" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_002.json</v>
+      </c>
+    </row>
+    <row r="109" spans="1:31" ht="14">
       <c r="A109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_003.json</v>
       </c>
       <c r="B109" s="16" t="s">
@@ -11156,10 +11602,14 @@
         <f>VLOOKUP(A109, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" ht="14">
+      <c r="AE109" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_003.json</v>
+      </c>
+    </row>
+    <row r="110" spans="1:31" ht="14">
       <c r="A110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_004.json</v>
       </c>
       <c r="B110" s="16" t="s">
@@ -11192,10 +11642,14 @@
         <f>VLOOKUP(A110, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" ht="13">
+      <c r="AE110" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_004.json</v>
+      </c>
+    </row>
+    <row r="111" spans="1:31" ht="13">
       <c r="A111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_005.json</v>
       </c>
       <c r="B111" s="16" t="s">
@@ -11224,10 +11678,14 @@
         <f>VLOOKUP(A111, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" ht="13">
+      <c r="AE111" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_005.json</v>
+      </c>
+    </row>
+    <row r="112" spans="1:31" ht="13">
       <c r="A112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_006.json</v>
       </c>
       <c r="B112" s="16" t="s">
@@ -11255,10 +11713,14 @@
         <f>VLOOKUP(A112, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-003.jpg</v>
       </c>
-    </row>
-    <row r="113" spans="1:30" ht="14">
+      <c r="AE112" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_006.json</v>
+      </c>
+    </row>
+    <row r="113" spans="1:31" ht="14">
       <c r="A113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_007.json</v>
       </c>
       <c r="B113" s="16" t="s">
@@ -11288,10 +11750,14 @@
         <f>VLOOKUP(A113, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
-    </row>
-    <row r="114" spans="1:30" ht="13">
+      <c r="AE113" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_007.json</v>
+      </c>
+    </row>
+    <row r="114" spans="1:31" ht="13">
       <c r="A114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_008.json</v>
       </c>
       <c r="B114" s="16" t="s">
@@ -11319,10 +11785,14 @@
         <f>VLOOKUP(A114, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" ht="13">
+      <c r="AE114" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_008.json</v>
+      </c>
+    </row>
+    <row r="115" spans="1:31" ht="13">
       <c r="A115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_009.json</v>
       </c>
       <c r="B115" s="16" t="s">
@@ -11350,10 +11820,14 @@
         <f>VLOOKUP(A115, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" ht="13">
+      <c r="AE115" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_009.json</v>
+      </c>
+    </row>
+    <row r="116" spans="1:31" ht="13">
       <c r="A116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_010.json</v>
       </c>
       <c r="B116" s="16" t="s">
@@ -11381,10 +11855,14 @@
         <f>VLOOKUP(A116, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
-    </row>
-    <row r="117" spans="1:30" ht="13">
+      <c r="AE116" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_010.json</v>
+      </c>
+    </row>
+    <row r="117" spans="1:31" ht="13">
       <c r="A117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_011.json</v>
       </c>
       <c r="B117" s="16" t="s">
@@ -11412,10 +11890,14 @@
         <f>VLOOKUP(A117, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-006.jpg</v>
       </c>
-    </row>
-    <row r="118" spans="1:30" ht="13">
+      <c r="AE117" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_011.json</v>
+      </c>
+    </row>
+    <row r="118" spans="1:31" ht="13">
       <c r="A118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_012.json</v>
       </c>
       <c r="B118" s="16" t="s">
@@ -11443,10 +11925,14 @@
         <f>VLOOKUP(A118, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
-    </row>
-    <row r="119" spans="1:30" ht="13">
+      <c r="AE118" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_012.json</v>
+      </c>
+    </row>
+    <row r="119" spans="1:31" ht="13">
       <c r="A119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_013.json</v>
       </c>
       <c r="B119" s="16" t="s">
@@ -11474,10 +11960,14 @@
         <f>VLOOKUP(A119, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
-    </row>
-    <row r="120" spans="1:30" ht="13.5" customHeight="1">
+      <c r="AE119" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_013.json</v>
+      </c>
+    </row>
+    <row r="120" spans="1:31" ht="13.5" customHeight="1">
       <c r="A120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_014.json</v>
       </c>
       <c r="B120" s="16" t="s">
@@ -11505,10 +11995,14 @@
         <f>VLOOKUP(A120, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-008.jpg</v>
       </c>
-    </row>
-    <row r="121" spans="1:30" ht="13.5" customHeight="1">
+      <c r="AE120" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_014.json</v>
+      </c>
+    </row>
+    <row r="121" spans="1:31" ht="13.5" customHeight="1">
       <c r="A121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_015.json</v>
       </c>
       <c r="B121" s="16" t="s">
@@ -11536,10 +12030,14 @@
         <f>VLOOKUP(A121, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
-    </row>
-    <row r="122" spans="1:30" ht="14">
+      <c r="AE121" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_015.json</v>
+      </c>
+    </row>
+    <row r="122" spans="1:31" ht="14">
       <c r="A122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_016.json</v>
       </c>
       <c r="B122" s="16" t="s">
@@ -11569,10 +12067,14 @@
         <f>VLOOKUP(A122, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
-    </row>
-    <row r="123" spans="1:30" ht="13">
+      <c r="AE122" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_016.json</v>
+      </c>
+    </row>
+    <row r="123" spans="1:31" ht="13">
       <c r="A123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_017.json</v>
       </c>
       <c r="B123" s="16" t="s">
@@ -11600,10 +12102,14 @@
         <f>VLOOKUP(A123, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
-    </row>
-    <row r="124" spans="1:30" ht="14">
+      <c r="AE123" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_017.json</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" ht="14">
       <c r="A124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_018.json</v>
       </c>
       <c r="B124" s="16" t="s">
@@ -11633,10 +12139,14 @@
         <f>VLOOKUP(A124, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-008.jpg</v>
       </c>
-    </row>
-    <row r="125" spans="1:30" ht="13">
+      <c r="AE124" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_018.json</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" ht="13">
       <c r="A125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_019.json</v>
       </c>
       <c r="B125" s="16" t="s">
@@ -11664,10 +12174,14 @@
         <f>VLOOKUP(A125, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-009.jpg</v>
       </c>
-    </row>
-    <row r="126" spans="1:30" ht="14">
+      <c r="AE125" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_019.json</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" ht="14">
       <c r="A126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_020.json</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -11700,10 +12214,14 @@
         <f>VLOOKUP(A126, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-009.jpg</v>
       </c>
-    </row>
-    <row r="127" spans="1:30" ht="1.5" customHeight="1">
+      <c r="AE126" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_020.json</v>
+      </c>
+    </row>
+    <row r="127" spans="1:31" ht="1.5" customHeight="1">
       <c r="A127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_021.json</v>
       </c>
       <c r="B127" s="16" t="s">
@@ -11733,10 +12251,14 @@
         <f>VLOOKUP(A127, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-010.jpg</v>
       </c>
-    </row>
-    <row r="128" spans="1:30" ht="13">
+      <c r="AE127" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_021.json</v>
+      </c>
+    </row>
+    <row r="128" spans="1:31" ht="13">
       <c r="A128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_022.json</v>
       </c>
       <c r="B128" s="16" t="s">
@@ -11767,10 +12289,14 @@
         <f>VLOOKUP(A128, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-011.jpg</v>
       </c>
-    </row>
-    <row r="129" spans="1:30" ht="1.5" customHeight="1">
+      <c r="AE128" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_022.json</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" ht="1.5" customHeight="1">
       <c r="A129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_023.json</v>
       </c>
       <c r="B129" s="16" t="s">
@@ -11798,10 +12324,14 @@
         <f>VLOOKUP(A129, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-011.jpg</v>
       </c>
-    </row>
-    <row r="130" spans="1:30" ht="13">
+      <c r="AE129" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_023.json</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" ht="13">
       <c r="A130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_024.json</v>
       </c>
       <c r="B130" s="16" t="s">
@@ -11832,10 +12362,14 @@
         <f>VLOOKUP(A130, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
-    </row>
-    <row r="131" spans="1:30" ht="14">
+      <c r="AE130" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_024.json</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" ht="14">
       <c r="A131" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_025.json</v>
       </c>
       <c r="B131" s="16" t="s">
@@ -11868,10 +12402,14 @@
         <f>VLOOKUP(A131, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
-    </row>
-    <row r="132" spans="1:30" ht="14">
+      <c r="AE131" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_025.json</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" ht="14">
       <c r="A132" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_026.json</v>
       </c>
       <c r="B132" s="16" t="s">
@@ -11901,10 +12439,14 @@
         <f>VLOOKUP(A132, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
-    </row>
-    <row r="133" spans="1:30" ht="13">
+      <c r="AE132" t="str">
+        <f t="shared" si="3"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_026.json</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" ht="13">
       <c r="A133" t="str">
-        <f t="shared" ref="A133:A196" si="2">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B133, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A133:A196" si="4">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B133, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_027.json</v>
       </c>
       <c r="B133" s="16" t="s">
@@ -11932,10 +12474,14 @@
         <f>VLOOKUP(A133, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-014.jpg</v>
       </c>
-    </row>
-    <row r="134" spans="1:30" ht="13">
+      <c r="AE133" t="str">
+        <f t="shared" ref="AE133:AE196" si="5">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A133, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_027.json</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" ht="13">
       <c r="A134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_028.json</v>
       </c>
       <c r="B134" s="16" t="s">
@@ -11963,10 +12509,14 @@
         <f>VLOOKUP(A134, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-015.jpg</v>
       </c>
-    </row>
-    <row r="135" spans="1:30" ht="13">
+      <c r="AE134" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_028.json</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" ht="13">
       <c r="A135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_029.json</v>
       </c>
       <c r="B135" s="16" t="s">
@@ -11994,10 +12544,14 @@
         <f>VLOOKUP(A135, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="136" spans="1:30" ht="13">
+      <c r="AE135" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_029.json</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" ht="13">
       <c r="A136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_030.json</v>
       </c>
       <c r="B136" s="16" t="s">
@@ -12025,10 +12579,14 @@
         <f>VLOOKUP(A136, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="137" spans="1:30" ht="13">
+      <c r="AE136" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_030.json</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" ht="13">
       <c r="A137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_031.json</v>
       </c>
       <c r="B137" s="16" t="s">
@@ -12056,10 +12614,14 @@
         <f>VLOOKUP(A137, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="138" spans="1:30" ht="13">
+      <c r="AE137" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_031.json</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" ht="13">
       <c r="A138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_032.json</v>
       </c>
       <c r="B138" s="16" t="s">
@@ -12087,10 +12649,14 @@
         <f>VLOOKUP(A138, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="139" spans="1:30" ht="13">
+      <c r="AE138" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_032.json</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" ht="13">
       <c r="A139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_033.json</v>
       </c>
       <c r="B139" s="16" t="s">
@@ -12118,10 +12684,14 @@
         <f>VLOOKUP(A139, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="140" spans="1:30" ht="13">
+      <c r="AE139" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_033.json</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" ht="13">
       <c r="A140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_034.json</v>
       </c>
       <c r="B140" s="16" t="s">
@@ -12149,10 +12719,14 @@
         <f>VLOOKUP(A140, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="141" spans="1:30" ht="13">
+      <c r="AE140" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_034.json</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" ht="13">
       <c r="A141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_035.json</v>
       </c>
       <c r="B141" s="16" t="s">
@@ -12180,10 +12754,14 @@
         <f>VLOOKUP(A141, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="142" spans="1:30" ht="13">
+      <c r="AE141" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_035.json</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" ht="13">
       <c r="A142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_036.json</v>
       </c>
       <c r="B142" s="16" t="s">
@@ -12211,10 +12789,14 @@
         <f>VLOOKUP(A142, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="143" spans="1:30" ht="13">
+      <c r="AE142" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_036.json</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" ht="13">
       <c r="A143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_037.json</v>
       </c>
       <c r="B143" s="16" t="s">
@@ -12242,10 +12824,14 @@
         <f>VLOOKUP(A143, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="144" spans="1:30" ht="13">
+      <c r="AE143" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_037.json</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" ht="13">
       <c r="A144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_038.json</v>
       </c>
       <c r="B144" s="16" t="s">
@@ -12273,10 +12859,14 @@
         <f>VLOOKUP(A144, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="145" spans="1:30" ht="13">
+      <c r="AE144" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_038.json</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" ht="13">
       <c r="A145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_039.json</v>
       </c>
       <c r="B145" s="16" t="s">
@@ -12304,10 +12894,14 @@
         <f>VLOOKUP(A145, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="146" spans="1:30" ht="13">
+      <c r="AE145" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_039.json</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" ht="13">
       <c r="A146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_040.json</v>
       </c>
       <c r="B146" s="16" t="s">
@@ -12335,10 +12929,14 @@
         <f>VLOOKUP(A146, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="147" spans="1:30" ht="13">
+      <c r="AE146" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_040.json</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" ht="13">
       <c r="A147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_041.json</v>
       </c>
       <c r="B147" s="16" t="s">
@@ -12366,10 +12964,14 @@
         <f>VLOOKUP(A147, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="148" spans="1:30" ht="13">
+      <c r="AE147" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_041.json</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" ht="13">
       <c r="A148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_042.json</v>
       </c>
       <c r="B148" s="16" t="s">
@@ -12397,10 +12999,14 @@
         <f>VLOOKUP(A148, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="149" spans="1:30" ht="14">
+      <c r="AE148" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_042.json</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" ht="14">
       <c r="A149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_043.json</v>
       </c>
       <c r="B149" s="16" t="s">
@@ -12430,10 +13036,14 @@
         <f>VLOOKUP(A149, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="150" spans="1:30" ht="13">
+      <c r="AE149" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_043.json</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" ht="13">
       <c r="A150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_044.json</v>
       </c>
       <c r="B150" s="16" t="s">
@@ -12461,10 +13071,14 @@
         <f>VLOOKUP(A150, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
-    </row>
-    <row r="151" spans="1:30" ht="13">
+      <c r="AE150" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_044.json</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" ht="13">
       <c r="A151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_045.json</v>
       </c>
       <c r="B151" s="16" t="s">
@@ -12492,10 +13106,14 @@
         <f>VLOOKUP(A151, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-017.jpg</v>
       </c>
-    </row>
-    <row r="152" spans="1:30" ht="14">
+      <c r="AE151" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_045.json</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" ht="14">
       <c r="A152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_046.json</v>
       </c>
       <c r="B152" s="16" t="s">
@@ -12528,10 +13146,14 @@
         <f>VLOOKUP(A152, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-017.jpg</v>
       </c>
-    </row>
-    <row r="153" spans="1:30" ht="13">
+      <c r="AE152" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_046.json</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" ht="13">
       <c r="A153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_047.json</v>
       </c>
       <c r="B153" s="16" t="s">
@@ -12559,10 +13181,14 @@
         <f>VLOOKUP(A153, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
-    </row>
-    <row r="154" spans="1:30" ht="13">
+      <c r="AE153" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_047.json</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" ht="13">
       <c r="A154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_048.json</v>
       </c>
       <c r="B154" s="16" t="s">
@@ -12590,10 +13216,14 @@
         <f>VLOOKUP(A154, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
-    </row>
-    <row r="155" spans="1:30" ht="13">
+      <c r="AE154" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_048.json</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="13">
       <c r="A155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_049.json</v>
       </c>
       <c r="B155" s="16" t="s">
@@ -12621,10 +13251,14 @@
         <f>VLOOKUP(A155, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
-    </row>
-    <row r="156" spans="1:30" ht="14">
+      <c r="AE155" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_049.json</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="14">
       <c r="A156" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_001.json</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -12655,10 +13289,14 @@
         <f>VLOOKUP(A156, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-001.jpg</v>
       </c>
-    </row>
-    <row r="157" spans="1:30" ht="13">
+      <c r="AE156" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_001.json</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" ht="13">
       <c r="A157" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_002.json</v>
       </c>
       <c r="B157" s="16" t="s">
@@ -12685,10 +13323,14 @@
         <f>VLOOKUP(A157, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
-    </row>
-    <row r="158" spans="1:30" ht="14">
+      <c r="AE157" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_002.json</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" ht="14">
       <c r="A158" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_003.json</v>
       </c>
       <c r="B158" s="16" t="s">
@@ -12717,10 +13359,14 @@
         <f>VLOOKUP(A158, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
-    </row>
-    <row r="159" spans="1:30" ht="14">
+      <c r="AE158" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_003.json</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" ht="14">
       <c r="A159" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_004.json</v>
       </c>
       <c r="B159" s="16" t="s">
@@ -12753,10 +13399,14 @@
         <f>VLOOKUP(A159, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
-    </row>
-    <row r="160" spans="1:30" ht="13">
+      <c r="AE159" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_004.json</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" ht="13">
       <c r="A160" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_005.json</v>
       </c>
       <c r="B160" s="16" t="s">
@@ -12785,10 +13435,14 @@
         <f>VLOOKUP(A160, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
-    </row>
-    <row r="161" spans="1:30" ht="14">
+      <c r="AE160" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_005.json</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" ht="14">
       <c r="A161" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_006.json</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -12818,10 +13472,14 @@
         <f>VLOOKUP(A161, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
-    </row>
-    <row r="162" spans="1:30" ht="16.5" customHeight="1">
+      <c r="AE161" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_006.json</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" ht="16.5" customHeight="1">
       <c r="A162" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_007.json</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -12849,10 +13507,14 @@
         <f>VLOOKUP(A162, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
-    </row>
-    <row r="163" spans="1:30" ht="15" customHeight="1">
+      <c r="AE162" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_007.json</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" ht="15" customHeight="1">
       <c r="A163" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_008.json</v>
       </c>
       <c r="B163" s="16" t="s">
@@ -12880,10 +13542,14 @@
         <f>VLOOKUP(A163, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
-    </row>
-    <row r="164" spans="1:30" ht="13">
+      <c r="AE163" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_008.json</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" ht="13">
       <c r="A164" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_009.json</v>
       </c>
       <c r="B164" s="16" t="s">
@@ -12911,10 +13577,14 @@
         <f>VLOOKUP(A164, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
-    </row>
-    <row r="165" spans="1:30" ht="42">
+      <c r="AE164" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_009.json</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" ht="42">
       <c r="A165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_010.json</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -12944,10 +13614,14 @@
         <f>VLOOKUP(A165, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
-    </row>
-    <row r="166" spans="1:30" ht="13">
+      <c r="AE165" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_010.json</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" ht="13">
       <c r="A166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_011.json</v>
       </c>
       <c r="B166" s="16" t="s">
@@ -12975,10 +13649,14 @@
         <f>VLOOKUP(A166, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
-    </row>
-    <row r="167" spans="1:30" ht="16.5" customHeight="1">
+      <c r="AE166" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_011.json</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" ht="16.5" customHeight="1">
       <c r="A167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_012.json</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -13008,10 +13686,14 @@
         <f>VLOOKUP(A167, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
-    </row>
-    <row r="168" spans="1:30" ht="17.25" customHeight="1">
+      <c r="AE167" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_012.json</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" ht="17.25" customHeight="1">
       <c r="A168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_013.json</v>
       </c>
       <c r="B168" s="16" t="s">
@@ -13039,10 +13721,14 @@
         <f>VLOOKUP(A168, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
-    </row>
-    <row r="169" spans="1:30" ht="16.5" customHeight="1">
+      <c r="AE168" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_013.json</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" ht="16.5" customHeight="1">
       <c r="A169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_014.json</v>
       </c>
       <c r="B169" s="16" t="s">
@@ -13072,10 +13758,14 @@
         <f>VLOOKUP(A169, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
-    </row>
-    <row r="170" spans="1:30" ht="13">
+      <c r="AE169" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_014.json</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" ht="13">
       <c r="A170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_015.json</v>
       </c>
       <c r="B170" s="16" t="s">
@@ -13103,10 +13793,14 @@
         <f>VLOOKUP(A170, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
-    </row>
-    <row r="171" spans="1:30" ht="1.5" customHeight="1">
+      <c r="AE170" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_015.json</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" ht="1.5" customHeight="1">
       <c r="A171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_016.json</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -13134,10 +13828,14 @@
         <f>VLOOKUP(A171, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
-    </row>
-    <row r="172" spans="1:30" ht="13">
+      <c r="AE171" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_016.json</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" ht="13">
       <c r="A172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_017.json</v>
       </c>
       <c r="B172" s="16" t="s">
@@ -13165,10 +13863,14 @@
         <f>VLOOKUP(A172, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
-    </row>
-    <row r="173" spans="1:30" ht="13">
+      <c r="AE172" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_017.json</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" ht="13">
       <c r="A173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_018.json</v>
       </c>
       <c r="B173" s="16" t="s">
@@ -13196,10 +13898,14 @@
         <f>VLOOKUP(A173, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
-    </row>
-    <row r="174" spans="1:30" ht="13">
+      <c r="AE173" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_018.json</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" ht="13">
       <c r="A174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_019.json</v>
       </c>
       <c r="B174" s="16" t="s">
@@ -13227,10 +13933,14 @@
         <f>VLOOKUP(A174, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-007.jpg</v>
       </c>
-    </row>
-    <row r="175" spans="1:30" ht="13">
+      <c r="AE174" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_019.json</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" ht="13">
       <c r="A175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_020.json</v>
       </c>
       <c r="B175" s="16" t="s">
@@ -13258,10 +13968,14 @@
         <f>VLOOKUP(A175, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-007.jpg</v>
       </c>
-    </row>
-    <row r="176" spans="1:30" ht="13">
+      <c r="AE175" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_020.json</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" ht="13">
       <c r="A176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_021.json</v>
       </c>
       <c r="B176" s="16" t="s">
@@ -13292,10 +14006,14 @@
         <f>VLOOKUP(A176, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-008.jpg</v>
       </c>
-    </row>
-    <row r="177" spans="1:30" ht="14">
+      <c r="AE176" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_021.json</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" ht="14">
       <c r="A177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_022.json</v>
       </c>
       <c r="B177" s="16" t="s">
@@ -13328,10 +14046,14 @@
         <f>VLOOKUP(A177, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-008.jpg</v>
       </c>
-    </row>
-    <row r="178" spans="1:30" ht="14">
+      <c r="AE177" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_022.json</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" ht="14">
       <c r="A178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_023.json</v>
       </c>
       <c r="B178" s="16" t="s">
@@ -13361,10 +14083,14 @@
         <f>VLOOKUP(A178, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-009.jpg</v>
       </c>
-    </row>
-    <row r="179" spans="1:30" ht="13">
+      <c r="AE178" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_023.json</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" ht="13">
       <c r="A179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_024.json</v>
       </c>
       <c r="B179" s="16" t="s">
@@ -13392,10 +14118,14 @@
         <f>VLOOKUP(A179, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-009.jpg</v>
       </c>
-    </row>
-    <row r="180" spans="1:30" ht="14">
+      <c r="AE179" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_024.json</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" ht="14">
       <c r="A180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_025.json</v>
       </c>
       <c r="B180" s="16" t="s">
@@ -13425,10 +14155,14 @@
         <f>VLOOKUP(A180, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-010.jpg</v>
       </c>
-    </row>
-    <row r="181" spans="1:30" ht="13">
+      <c r="AE180" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_025.json</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" ht="13">
       <c r="A181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_026.json</v>
       </c>
       <c r="B181" s="16" t="s">
@@ -13456,10 +14190,14 @@
         <f>VLOOKUP(A181, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-011.jpg</v>
       </c>
-    </row>
-    <row r="182" spans="1:30" ht="13">
+      <c r="AE181" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_026.json</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" ht="13">
       <c r="A182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_027.json</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -13487,10 +14225,14 @@
         <f>VLOOKUP(A182, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-011.jpg</v>
       </c>
-    </row>
-    <row r="183" spans="1:30" ht="13">
+      <c r="AE182" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_027.json</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" ht="13">
       <c r="A183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_028.json</v>
       </c>
       <c r="B183" s="16" t="s">
@@ -13521,10 +14263,14 @@
         <f>VLOOKUP(A183, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-012.jpg</v>
       </c>
-    </row>
-    <row r="184" spans="1:30" ht="14">
+      <c r="AE183" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_028.json</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" ht="14">
       <c r="A184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_029.json</v>
       </c>
       <c r="B184" s="16" t="s">
@@ -13557,10 +14303,14 @@
         <f>VLOOKUP(A184, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-014.jpg</v>
       </c>
-    </row>
-    <row r="185" spans="1:30" ht="13">
+      <c r="AE184" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_029.json</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" ht="13">
       <c r="A185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_030.json</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -13588,10 +14338,14 @@
         <f>VLOOKUP(A185, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-015.jpg</v>
       </c>
-    </row>
-    <row r="186" spans="1:30" ht="13">
+      <c r="AE185" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_030.json</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" ht="13">
       <c r="A186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_031.json</v>
       </c>
       <c r="B186" s="16" t="s">
@@ -13619,10 +14373,14 @@
         <f>VLOOKUP(A186, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-015.jpg</v>
       </c>
-    </row>
-    <row r="187" spans="1:30" ht="13">
+      <c r="AE186" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_031.json</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" ht="13">
       <c r="A187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_032.json</v>
       </c>
       <c r="B187" s="16" t="s">
@@ -13650,10 +14408,14 @@
         <f>VLOOKUP(A187, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-016.jpg</v>
       </c>
-    </row>
-    <row r="188" spans="1:30" ht="13">
+      <c r="AE187" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_032.json</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" ht="13">
       <c r="A188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_033.json</v>
       </c>
       <c r="B188" s="16" t="s">
@@ -13681,10 +14443,14 @@
         <f>VLOOKUP(A188, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="189" spans="1:30" ht="13">
+      <c r="AE188" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_033.json</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" ht="13">
       <c r="A189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_034.json</v>
       </c>
       <c r="B189" s="16" t="s">
@@ -13712,10 +14478,14 @@
         <f>VLOOKUP(A189, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="190" spans="1:30" ht="13">
+      <c r="AE189" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_034.json</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" ht="13">
       <c r="A190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_035.json</v>
       </c>
       <c r="B190" s="16" t="s">
@@ -13743,10 +14513,14 @@
         <f>VLOOKUP(A190, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="191" spans="1:30" ht="13">
+      <c r="AE190" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_035.json</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" ht="13">
       <c r="A191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_036.json</v>
       </c>
       <c r="B191" s="16" t="s">
@@ -13774,10 +14548,14 @@
         <f>VLOOKUP(A191, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="192" spans="1:30" ht="13">
+      <c r="AE191" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_036.json</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" ht="13">
       <c r="A192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_037.json</v>
       </c>
       <c r="B192" s="16" t="s">
@@ -13805,10 +14583,14 @@
         <f>VLOOKUP(A192, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="193" spans="1:30" ht="13">
+      <c r="AE192" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_037.json</v>
+      </c>
+    </row>
+    <row r="193" spans="1:31" ht="13">
       <c r="A193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_038.json</v>
       </c>
       <c r="B193" s="16" t="s">
@@ -13836,10 +14618,14 @@
         <f>VLOOKUP(A193, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="194" spans="1:30" ht="13">
+      <c r="AE193" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_038.json</v>
+      </c>
+    </row>
+    <row r="194" spans="1:31" ht="13">
       <c r="A194" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_039.json</v>
       </c>
       <c r="B194" s="16" t="s">
@@ -13867,10 +14653,14 @@
         <f>VLOOKUP(A194, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="195" spans="1:30" ht="13">
+      <c r="AE194" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_039.json</v>
+      </c>
+    </row>
+    <row r="195" spans="1:31" ht="13">
       <c r="A195" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_040.json</v>
       </c>
       <c r="B195" s="16" t="s">
@@ -13898,10 +14688,14 @@
         <f>VLOOKUP(A195, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="196" spans="1:30" ht="13">
+      <c r="AE195" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_040.json</v>
+      </c>
+    </row>
+    <row r="196" spans="1:31" ht="13">
       <c r="A196" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_041.json</v>
       </c>
       <c r="B196" s="16" t="s">
@@ -13929,10 +14723,14 @@
         <f>VLOOKUP(A196, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="197" spans="1:30" ht="13">
+      <c r="AE196" t="str">
+        <f t="shared" si="5"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_041.json</v>
+      </c>
+    </row>
+    <row r="197" spans="1:31" ht="13">
       <c r="A197" t="str">
-        <f t="shared" ref="A197:A260" si="3">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B197, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A197:A260" si="6">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B197, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_042.json</v>
       </c>
       <c r="B197" s="16" t="s">
@@ -13960,10 +14758,14 @@
         <f>VLOOKUP(A197, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="198" spans="1:30" ht="13">
+      <c r="AE197" t="str">
+        <f t="shared" ref="AE197:AE260" si="7">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A197, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_042.json</v>
+      </c>
+    </row>
+    <row r="198" spans="1:31" ht="13">
       <c r="A198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_043.json</v>
       </c>
       <c r="B198" s="16" t="s">
@@ -13991,10 +14793,14 @@
         <f>VLOOKUP(A198, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="199" spans="1:30" ht="13">
+      <c r="AE198" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_043.json</v>
+      </c>
+    </row>
+    <row r="199" spans="1:31" ht="13">
       <c r="A199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_044.json</v>
       </c>
       <c r="B199" s="16" t="s">
@@ -14022,10 +14828,14 @@
         <f>VLOOKUP(A199, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="200" spans="1:30" ht="13">
+      <c r="AE199" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_044.json</v>
+      </c>
+    </row>
+    <row r="200" spans="1:31" ht="13">
       <c r="A200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_045.json</v>
       </c>
       <c r="B200" s="16" t="s">
@@ -14053,10 +14863,14 @@
         <f>VLOOKUP(A200, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="201" spans="1:30" ht="13">
+      <c r="AE200" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_045.json</v>
+      </c>
+    </row>
+    <row r="201" spans="1:31" ht="13">
       <c r="A201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_046.json</v>
       </c>
       <c r="B201" s="16" t="s">
@@ -14084,10 +14898,14 @@
         <f>VLOOKUP(A201, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="202" spans="1:30" ht="13">
+      <c r="AE201" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_046.json</v>
+      </c>
+    </row>
+    <row r="202" spans="1:31" ht="13">
       <c r="A202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_047.json</v>
       </c>
       <c r="B202" s="16" t="s">
@@ -14115,10 +14933,14 @@
         <f>VLOOKUP(A202, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="203" spans="1:30" ht="13">
+      <c r="AE202" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_047.json</v>
+      </c>
+    </row>
+    <row r="203" spans="1:31" ht="13">
       <c r="A203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_048.json</v>
       </c>
       <c r="B203" s="16" t="s">
@@ -14146,10 +14968,14 @@
         <f>VLOOKUP(A203, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="204" spans="1:30" ht="13">
+      <c r="AE203" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_048.json</v>
+      </c>
+    </row>
+    <row r="204" spans="1:31" ht="13">
       <c r="A204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_049.json</v>
       </c>
       <c r="B204" s="16" t="s">
@@ -14177,10 +15003,14 @@
         <f>VLOOKUP(A204, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="205" spans="1:30" ht="13.5" customHeight="1">
+      <c r="AE204" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_049.json</v>
+      </c>
+    </row>
+    <row r="205" spans="1:31" ht="13.5" customHeight="1">
       <c r="A205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_050.json</v>
       </c>
       <c r="B205" s="16" t="s">
@@ -14208,10 +15038,14 @@
         <f>VLOOKUP(A205, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="206" spans="1:30" ht="13.5" customHeight="1">
+      <c r="AE205" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_050.json</v>
+      </c>
+    </row>
+    <row r="206" spans="1:31" ht="13.5" customHeight="1">
       <c r="A206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_051.json</v>
       </c>
       <c r="B206" s="16" t="s">
@@ -14239,10 +15073,14 @@
         <f>VLOOKUP(A206, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="207" spans="1:30" ht="13">
+      <c r="AE206" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_051.json</v>
+      </c>
+    </row>
+    <row r="207" spans="1:31" ht="13">
       <c r="A207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_052.json</v>
       </c>
       <c r="B207" s="16" t="s">
@@ -14270,10 +15108,14 @@
         <f>VLOOKUP(A207, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
-    </row>
-    <row r="208" spans="1:30" ht="13">
+      <c r="AE207" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_052.json</v>
+      </c>
+    </row>
+    <row r="208" spans="1:31" ht="13">
       <c r="A208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_053.json</v>
       </c>
       <c r="B208" s="16" t="s">
@@ -14301,10 +15143,14 @@
         <f>VLOOKUP(A208, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
-    </row>
-    <row r="209" spans="1:30" ht="13">
+      <c r="AE208" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_053.json</v>
+      </c>
+    </row>
+    <row r="209" spans="1:31" ht="13">
       <c r="A209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_054.json</v>
       </c>
       <c r="B209" s="16" t="s">
@@ -14332,10 +15178,14 @@
         <f>VLOOKUP(A209, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
-    </row>
-    <row r="210" spans="1:30" ht="13">
+      <c r="AE209" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_054.json</v>
+      </c>
+    </row>
+    <row r="210" spans="1:31" ht="13">
       <c r="A210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_055.json</v>
       </c>
       <c r="B210" s="16" t="s">
@@ -14363,10 +15213,14 @@
         <f>VLOOKUP(A210, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
-    </row>
-    <row r="211" spans="1:30" ht="13">
+      <c r="AE210" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_055.json</v>
+      </c>
+    </row>
+    <row r="211" spans="1:31" ht="13">
       <c r="A211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_001.json</v>
       </c>
       <c r="B211" s="16" t="s">
@@ -14392,10 +15246,14 @@
         <f>VLOOKUP(A211, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-001.jpg</v>
       </c>
-    </row>
-    <row r="212" spans="1:30" ht="13">
+      <c r="AE211" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_001.json</v>
+      </c>
+    </row>
+    <row r="212" spans="1:31" ht="13">
       <c r="A212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_002.json</v>
       </c>
       <c r="B212" s="16" t="s">
@@ -14421,10 +15279,14 @@
         <f>VLOOKUP(A212, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
-    </row>
-    <row r="213" spans="1:30" ht="14">
+      <c r="AE212" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_002.json</v>
+      </c>
+    </row>
+    <row r="213" spans="1:31" ht="14">
       <c r="A213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_003.json</v>
       </c>
       <c r="B213" s="16" t="s">
@@ -14452,10 +15314,14 @@
         <f>VLOOKUP(A213, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
-    </row>
-    <row r="214" spans="1:30" ht="14">
+      <c r="AE213" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_003.json</v>
+      </c>
+    </row>
+    <row r="214" spans="1:31" ht="14">
       <c r="A214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_004.json</v>
       </c>
       <c r="B214" s="16" t="s">
@@ -14488,10 +15354,14 @@
         <f>VLOOKUP(A214, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
-    </row>
-    <row r="215" spans="1:30" ht="13">
+      <c r="AE214" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_004.json</v>
+      </c>
+    </row>
+    <row r="215" spans="1:31" ht="13">
       <c r="A215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_005.json</v>
       </c>
       <c r="B215" s="16" t="s">
@@ -14520,10 +15390,14 @@
         <f>VLOOKUP(A215, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
-    </row>
-    <row r="216" spans="1:30" ht="13">
+      <c r="AE215" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_005.json</v>
+      </c>
+    </row>
+    <row r="216" spans="1:31" ht="13">
       <c r="A216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_006.json</v>
       </c>
       <c r="B216" s="16" t="s">
@@ -14551,10 +15425,14 @@
         <f>VLOOKUP(A216, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-003.jpg</v>
       </c>
-    </row>
-    <row r="217" spans="1:30" ht="14">
+      <c r="AE216" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_006.json</v>
+      </c>
+    </row>
+    <row r="217" spans="1:31" ht="14">
       <c r="A217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_007.json</v>
       </c>
       <c r="B217" s="16" t="s">
@@ -14584,10 +15462,14 @@
         <f>VLOOKUP(A217, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
-    </row>
-    <row r="218" spans="1:30" ht="13">
+      <c r="AE217" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_007.json</v>
+      </c>
+    </row>
+    <row r="218" spans="1:31" ht="13">
       <c r="A218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_008.json</v>
       </c>
       <c r="B218" s="16" t="s">
@@ -14615,10 +15497,14 @@
         <f>VLOOKUP(A218, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
-    </row>
-    <row r="219" spans="1:30" ht="13">
+      <c r="AE218" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_008.json</v>
+      </c>
+    </row>
+    <row r="219" spans="1:31" ht="13">
       <c r="A219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_009.json</v>
       </c>
       <c r="B219" s="16" t="s">
@@ -14646,10 +15532,14 @@
         <f>VLOOKUP(A219, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
-    </row>
-    <row r="220" spans="1:30" ht="13">
+      <c r="AE219" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_009.json</v>
+      </c>
+    </row>
+    <row r="220" spans="1:31" ht="13">
       <c r="A220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_010.json</v>
       </c>
       <c r="B220" s="16" t="s">
@@ -14677,10 +15567,14 @@
         <f>VLOOKUP(A220, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-005.jpg</v>
       </c>
-    </row>
-    <row r="221" spans="1:30" ht="13">
+      <c r="AE220" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_010.json</v>
+      </c>
+    </row>
+    <row r="221" spans="1:31" ht="13">
       <c r="A221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_011.json</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -14708,10 +15602,14 @@
         <f>VLOOKUP(A221, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-005.jpg</v>
       </c>
-    </row>
-    <row r="222" spans="1:30" ht="13">
+      <c r="AE221" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_011.json</v>
+      </c>
+    </row>
+    <row r="222" spans="1:31" ht="13">
       <c r="A222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_012.json</v>
       </c>
       <c r="B222" s="16" t="s">
@@ -14739,10 +15637,14 @@
         <f>VLOOKUP(A222, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
-    </row>
-    <row r="223" spans="1:30" ht="13">
+      <c r="AE222" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_012.json</v>
+      </c>
+    </row>
+    <row r="223" spans="1:31" ht="13">
       <c r="A223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_013.json</v>
       </c>
       <c r="B223" s="16" t="s">
@@ -14770,10 +15672,14 @@
         <f>VLOOKUP(A223, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
-    </row>
-    <row r="224" spans="1:30" ht="13">
+      <c r="AE223" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_013.json</v>
+      </c>
+    </row>
+    <row r="224" spans="1:31" ht="13">
       <c r="A224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_014.json</v>
       </c>
       <c r="B224" s="16" t="s">
@@ -14801,10 +15707,14 @@
         <f>VLOOKUP(A224, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
-    </row>
-    <row r="225" spans="1:30" ht="13">
+      <c r="AE224" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_014.json</v>
+      </c>
+    </row>
+    <row r="225" spans="1:31" ht="13">
       <c r="A225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_015.json</v>
       </c>
       <c r="B225" s="16" t="s">
@@ -14832,10 +15742,14 @@
         <f>VLOOKUP(A225, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-007.jpg</v>
       </c>
-    </row>
-    <row r="226" spans="1:30" ht="13">
+      <c r="AE225" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_015.json</v>
+      </c>
+    </row>
+    <row r="226" spans="1:31" ht="13">
       <c r="A226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_016.json</v>
       </c>
       <c r="B226" s="16" t="s">
@@ -14863,10 +15777,14 @@
         <f>VLOOKUP(A226, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-007.jpg</v>
       </c>
-    </row>
-    <row r="227" spans="1:30" ht="13">
+      <c r="AE226" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_016.json</v>
+      </c>
+    </row>
+    <row r="227" spans="1:31" ht="13">
       <c r="A227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_017.json</v>
       </c>
       <c r="B227" s="16" t="s">
@@ -14894,10 +15812,14 @@
         <f>VLOOKUP(A227, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
-    </row>
-    <row r="228" spans="1:30" ht="13">
+      <c r="AE227" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_017.json</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" ht="13">
       <c r="A228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_018.json</v>
       </c>
       <c r="B228" s="16" t="s">
@@ -14925,10 +15847,14 @@
         <f>VLOOKUP(A228, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
-    </row>
-    <row r="229" spans="1:30" ht="13">
+      <c r="AE228" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_018.json</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" ht="13">
       <c r="A229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_019.json</v>
       </c>
       <c r="B229" s="16" t="s">
@@ -14956,10 +15882,14 @@
         <f>VLOOKUP(A229, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
-    </row>
-    <row r="230" spans="1:30" ht="13">
+      <c r="AE229" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_019.json</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" ht="13">
       <c r="A230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_020.json</v>
       </c>
       <c r="B230" s="16" t="s">
@@ -14987,10 +15917,14 @@
         <f>VLOOKUP(A230, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
-    </row>
-    <row r="231" spans="1:30" ht="13">
+      <c r="AE230" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_020.json</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" ht="13">
       <c r="A231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_021.json</v>
       </c>
       <c r="B231" s="16" t="s">
@@ -15018,10 +15952,14 @@
         <f>VLOOKUP(A231, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
-    </row>
-    <row r="232" spans="1:30" ht="13">
+      <c r="AE231" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_021.json</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" ht="13">
       <c r="A232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_022.json</v>
       </c>
       <c r="B232" s="16" t="s">
@@ -15049,10 +15987,14 @@
         <f>VLOOKUP(A232, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
-    </row>
-    <row r="233" spans="1:30" ht="13">
+      <c r="AE232" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_022.json</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" ht="13">
       <c r="A233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_023.json</v>
       </c>
       <c r="B233" s="16" t="s">
@@ -15080,10 +16022,14 @@
         <f>VLOOKUP(A233, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
-    </row>
-    <row r="234" spans="1:30" ht="13">
+      <c r="AE233" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_023.json</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" ht="13">
       <c r="A234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_024.json</v>
       </c>
       <c r="B234" s="16" t="s">
@@ -15111,10 +16057,14 @@
         <f>VLOOKUP(A234, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-010.jpg</v>
       </c>
-    </row>
-    <row r="235" spans="1:30" ht="13">
+      <c r="AE234" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_024.json</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" ht="13">
       <c r="A235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_025.json</v>
       </c>
       <c r="B235" s="16" t="s">
@@ -15145,10 +16095,14 @@
         <f>VLOOKUP(A235, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-010.jpg</v>
       </c>
-    </row>
-    <row r="236" spans="1:30" ht="13">
+      <c r="AE235" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_025.json</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" ht="13">
       <c r="A236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_026.json</v>
       </c>
       <c r="B236" s="16" t="s">
@@ -15176,10 +16130,14 @@
         <f>VLOOKUP(A236, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-011.jpg</v>
       </c>
-    </row>
-    <row r="237" spans="1:30" ht="14">
+      <c r="AE236" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_026.json</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" ht="14">
       <c r="A237" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_027.json</v>
       </c>
       <c r="B237" s="16" t="s">
@@ -15209,10 +16167,14 @@
         <f>VLOOKUP(A237, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-012.jpg</v>
       </c>
-    </row>
-    <row r="238" spans="1:30" ht="13">
+      <c r="AE237" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_027.json</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" ht="13">
       <c r="A238" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_028.json</v>
       </c>
       <c r="B238" s="16" t="s">
@@ -15243,10 +16205,14 @@
         <f>VLOOKUP(A238, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-013.jpg</v>
       </c>
-    </row>
-    <row r="239" spans="1:30" ht="13">
+      <c r="AE238" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_028.json</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" ht="13">
       <c r="A239" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_029.json</v>
       </c>
       <c r="B239" s="16" t="s">
@@ -15277,10 +16243,14 @@
         <f>VLOOKUP(A239, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-015.jpg</v>
       </c>
-    </row>
-    <row r="240" spans="1:30" ht="13">
+      <c r="AE239" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_029.json</v>
+      </c>
+    </row>
+    <row r="240" spans="1:31" ht="13">
       <c r="A240" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_030.json</v>
       </c>
       <c r="B240" s="16" t="s">
@@ -15311,10 +16281,14 @@
         <f>VLOOKUP(A240, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
-    </row>
-    <row r="241" spans="1:30" ht="14">
+      <c r="AE240" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_030.json</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" ht="14">
       <c r="A241" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_031.json</v>
       </c>
       <c r="B241" s="16" t="s">
@@ -15347,10 +16321,14 @@
         <f>VLOOKUP(A241, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
-    </row>
-    <row r="242" spans="1:30" ht="13">
+      <c r="AE241" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_031.json</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" ht="13">
       <c r="A242" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_032.json</v>
       </c>
       <c r="B242" s="16" t="s">
@@ -15381,10 +16359,14 @@
         <f>VLOOKUP(A242, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
-    </row>
-    <row r="243" spans="1:30" ht="13">
+      <c r="AE242" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_032.json</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" ht="13">
       <c r="A243" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_033.json</v>
       </c>
       <c r="B243" s="16" t="s">
@@ -15412,10 +16394,14 @@
         <f>VLOOKUP(A243, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-017.jpg</v>
       </c>
-    </row>
-    <row r="244" spans="1:30" ht="13">
+      <c r="AE243" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_033.json</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" ht="13">
       <c r="A244" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_034.json</v>
       </c>
       <c r="B244" s="16" t="s">
@@ -15443,10 +16429,14 @@
         <f>VLOOKUP(A244, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-017.jpg</v>
       </c>
-    </row>
-    <row r="245" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE244" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_034.json</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" ht="28.5" customHeight="1">
       <c r="A245" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_035.json</v>
       </c>
       <c r="B245" s="16" t="s">
@@ -15474,10 +16464,14 @@
         <f>VLOOKUP(A245, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="246" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE245" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_035.json</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" ht="28.5" customHeight="1">
       <c r="A246" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_036.json</v>
       </c>
       <c r="B246" s="16" t="s">
@@ -15508,10 +16502,14 @@
         <f>VLOOKUP(A246, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="247" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE246" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_036.json</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" ht="28.5" customHeight="1">
       <c r="A247" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_037.json</v>
       </c>
       <c r="B247" s="16" t="s">
@@ -15542,10 +16540,14 @@
         <f>VLOOKUP(A247, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="248" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE247" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_037.json</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" ht="28.5" customHeight="1">
       <c r="A248" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_038.json</v>
       </c>
       <c r="B248" s="16" t="s">
@@ -15576,10 +16578,14 @@
         <f>VLOOKUP(A248, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="249" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE248" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_038.json</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" ht="28.5" customHeight="1">
       <c r="A249" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_039.json</v>
       </c>
       <c r="B249" s="16" t="s">
@@ -15610,10 +16616,14 @@
         <f>VLOOKUP(A249, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="250" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE249" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_039.json</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" ht="28.5" customHeight="1">
       <c r="A250" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_040.json</v>
       </c>
       <c r="B250" s="16" t="s">
@@ -15641,10 +16651,14 @@
         <f>VLOOKUP(A250, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="251" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE250" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_040.json</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" ht="28.5" customHeight="1">
       <c r="A251" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_041.json</v>
       </c>
       <c r="B251" s="16" t="s">
@@ -15672,10 +16686,14 @@
         <f>VLOOKUP(A251, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="252" spans="1:30" ht="28.5" customHeight="1">
+      <c r="AE251" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_041.json</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" ht="28.5" customHeight="1">
       <c r="A252" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_042.json</v>
       </c>
       <c r="B252" s="16" t="s">
@@ -15703,10 +16721,14 @@
         <f>VLOOKUP(A252, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="253" spans="1:30" ht="13">
+      <c r="AE252" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_042.json</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" ht="13">
       <c r="A253" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_043.json</v>
       </c>
       <c r="B253" s="16" t="s">
@@ -15734,10 +16756,14 @@
         <f>VLOOKUP(A253, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
-    </row>
-    <row r="254" spans="1:30" ht="28">
+      <c r="AE253" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_043.json</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" ht="28">
       <c r="A254" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_044.json</v>
       </c>
       <c r="B254" s="16" t="s">
@@ -15767,10 +16793,14 @@
         <f>VLOOKUP(A254, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-019.jpg</v>
       </c>
-    </row>
-    <row r="255" spans="1:30" ht="13">
+      <c r="AE254" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_044.json</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" ht="13">
       <c r="A255" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_045.json</v>
       </c>
       <c r="B255" s="16" t="s">
@@ -15798,10 +16828,14 @@
         <f>VLOOKUP(A255, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="256" spans="1:30" ht="13">
+      <c r="AE255" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_045.json</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" ht="13">
       <c r="A256" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_046.json</v>
       </c>
       <c r="B256" s="16" t="s">
@@ -15829,10 +16863,14 @@
         <f>VLOOKUP(A256, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="257" spans="1:30" ht="13">
+      <c r="AE256" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_046.json</v>
+      </c>
+    </row>
+    <row r="257" spans="1:31" ht="13">
       <c r="A257" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_047.json</v>
       </c>
       <c r="B257" s="16" t="s">
@@ -15860,10 +16898,14 @@
         <f>VLOOKUP(A257, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="258" spans="1:30" ht="13">
+      <c r="AE257" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_047.json</v>
+      </c>
+    </row>
+    <row r="258" spans="1:31" ht="13">
       <c r="A258" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_048.json</v>
       </c>
       <c r="B258" s="16" t="s">
@@ -15891,10 +16933,14 @@
         <f>VLOOKUP(A258, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="259" spans="1:30" ht="13">
+      <c r="AE258" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_048.json</v>
+      </c>
+    </row>
+    <row r="259" spans="1:31" ht="13">
       <c r="A259" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_049.json</v>
       </c>
       <c r="B259" s="16" t="s">
@@ -15922,10 +16968,14 @@
         <f>VLOOKUP(A259, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="260" spans="1:30" ht="13">
+      <c r="AE259" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_049.json</v>
+      </c>
+    </row>
+    <row r="260" spans="1:31" ht="13">
       <c r="A260" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_050.json</v>
       </c>
       <c r="B260" s="16" t="s">
@@ -15953,10 +17003,14 @@
         <f>VLOOKUP(A260, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="261" spans="1:30" ht="13">
+      <c r="AE260" t="str">
+        <f t="shared" si="7"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_050.json</v>
+      </c>
+    </row>
+    <row r="261" spans="1:31" ht="13">
       <c r="A261" t="str">
-        <f t="shared" ref="A261:A324" si="4">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B261, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A261:A324" si="8">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B261, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_051.json</v>
       </c>
       <c r="B261" s="16" t="s">
@@ -15984,10 +17038,14 @@
         <f>VLOOKUP(A261, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="262" spans="1:30" ht="13">
+      <c r="AE261" t="str">
+        <f t="shared" ref="AE261:AE324" si="9">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A261, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_051.json</v>
+      </c>
+    </row>
+    <row r="262" spans="1:31" ht="13">
       <c r="A262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_052.json</v>
       </c>
       <c r="B262" s="16" t="s">
@@ -16015,10 +17073,14 @@
         <f>VLOOKUP(A262, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="263" spans="1:30" ht="13">
+      <c r="AE262" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_052.json</v>
+      </c>
+    </row>
+    <row r="263" spans="1:31" ht="13">
       <c r="A263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_053.json</v>
       </c>
       <c r="B263" s="16" t="s">
@@ -16046,10 +17108,14 @@
         <f>VLOOKUP(A263, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="264" spans="1:30" ht="13">
+      <c r="AE263" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_053.json</v>
+      </c>
+    </row>
+    <row r="264" spans="1:31" ht="13">
       <c r="A264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_054.json</v>
       </c>
       <c r="B264" s="16" t="s">
@@ -16077,10 +17143,14 @@
         <f>VLOOKUP(A264, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
-    </row>
-    <row r="265" spans="1:30" ht="13">
+      <c r="AE264" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_054.json</v>
+      </c>
+    </row>
+    <row r="265" spans="1:31" ht="13">
       <c r="A265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_055.json</v>
       </c>
       <c r="B265" s="16" t="s">
@@ -16108,10 +17178,14 @@
         <f>VLOOKUP(A265, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-021.jpg</v>
       </c>
-    </row>
-    <row r="266" spans="1:30" ht="14">
+      <c r="AE265" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_055.json</v>
+      </c>
+    </row>
+    <row r="266" spans="1:31" ht="14">
       <c r="A266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_056.json</v>
       </c>
       <c r="B266" s="16" t="s">
@@ -16139,10 +17213,14 @@
         <f>VLOOKUP(A266, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
-    </row>
-    <row r="267" spans="1:30" ht="14">
+      <c r="AE266" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_056.json</v>
+      </c>
+    </row>
+    <row r="267" spans="1:31" ht="14">
       <c r="A267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_057.json</v>
       </c>
       <c r="B267" s="16" t="s">
@@ -16170,10 +17248,14 @@
         <f>VLOOKUP(A267, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
-    </row>
-    <row r="268" spans="1:30" ht="14">
+      <c r="AE267" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_057.json</v>
+      </c>
+    </row>
+    <row r="268" spans="1:31" ht="14">
       <c r="A268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_058.json</v>
       </c>
       <c r="B268" s="16" t="s">
@@ -16199,10 +17281,14 @@
         <f>VLOOKUP(A268, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
-    </row>
-    <row r="269" spans="1:30" ht="14">
+      <c r="AE268" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_058.json</v>
+      </c>
+    </row>
+    <row r="269" spans="1:31" ht="14">
       <c r="A269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_001.json</v>
       </c>
       <c r="B269" s="16" t="s">
@@ -16230,10 +17316,14 @@
         <f>VLOOKUP(A269, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-001.jpg</v>
       </c>
-    </row>
-    <row r="270" spans="1:30" ht="13">
+      <c r="AE269" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_001.json</v>
+      </c>
+    </row>
+    <row r="270" spans="1:31" ht="13">
       <c r="A270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_002.json</v>
       </c>
       <c r="B270" s="16" t="s">
@@ -16259,10 +17349,14 @@
         <f>VLOOKUP(A270, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
-    </row>
-    <row r="271" spans="1:30" ht="14">
+      <c r="AE270" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_002.json</v>
+      </c>
+    </row>
+    <row r="271" spans="1:31" ht="14">
       <c r="A271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_003.json</v>
       </c>
       <c r="B271" s="16" t="s">
@@ -16290,10 +17384,14 @@
         <f>VLOOKUP(A271, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
-    </row>
-    <row r="272" spans="1:30" ht="14">
+      <c r="AE271" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_003.json</v>
+      </c>
+    </row>
+    <row r="272" spans="1:31" ht="14">
       <c r="A272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_004.json</v>
       </c>
       <c r="B272" s="16" t="s">
@@ -16326,10 +17424,14 @@
         <f>VLOOKUP(A272, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
-    </row>
-    <row r="273" spans="1:30" ht="13">
+      <c r="AE272" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_004.json</v>
+      </c>
+    </row>
+    <row r="273" spans="1:31" ht="13">
       <c r="A273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_005.json</v>
       </c>
       <c r="B273" s="16" t="s">
@@ -16358,10 +17460,14 @@
         <f>VLOOKUP(A273, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
-    </row>
-    <row r="274" spans="1:30" ht="13">
+      <c r="AE273" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_005.json</v>
+      </c>
+    </row>
+    <row r="274" spans="1:31" ht="13">
       <c r="A274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_006.json</v>
       </c>
       <c r="B274" s="16" t="s">
@@ -16389,10 +17495,14 @@
         <f>VLOOKUP(A274, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-003.jpg</v>
       </c>
-    </row>
-    <row r="275" spans="1:30" ht="14">
+      <c r="AE274" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_006.json</v>
+      </c>
+    </row>
+    <row r="275" spans="1:31" ht="14">
       <c r="A275" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_007.json</v>
       </c>
       <c r="B275" s="16" t="s">
@@ -16422,10 +17532,14 @@
         <f>VLOOKUP(A275, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-004.jpg</v>
       </c>
-    </row>
-    <row r="276" spans="1:30" ht="13">
+      <c r="AE275" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_007.json</v>
+      </c>
+    </row>
+    <row r="276" spans="1:31" ht="13">
       <c r="A276" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_008.json</v>
       </c>
       <c r="B276" s="16" t="s">
@@ -16453,10 +17567,14 @@
         <f>VLOOKUP(A276, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-004.jpg</v>
       </c>
-    </row>
-    <row r="277" spans="1:30" ht="13">
+      <c r="AE276" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_008.json</v>
+      </c>
+    </row>
+    <row r="277" spans="1:31" ht="13">
       <c r="A277" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_009.json</v>
       </c>
       <c r="B277" s="16" t="s">
@@ -16484,10 +17602,14 @@
         <f>VLOOKUP(A277, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="278" spans="1:30" ht="13">
+      <c r="AE277" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_009.json</v>
+      </c>
+    </row>
+    <row r="278" spans="1:31" ht="13">
       <c r="A278" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_010.json</v>
       </c>
       <c r="B278" s="16" t="s">
@@ -16515,10 +17637,14 @@
         <f>VLOOKUP(A278, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="279" spans="1:30" ht="13">
+      <c r="AE278" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_010.json</v>
+      </c>
+    </row>
+    <row r="279" spans="1:31" ht="13">
       <c r="A279" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_011.json</v>
       </c>
       <c r="B279" s="16" t="s">
@@ -16546,10 +17672,14 @@
         <f>VLOOKUP(A279, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="280" spans="1:30" ht="13">
+      <c r="AE279" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_011.json</v>
+      </c>
+    </row>
+    <row r="280" spans="1:31" ht="13">
       <c r="A280" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_012.json</v>
       </c>
       <c r="B280" s="16" t="s">
@@ -16577,10 +17707,14 @@
         <f>VLOOKUP(A280, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="281" spans="1:30" ht="13">
+      <c r="AE280" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_012.json</v>
+      </c>
+    </row>
+    <row r="281" spans="1:31" ht="13">
       <c r="A281" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_013.json</v>
       </c>
       <c r="B281" s="16" t="s">
@@ -16608,10 +17742,14 @@
         <f>VLOOKUP(A281, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="282" spans="1:30" ht="13">
+      <c r="AE281" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_013.json</v>
+      </c>
+    </row>
+    <row r="282" spans="1:31" ht="13">
       <c r="A282" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_014.json</v>
       </c>
       <c r="B282" s="16" t="s">
@@ -16639,10 +17777,14 @@
         <f>VLOOKUP(A282, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
-    </row>
-    <row r="283" spans="1:30" ht="13">
+      <c r="AE282" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_014.json</v>
+      </c>
+    </row>
+    <row r="283" spans="1:31" ht="13">
       <c r="A283" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_015.json</v>
       </c>
       <c r="B283" s="16" t="s">
@@ -16670,10 +17812,14 @@
         <f>VLOOKUP(A283, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
-    </row>
-    <row r="284" spans="1:30" ht="13">
+      <c r="AE283" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_015.json</v>
+      </c>
+    </row>
+    <row r="284" spans="1:31" ht="13">
       <c r="A284" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_016.json</v>
       </c>
       <c r="B284" s="16" t="s">
@@ -16701,10 +17847,14 @@
         <f>VLOOKUP(A284, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
-    </row>
-    <row r="285" spans="1:30" ht="13">
+      <c r="AE284" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_016.json</v>
+      </c>
+    </row>
+    <row r="285" spans="1:31" ht="13">
       <c r="A285" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_017.json</v>
       </c>
       <c r="B285" s="16" t="s">
@@ -16732,10 +17882,14 @@
         <f>VLOOKUP(A285, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
-    </row>
-    <row r="286" spans="1:30" ht="14">
+      <c r="AE285" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_017.json</v>
+      </c>
+    </row>
+    <row r="286" spans="1:31" ht="14">
       <c r="A286" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_018.json</v>
       </c>
       <c r="B286" s="16" t="s">
@@ -16768,10 +17922,14 @@
         <f>VLOOKUP(A286, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
-    </row>
-    <row r="287" spans="1:30" ht="14">
+      <c r="AE286" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_018.json</v>
+      </c>
+    </row>
+    <row r="287" spans="1:31" ht="14">
       <c r="A287" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_019.json</v>
       </c>
       <c r="B287" s="16" t="s">
@@ -16799,10 +17957,14 @@
         <f>VLOOKUP(A287, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-007.jpg</v>
       </c>
-    </row>
-    <row r="288" spans="1:30" ht="14">
+      <c r="AE287" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_019.json</v>
+      </c>
+    </row>
+    <row r="288" spans="1:31" ht="14">
       <c r="A288" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_020.json</v>
       </c>
       <c r="B288" s="16" t="s">
@@ -16830,10 +17992,14 @@
         <f>VLOOKUP(A288, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-007.jpg</v>
       </c>
-    </row>
-    <row r="289" spans="1:30" ht="14">
+      <c r="AE288" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_020.json</v>
+      </c>
+    </row>
+    <row r="289" spans="1:31" ht="14">
       <c r="A289" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_021.json</v>
       </c>
       <c r="B289" s="16" t="s">
@@ -16863,10 +18029,14 @@
         <f>VLOOKUP(A289, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
-    </row>
-    <row r="290" spans="1:30" ht="14">
+      <c r="AE289" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_021.json</v>
+      </c>
+    </row>
+    <row r="290" spans="1:31" ht="14">
       <c r="A290" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_022.json</v>
       </c>
       <c r="B290" s="16" t="s">
@@ -16896,10 +18066,14 @@
         <f>VLOOKUP(A290, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
-    </row>
-    <row r="291" spans="1:30" ht="28">
+      <c r="AE290" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_022.json</v>
+      </c>
+    </row>
+    <row r="291" spans="1:31" ht="28">
       <c r="A291" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_023.json</v>
       </c>
       <c r="B291" s="16" t="s">
@@ -16929,10 +18103,14 @@
         <f>VLOOKUP(A291, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
-    </row>
-    <row r="292" spans="1:30" ht="14">
+      <c r="AE291" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_023.json</v>
+      </c>
+    </row>
+    <row r="292" spans="1:31" ht="14">
       <c r="A292" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_024.json</v>
       </c>
       <c r="B292" s="16" t="s">
@@ -16960,10 +18138,14 @@
         <f>VLOOKUP(A292, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-009.jpg</v>
       </c>
-    </row>
-    <row r="293" spans="1:30" ht="14">
+      <c r="AE292" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_024.json</v>
+      </c>
+    </row>
+    <row r="293" spans="1:31" ht="14">
       <c r="A293" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_025.json</v>
       </c>
       <c r="B293" s="16" t="s">
@@ -16993,10 +18175,14 @@
         <f>VLOOKUP(A293, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-010.jpg</v>
       </c>
-    </row>
-    <row r="294" spans="1:30" ht="14">
+      <c r="AE293" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_025.json</v>
+      </c>
+    </row>
+    <row r="294" spans="1:31" ht="14">
       <c r="A294" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_026.json</v>
       </c>
       <c r="B294" s="16" t="s">
@@ -17024,10 +18210,14 @@
         <f>VLOOKUP(A294, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-011.jpg</v>
       </c>
-    </row>
-    <row r="295" spans="1:30" ht="14">
+      <c r="AE294" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_026.json</v>
+      </c>
+    </row>
+    <row r="295" spans="1:31" ht="14">
       <c r="A295" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_027.json</v>
       </c>
       <c r="B295" s="16" t="s">
@@ -17060,10 +18250,14 @@
         <f>VLOOKUP(A295, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
-    </row>
-    <row r="296" spans="1:30" ht="14">
+      <c r="AE295" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_027.json</v>
+      </c>
+    </row>
+    <row r="296" spans="1:31" ht="14">
       <c r="A296" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_028.json</v>
       </c>
       <c r="B296" s="16" t="s">
@@ -17096,10 +18290,14 @@
         <f>VLOOKUP(A296, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
-    </row>
-    <row r="297" spans="1:30" ht="28">
+      <c r="AE296" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_028.json</v>
+      </c>
+    </row>
+    <row r="297" spans="1:31" ht="28">
       <c r="A297" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_029.json</v>
       </c>
       <c r="B297" s="16" t="s">
@@ -17132,10 +18330,14 @@
         <f>VLOOKUP(A297, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
-    </row>
-    <row r="298" spans="1:30" ht="13">
+      <c r="AE297" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_029.json</v>
+      </c>
+    </row>
+    <row r="298" spans="1:31" ht="13">
       <c r="A298" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_030.json</v>
       </c>
       <c r="B298" s="16" t="s">
@@ -17163,10 +18365,14 @@
         <f>VLOOKUP(A298, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-013.jpg</v>
       </c>
-    </row>
-    <row r="299" spans="1:30" ht="14">
+      <c r="AE298" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_030.json</v>
+      </c>
+    </row>
+    <row r="299" spans="1:31" ht="14">
       <c r="A299" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_031.json</v>
       </c>
       <c r="B299" s="16" t="s">
@@ -17199,10 +18405,14 @@
         <f>VLOOKUP(A299, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-013.jpg</v>
       </c>
-    </row>
-    <row r="300" spans="1:30" ht="28">
+      <c r="AE299" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_031.json</v>
+      </c>
+    </row>
+    <row r="300" spans="1:31" ht="28">
       <c r="A300" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_032.json</v>
       </c>
       <c r="B300" s="16" t="s">
@@ -17232,10 +18442,14 @@
         <f>VLOOKUP(A300, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-014.jpg</v>
       </c>
-    </row>
-    <row r="301" spans="1:30" ht="13">
+      <c r="AE300" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_032.json</v>
+      </c>
+    </row>
+    <row r="301" spans="1:31" ht="13">
       <c r="A301" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_033.json</v>
       </c>
       <c r="B301" s="16" t="s">
@@ -17263,10 +18477,14 @@
         <f>VLOOKUP(A301, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-014.jpg</v>
       </c>
-    </row>
-    <row r="302" spans="1:30" ht="28">
+      <c r="AE301" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_033.json</v>
+      </c>
+    </row>
+    <row r="302" spans="1:31" ht="28">
       <c r="A302" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_034.json</v>
       </c>
       <c r="B302" s="16" t="s">
@@ -17296,10 +18514,14 @@
         <f>VLOOKUP(A302, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-015.jpg</v>
       </c>
-    </row>
-    <row r="303" spans="1:30" ht="13">
+      <c r="AE302" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_034.json</v>
+      </c>
+    </row>
+    <row r="303" spans="1:31" ht="13">
       <c r="A303" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_035.json</v>
       </c>
       <c r="B303" s="16" t="s">
@@ -17327,10 +18549,14 @@
         <f>VLOOKUP(A303, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="304" spans="1:30" ht="13">
+      <c r="AE303" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_035.json</v>
+      </c>
+    </row>
+    <row r="304" spans="1:31" ht="13">
       <c r="A304" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_036.json</v>
       </c>
       <c r="B304" s="16" t="s">
@@ -17358,10 +18584,14 @@
         <f>VLOOKUP(A304, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="305" spans="1:30" ht="13">
+      <c r="AE304" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_036.json</v>
+      </c>
+    </row>
+    <row r="305" spans="1:31" ht="13">
       <c r="A305" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_037.json</v>
       </c>
       <c r="B305" s="16" t="s">
@@ -17389,10 +18619,14 @@
         <f>VLOOKUP(A305, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="306" spans="1:30" ht="15" customHeight="1">
+      <c r="AE305" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_037.json</v>
+      </c>
+    </row>
+    <row r="306" spans="1:31" ht="15" customHeight="1">
       <c r="A306" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_038.json</v>
       </c>
       <c r="B306" s="16" t="s">
@@ -17420,10 +18654,14 @@
         <f>VLOOKUP(A306, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="307" spans="1:30" ht="15" customHeight="1">
+      <c r="AE306" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_038.json</v>
+      </c>
+    </row>
+    <row r="307" spans="1:31" ht="15" customHeight="1">
       <c r="A307" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_039.json</v>
       </c>
       <c r="B307" s="16" t="s">
@@ -17451,10 +18689,14 @@
         <f>VLOOKUP(A307, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="308" spans="1:30" ht="15" customHeight="1">
+      <c r="AE307" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_039.json</v>
+      </c>
+    </row>
+    <row r="308" spans="1:31" ht="15" customHeight="1">
       <c r="A308" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_040.json</v>
       </c>
       <c r="B308" s="16" t="s">
@@ -17482,10 +18724,14 @@
         <f>VLOOKUP(A308, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="309" spans="1:30" ht="15" customHeight="1">
+      <c r="AE308" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_040.json</v>
+      </c>
+    </row>
+    <row r="309" spans="1:31" ht="15" customHeight="1">
       <c r="A309" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_041.json</v>
       </c>
       <c r="B309" s="16" t="s">
@@ -17513,10 +18759,14 @@
         <f>VLOOKUP(A309, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="310" spans="1:30" ht="15" customHeight="1">
+      <c r="AE309" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_041.json</v>
+      </c>
+    </row>
+    <row r="310" spans="1:31" ht="15" customHeight="1">
       <c r="A310" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_042.json</v>
       </c>
       <c r="B310" s="16" t="s">
@@ -17544,10 +18794,14 @@
         <f>VLOOKUP(A310, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="311" spans="1:30" ht="15" customHeight="1">
+      <c r="AE310" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_042.json</v>
+      </c>
+    </row>
+    <row r="311" spans="1:31" ht="15" customHeight="1">
       <c r="A311" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_043.json</v>
       </c>
       <c r="B311" s="16" t="s">
@@ -17575,10 +18829,14 @@
         <f>VLOOKUP(A311, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="312" spans="1:30" ht="15" customHeight="1">
+      <c r="AE311" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_043.json</v>
+      </c>
+    </row>
+    <row r="312" spans="1:31" ht="15" customHeight="1">
       <c r="A312" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_044.json</v>
       </c>
       <c r="B312" s="16" t="s">
@@ -17606,10 +18864,14 @@
         <f>VLOOKUP(A312, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="313" spans="1:30" ht="15" customHeight="1">
+      <c r="AE312" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_044.json</v>
+      </c>
+    </row>
+    <row r="313" spans="1:31" ht="15" customHeight="1">
       <c r="A313" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_045.json</v>
       </c>
       <c r="B313" s="16" t="s">
@@ -17637,10 +18899,14 @@
         <f>VLOOKUP(A313, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="314" spans="1:30" ht="15" customHeight="1">
+      <c r="AE313" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_045.json</v>
+      </c>
+    </row>
+    <row r="314" spans="1:31" ht="15" customHeight="1">
       <c r="A314" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_046.json</v>
       </c>
       <c r="B314" s="16" t="s">
@@ -17668,10 +18934,14 @@
         <f>VLOOKUP(A314, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="315" spans="1:30" ht="15" customHeight="1">
+      <c r="AE314" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_046.json</v>
+      </c>
+    </row>
+    <row r="315" spans="1:31" ht="15" customHeight="1">
       <c r="A315" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_047.json</v>
       </c>
       <c r="B315" s="16" t="s">
@@ -17699,10 +18969,14 @@
         <f>VLOOKUP(A315, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="316" spans="1:30" ht="15" customHeight="1">
+      <c r="AE315" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_047.json</v>
+      </c>
+    </row>
+    <row r="316" spans="1:31" ht="15" customHeight="1">
       <c r="A316" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_048.json</v>
       </c>
       <c r="B316" s="16" t="s">
@@ -17730,10 +19004,14 @@
         <f>VLOOKUP(A316, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="317" spans="1:30" ht="15" customHeight="1">
+      <c r="AE316" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_048.json</v>
+      </c>
+    </row>
+    <row r="317" spans="1:31" ht="15" customHeight="1">
       <c r="A317" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_049.json</v>
       </c>
       <c r="B317" s="16" t="s">
@@ -17761,10 +19039,14 @@
         <f>VLOOKUP(A317, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
-    </row>
-    <row r="318" spans="1:30" ht="15" customHeight="1">
+      <c r="AE317" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_049.json</v>
+      </c>
+    </row>
+    <row r="318" spans="1:31" ht="15" customHeight="1">
       <c r="A318" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_050.json</v>
       </c>
       <c r="B318" s="16" t="s">
@@ -17792,10 +19074,14 @@
         <f>VLOOKUP(A318, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-017.jpg</v>
       </c>
-    </row>
-    <row r="319" spans="1:30" ht="28">
+      <c r="AE318" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_050.json</v>
+      </c>
+    </row>
+    <row r="319" spans="1:31" ht="28">
       <c r="A319" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_051.json</v>
       </c>
       <c r="B319" s="16" t="s">
@@ -17825,10 +19111,14 @@
         <f>VLOOKUP(A319, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-017.jpg</v>
       </c>
-    </row>
-    <row r="320" spans="1:30" ht="14">
+      <c r="AE319" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_051.json</v>
+      </c>
+    </row>
+    <row r="320" spans="1:31" ht="14">
       <c r="A320" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_052.json</v>
       </c>
       <c r="B320" s="16" t="s">
@@ -17856,10 +19146,14 @@
         <f>VLOOKUP(A320, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
-    </row>
-    <row r="321" spans="1:30" ht="14">
+      <c r="AE320" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_052.json</v>
+      </c>
+    </row>
+    <row r="321" spans="1:31" ht="14">
       <c r="A321" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_053.json</v>
       </c>
       <c r="B321" s="16" t="s">
@@ -17887,10 +19181,14 @@
         <f>VLOOKUP(A321, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
-    </row>
-    <row r="322" spans="1:30" ht="14">
+      <c r="AE321" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_053.json</v>
+      </c>
+    </row>
+    <row r="322" spans="1:31" ht="14">
       <c r="A322" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_054.json</v>
       </c>
       <c r="B322" s="16" t="s">
@@ -17918,10 +19216,14 @@
         <f>VLOOKUP(A322, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
-    </row>
-    <row r="323" spans="1:30" ht="28">
+      <c r="AE322" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_054.json</v>
+      </c>
+    </row>
+    <row r="323" spans="1:31" ht="28">
       <c r="A323" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_001.json</v>
       </c>
       <c r="B323" s="16" t="s">
@@ -17949,10 +19251,14 @@
         <f>VLOOKUP(A323, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-001.jpg</v>
       </c>
-    </row>
-    <row r="324" spans="1:30" ht="14">
+      <c r="AE323" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_001.json</v>
+      </c>
+    </row>
+    <row r="324" spans="1:31" ht="14">
       <c r="A324" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_002.json</v>
       </c>
       <c r="B324" s="16" t="s">
@@ -17978,10 +19284,14 @@
         <f>VLOOKUP(A324, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
-    </row>
-    <row r="325" spans="1:30" ht="14">
+      <c r="AE324" t="str">
+        <f t="shared" si="9"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_002.json</v>
+      </c>
+    </row>
+    <row r="325" spans="1:31" ht="14">
       <c r="A325" t="str">
-        <f t="shared" ref="A325:A388" si="5">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B325, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A325:A388" si="10">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B325, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_003.json</v>
       </c>
       <c r="B325" s="16" t="s">
@@ -18009,10 +19319,14 @@
         <f>VLOOKUP(A325, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
-    </row>
-    <row r="326" spans="1:30" ht="14">
+      <c r="AE325" t="str">
+        <f t="shared" ref="AE325:AE388" si="11">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A325, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_003.json</v>
+      </c>
+    </row>
+    <row r="326" spans="1:31" ht="14">
       <c r="A326" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_004.json</v>
       </c>
       <c r="B326" s="16" t="s">
@@ -18045,10 +19359,14 @@
         <f>VLOOKUP(A326, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
-    </row>
-    <row r="327" spans="1:30" ht="14">
+      <c r="AE326" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_004.json</v>
+      </c>
+    </row>
+    <row r="327" spans="1:31" ht="14">
       <c r="A327" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_005.json</v>
       </c>
       <c r="B327" s="16" t="s">
@@ -18077,10 +19395,14 @@
         <f>VLOOKUP(A327, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
-    </row>
-    <row r="328" spans="1:30" ht="14">
+      <c r="AE327" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_005.json</v>
+      </c>
+    </row>
+    <row r="328" spans="1:31" ht="14">
       <c r="A328" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_006.json</v>
       </c>
       <c r="B328" s="16" t="s">
@@ -18110,10 +19432,14 @@
         <f>VLOOKUP(A328, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-003.jpg</v>
       </c>
-    </row>
-    <row r="329" spans="1:30" ht="14">
+      <c r="AE328" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_006.json</v>
+      </c>
+    </row>
+    <row r="329" spans="1:31" ht="14">
       <c r="A329" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_007.json</v>
       </c>
       <c r="B329" s="16" t="s">
@@ -18144,10 +19470,14 @@
         <f>VLOOKUP(A329, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-003.jpg</v>
       </c>
-    </row>
-    <row r="330" spans="1:30" ht="14">
+      <c r="AE329" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_007.json</v>
+      </c>
+    </row>
+    <row r="330" spans="1:31" ht="14">
       <c r="A330" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_008.json</v>
       </c>
       <c r="B330" s="16" t="s">
@@ -18178,10 +19508,14 @@
         <f>VLOOKUP(A330, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
-    </row>
-    <row r="331" spans="1:30" ht="14">
+      <c r="AE330" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_008.json</v>
+      </c>
+    </row>
+    <row r="331" spans="1:31" ht="14">
       <c r="A331" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_009.json</v>
       </c>
       <c r="B331" s="16" t="s">
@@ -18209,10 +19543,14 @@
         <f>VLOOKUP(A331, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
-    </row>
-    <row r="332" spans="1:30" ht="28">
+      <c r="AE331" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_009.json</v>
+      </c>
+    </row>
+    <row r="332" spans="1:31" ht="28">
       <c r="A332" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_010.json</v>
       </c>
       <c r="B332" s="16" t="s">
@@ -18245,10 +19583,14 @@
         <f>VLOOKUP(A332, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
-    </row>
-    <row r="333" spans="1:30" ht="14">
+      <c r="AE332" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_010.json</v>
+      </c>
+    </row>
+    <row r="333" spans="1:31" ht="14">
       <c r="A333" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_011.json</v>
       </c>
       <c r="B333" s="16" t="s">
@@ -18278,10 +19620,14 @@
         <f>VLOOKUP(A333, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-005.jpg</v>
       </c>
-    </row>
-    <row r="334" spans="1:30" ht="14">
+      <c r="AE333" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_011.json</v>
+      </c>
+    </row>
+    <row r="334" spans="1:31" ht="14">
       <c r="A334" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_012.json</v>
       </c>
       <c r="B334" s="16" t="s">
@@ -18309,10 +19655,14 @@
         <f>VLOOKUP(A334, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-005.jpg</v>
       </c>
-    </row>
-    <row r="335" spans="1:30" ht="14">
+      <c r="AE334" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_012.json</v>
+      </c>
+    </row>
+    <row r="335" spans="1:31" ht="14">
       <c r="A335" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_013.json</v>
       </c>
       <c r="B335" s="16" t="s">
@@ -18340,10 +19690,14 @@
         <f>VLOOKUP(A335, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-006.jpg</v>
       </c>
-    </row>
-    <row r="336" spans="1:30" ht="14">
+      <c r="AE335" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_013.json</v>
+      </c>
+    </row>
+    <row r="336" spans="1:31" ht="14">
       <c r="A336" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_014.json</v>
       </c>
       <c r="B336" s="16" t="s">
@@ -18373,10 +19727,14 @@
         <f>VLOOKUP(A336, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-006.jpg</v>
       </c>
-    </row>
-    <row r="337" spans="1:30" ht="14">
+      <c r="AE336" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_014.json</v>
+      </c>
+    </row>
+    <row r="337" spans="1:31" ht="14">
       <c r="A337" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_015.json</v>
       </c>
       <c r="B337" s="16" t="s">
@@ -18406,10 +19764,14 @@
         <f>VLOOKUP(A337, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
-    </row>
-    <row r="338" spans="1:30" ht="14">
+      <c r="AE337" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_015.json</v>
+      </c>
+    </row>
+    <row r="338" spans="1:31" ht="14">
       <c r="A338" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_016.json</v>
       </c>
       <c r="B338" s="16" t="s">
@@ -18439,10 +19801,14 @@
         <f>VLOOKUP(A338, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
-    </row>
-    <row r="339" spans="1:30" ht="14">
+      <c r="AE338" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_016.json</v>
+      </c>
+    </row>
+    <row r="339" spans="1:31" ht="14">
       <c r="A339" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_017.json</v>
       </c>
       <c r="B339" s="16" t="s">
@@ -18472,10 +19838,14 @@
         <f>VLOOKUP(A339, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
-    </row>
-    <row r="340" spans="1:30" ht="14">
+      <c r="AE339" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_017.json</v>
+      </c>
+    </row>
+    <row r="340" spans="1:31" ht="14">
       <c r="A340" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_018.json</v>
       </c>
       <c r="B340" s="16" t="s">
@@ -18503,10 +19873,14 @@
         <f>VLOOKUP(A340, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
-    </row>
-    <row r="341" spans="1:30" ht="28">
+      <c r="AE340" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_018.json</v>
+      </c>
+    </row>
+    <row r="341" spans="1:31" ht="28">
       <c r="A341" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_019.json</v>
       </c>
       <c r="B341" s="16" t="s">
@@ -18534,10 +19908,14 @@
         <f>VLOOKUP(A341, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-008.jpg</v>
       </c>
-    </row>
-    <row r="342" spans="1:30" ht="14">
+      <c r="AE341" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_019.json</v>
+      </c>
+    </row>
+    <row r="342" spans="1:31" ht="14">
       <c r="A342" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_020.json</v>
       </c>
       <c r="B342" s="16" t="s">
@@ -18565,10 +19943,14 @@
         <f>VLOOKUP(A342, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-008.jpg</v>
       </c>
-    </row>
-    <row r="343" spans="1:30" ht="28">
+      <c r="AE342" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_020.json</v>
+      </c>
+    </row>
+    <row r="343" spans="1:31" ht="28">
       <c r="A343" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_021.json</v>
       </c>
       <c r="B343" s="16" t="s">
@@ -18596,10 +19978,14 @@
         <f>VLOOKUP(A343, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-010.jpg</v>
       </c>
-    </row>
-    <row r="344" spans="1:30" ht="14">
+      <c r="AE343" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_021.json</v>
+      </c>
+    </row>
+    <row r="344" spans="1:31" ht="14">
       <c r="A344" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_022.json</v>
       </c>
       <c r="B344" s="16" t="s">
@@ -18629,10 +20015,14 @@
         <f>VLOOKUP(A344, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-011.jpg</v>
       </c>
-    </row>
-    <row r="345" spans="1:30" ht="28">
+      <c r="AE344" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_022.json</v>
+      </c>
+    </row>
+    <row r="345" spans="1:31" ht="28">
       <c r="A345" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_023.json</v>
       </c>
       <c r="B345" s="16" t="s">
@@ -18660,10 +20050,14 @@
         <f>VLOOKUP(A345, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
-    </row>
-    <row r="346" spans="1:30" ht="28">
+      <c r="AE345" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_023.json</v>
+      </c>
+    </row>
+    <row r="346" spans="1:31" ht="28">
       <c r="A346" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_024.json</v>
       </c>
       <c r="B346" s="16" t="s">
@@ -18691,10 +20085,14 @@
         <f>VLOOKUP(A346, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
-    </row>
-    <row r="347" spans="1:30" ht="14">
+      <c r="AE346" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_024.json</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31" ht="14">
       <c r="A347" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_025.json</v>
       </c>
       <c r="B347" s="16" t="s">
@@ -18724,10 +20122,14 @@
         <f>VLOOKUP(A347, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
-    </row>
-    <row r="348" spans="1:30" ht="14">
+      <c r="AE347" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_025.json</v>
+      </c>
+    </row>
+    <row r="348" spans="1:31" ht="14">
       <c r="A348" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_026.json</v>
       </c>
       <c r="B348" s="16" t="s">
@@ -18757,10 +20159,14 @@
         <f>VLOOKUP(A348, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-014.jpg</v>
       </c>
-    </row>
-    <row r="349" spans="1:30" ht="14">
+      <c r="AE348" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_026.json</v>
+      </c>
+    </row>
+    <row r="349" spans="1:31" ht="14">
       <c r="A349" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_027.json</v>
       </c>
       <c r="B349" s="16" t="s">
@@ -18788,10 +20194,14 @@
         <f>VLOOKUP(A349, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
-    </row>
-    <row r="350" spans="1:30" ht="14">
+      <c r="AE349" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_027.json</v>
+      </c>
+    </row>
+    <row r="350" spans="1:31" ht="14">
       <c r="A350" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_028.json</v>
       </c>
       <c r="B350" s="16" t="s">
@@ -18822,10 +20232,14 @@
         <f>VLOOKUP(A350, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
-    </row>
-    <row r="351" spans="1:30" ht="14">
+      <c r="AE350" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_028.json</v>
+      </c>
+    </row>
+    <row r="351" spans="1:31" ht="14">
       <c r="A351" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_029.json</v>
       </c>
       <c r="B351" s="16" t="s">
@@ -18858,10 +20272,14 @@
         <f>VLOOKUP(A351, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
-    </row>
-    <row r="352" spans="1:30" ht="28">
+      <c r="AE351" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_029.json</v>
+      </c>
+    </row>
+    <row r="352" spans="1:31" ht="28">
       <c r="A352" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_030.json</v>
       </c>
       <c r="B352" s="16" t="s">
@@ -18891,10 +20309,14 @@
         <f>VLOOKUP(A352, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-016.jpg</v>
       </c>
-    </row>
-    <row r="353" spans="1:30" ht="28">
+      <c r="AE352" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_030.json</v>
+      </c>
+    </row>
+    <row r="353" spans="1:31" ht="28">
       <c r="A353" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_031.json</v>
       </c>
       <c r="B353" s="16" t="s">
@@ -18922,10 +20344,14 @@
         <f>VLOOKUP(A353, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
-    </row>
-    <row r="354" spans="1:30" ht="14">
+      <c r="AE353" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_031.json</v>
+      </c>
+    </row>
+    <row r="354" spans="1:31" ht="14">
       <c r="A354" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_032.json</v>
       </c>
       <c r="B354" s="16" t="s">
@@ -18953,10 +20379,14 @@
         <f>VLOOKUP(A354, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
-    </row>
-    <row r="355" spans="1:30" ht="14">
+      <c r="AE354" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_032.json</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31" ht="14">
       <c r="A355" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_033.json</v>
       </c>
       <c r="B355" s="16" t="s">
@@ -18984,10 +20414,14 @@
         <f>VLOOKUP(A355, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
-    </row>
-    <row r="356" spans="1:30" ht="14">
+      <c r="AE355" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_033.json</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31" ht="14">
       <c r="A356" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_034.json</v>
       </c>
       <c r="B356" s="16" t="s">
@@ -19015,10 +20449,14 @@
         <f>VLOOKUP(A356, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="357" spans="1:30" ht="14">
+      <c r="AE356" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_034.json</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31" ht="14">
       <c r="A357" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_035.json</v>
       </c>
       <c r="B357" s="16" t="s">
@@ -19046,10 +20484,14 @@
         <f>VLOOKUP(A357, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="358" spans="1:30" ht="14">
+      <c r="AE357" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_035.json</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31" ht="14">
       <c r="A358" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_036.json</v>
       </c>
       <c r="B358" s="16" t="s">
@@ -19077,10 +20519,14 @@
         <f>VLOOKUP(A358, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="359" spans="1:30" ht="14">
+      <c r="AE358" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_036.json</v>
+      </c>
+    </row>
+    <row r="359" spans="1:31" ht="14">
       <c r="A359" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_037.json</v>
       </c>
       <c r="B359" s="16" t="s">
@@ -19108,10 +20554,14 @@
         <f>VLOOKUP(A359, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="360" spans="1:30" ht="28">
+      <c r="AE359" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_037.json</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31" ht="28">
       <c r="A360" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_038.json</v>
       </c>
       <c r="B360" s="16" t="s">
@@ -19139,10 +20589,14 @@
         <f>VLOOKUP(A360, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="361" spans="1:30" ht="28">
+      <c r="AE360" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_038.json</v>
+      </c>
+    </row>
+    <row r="361" spans="1:31" ht="28">
       <c r="A361" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_039.json</v>
       </c>
       <c r="B361" s="16" t="s">
@@ -19170,10 +20624,14 @@
         <f>VLOOKUP(A361, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="362" spans="1:30" ht="28">
+      <c r="AE361" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_039.json</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31" ht="28">
       <c r="A362" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_040.json</v>
       </c>
       <c r="B362" s="16" t="s">
@@ -19201,10 +20659,14 @@
         <f>VLOOKUP(A362, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
-    </row>
-    <row r="363" spans="1:30" ht="14">
+      <c r="AE362" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_040.json</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31" ht="14">
       <c r="A363" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_041.json</v>
       </c>
       <c r="B363" s="16" t="s">
@@ -19232,10 +20694,14 @@
         <f>VLOOKUP(A363, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
-    </row>
-    <row r="364" spans="1:30" ht="14">
+      <c r="AE363" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_041.json</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31" ht="14">
       <c r="A364" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_042.json</v>
       </c>
       <c r="B364" s="16" t="s">
@@ -19268,10 +20734,14 @@
         <f>VLOOKUP(A364, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
-    </row>
-    <row r="365" spans="1:30" ht="28">
+      <c r="AE364" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_042.json</v>
+      </c>
+    </row>
+    <row r="365" spans="1:31" ht="28">
       <c r="A365" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_043.json</v>
       </c>
       <c r="B365" s="16" t="s">
@@ -19304,10 +20774,14 @@
         <f>VLOOKUP(A365, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
-    </row>
-    <row r="366" spans="1:30" ht="14">
+      <c r="AE365" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_043.json</v>
+      </c>
+    </row>
+    <row r="366" spans="1:31" ht="14">
       <c r="A366" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_044.json</v>
       </c>
       <c r="B366" s="16" t="s">
@@ -19335,10 +20809,14 @@
         <f>VLOOKUP(A366, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
-    </row>
-    <row r="367" spans="1:30" ht="14">
+      <c r="AE366" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_044.json</v>
+      </c>
+    </row>
+    <row r="367" spans="1:31" ht="14">
       <c r="A367" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_045.json</v>
       </c>
       <c r="B367" s="16" t="s">
@@ -19366,10 +20844,14 @@
         <f>VLOOKUP(A367, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
-    </row>
-    <row r="368" spans="1:30" ht="14">
+      <c r="AE367" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_045.json</v>
+      </c>
+    </row>
+    <row r="368" spans="1:31" ht="14">
       <c r="A368" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_046.json</v>
       </c>
       <c r="B368" s="16" t="s">
@@ -19395,10 +20877,14 @@
         <f>VLOOKUP(A368, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
-    </row>
-    <row r="369" spans="1:30" ht="14">
+      <c r="AE368" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_046.json</v>
+      </c>
+    </row>
+    <row r="369" spans="1:31" ht="14">
       <c r="A369" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_001.json</v>
       </c>
       <c r="B369" s="16" t="s">
@@ -19429,10 +20915,14 @@
         <f>VLOOKUP(A369, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-001.jpg</v>
       </c>
-    </row>
-    <row r="370" spans="1:30" ht="14">
+      <c r="AE369" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_001.json</v>
+      </c>
+    </row>
+    <row r="370" spans="1:31" ht="14">
       <c r="A370" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_002.json</v>
       </c>
       <c r="B370" s="16" t="s">
@@ -19459,10 +20949,14 @@
         <f>VLOOKUP(A370, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
-    </row>
-    <row r="371" spans="1:30" ht="14">
+      <c r="AE370" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_002.json</v>
+      </c>
+    </row>
+    <row r="371" spans="1:31" ht="14">
       <c r="A371" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_003.json</v>
       </c>
       <c r="B371" s="16" t="s">
@@ -19491,10 +20985,14 @@
         <f>VLOOKUP(A371, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
-    </row>
-    <row r="372" spans="1:30" ht="14">
+      <c r="AE371" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_003.json</v>
+      </c>
+    </row>
+    <row r="372" spans="1:31" ht="14">
       <c r="A372" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_004.json</v>
       </c>
       <c r="B372" s="16" t="s">
@@ -19527,10 +21025,14 @@
         <f>VLOOKUP(A372, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
-    </row>
-    <row r="373" spans="1:30" ht="14">
+      <c r="AE372" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_004.json</v>
+      </c>
+    </row>
+    <row r="373" spans="1:31" ht="14">
       <c r="A373" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_005.json</v>
       </c>
       <c r="B373" s="16" t="s">
@@ -19559,10 +21061,14 @@
         <f>VLOOKUP(A373, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
-    </row>
-    <row r="374" spans="1:30" ht="28">
+      <c r="AE373" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_005.json</v>
+      </c>
+    </row>
+    <row r="374" spans="1:31" ht="28">
       <c r="A374" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_006.json</v>
       </c>
       <c r="B374" s="16" t="s">
@@ -19592,10 +21098,14 @@
         <f>VLOOKUP(A374, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-003.jpg</v>
       </c>
-    </row>
-    <row r="375" spans="1:30" ht="14">
+      <c r="AE374" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_006.json</v>
+      </c>
+    </row>
+    <row r="375" spans="1:31" ht="14">
       <c r="A375" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_007.json</v>
       </c>
       <c r="B375" s="16" t="s">
@@ -19623,10 +21133,14 @@
         <f>VLOOKUP(A375, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-003.jpg</v>
       </c>
-    </row>
-    <row r="376" spans="1:30" ht="14">
+      <c r="AE375" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_007.json</v>
+      </c>
+    </row>
+    <row r="376" spans="1:31" ht="14">
       <c r="A376" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_008.json</v>
       </c>
       <c r="B376" s="16" t="s">
@@ -19654,10 +21168,14 @@
         <f>VLOOKUP(A376, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-004.jpg</v>
       </c>
-    </row>
-    <row r="377" spans="1:30" ht="42">
+      <c r="AE376" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_008.json</v>
+      </c>
+    </row>
+    <row r="377" spans="1:31" ht="42">
       <c r="A377" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_009.json</v>
       </c>
       <c r="B377" s="16" t="s">
@@ -19690,10 +21208,14 @@
         <f>VLOOKUP(A377, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-004.jpg</v>
       </c>
-    </row>
-    <row r="378" spans="1:30" ht="14">
+      <c r="AE377" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_009.json</v>
+      </c>
+    </row>
+    <row r="378" spans="1:31" ht="14">
       <c r="A378" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_010.json</v>
       </c>
       <c r="B378" s="16" t="s">
@@ -19721,10 +21243,14 @@
         <f>VLOOKUP(A378, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-005.jpg</v>
       </c>
-    </row>
-    <row r="379" spans="1:30" ht="14">
+      <c r="AE378" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_010.json</v>
+      </c>
+    </row>
+    <row r="379" spans="1:31" ht="14">
       <c r="A379" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_011.json</v>
       </c>
       <c r="B379" s="16" t="s">
@@ -19752,10 +21278,14 @@
         <f>VLOOKUP(A379, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-006.jpg</v>
       </c>
-    </row>
-    <row r="380" spans="1:30" ht="14">
+      <c r="AE379" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_011.json</v>
+      </c>
+    </row>
+    <row r="380" spans="1:31" ht="14">
       <c r="A380" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_012.json</v>
       </c>
       <c r="B380" s="16" t="s">
@@ -19783,10 +21313,14 @@
         <f>VLOOKUP(A380, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-006.jpg</v>
       </c>
-    </row>
-    <row r="381" spans="1:30" ht="14">
+      <c r="AE380" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_012.json</v>
+      </c>
+    </row>
+    <row r="381" spans="1:31" ht="14">
       <c r="A381" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_013.json</v>
       </c>
       <c r="B381" s="16" t="s">
@@ -19814,10 +21348,14 @@
         <f>VLOOKUP(A381, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-007.jpg</v>
       </c>
-    </row>
-    <row r="382" spans="1:30" ht="28">
+      <c r="AE381" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_013.json</v>
+      </c>
+    </row>
+    <row r="382" spans="1:31" ht="28">
       <c r="A382" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_014.json</v>
       </c>
       <c r="B382" s="16" t="s">
@@ -19847,10 +21385,14 @@
         <f>VLOOKUP(A382, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-008.jpg</v>
       </c>
-    </row>
-    <row r="383" spans="1:30" ht="28">
+      <c r="AE382" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_014.json</v>
+      </c>
+    </row>
+    <row r="383" spans="1:31" ht="28">
       <c r="A383" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_015.json</v>
       </c>
       <c r="B383" s="16" t="s">
@@ -19878,10 +21420,14 @@
         <f>VLOOKUP(A383, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-009.jpg</v>
       </c>
-    </row>
-    <row r="384" spans="1:30" ht="28">
+      <c r="AE383" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_015.json</v>
+      </c>
+    </row>
+    <row r="384" spans="1:31" ht="28">
       <c r="A384" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_016.json</v>
       </c>
       <c r="B384" s="16" t="s">
@@ -19909,10 +21455,14 @@
         <f>VLOOKUP(A384, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-010.jpg</v>
       </c>
-    </row>
-    <row r="385" spans="1:30" ht="14">
+      <c r="AE384" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_016.json</v>
+      </c>
+    </row>
+    <row r="385" spans="1:31" ht="14">
       <c r="A385" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_017.json</v>
       </c>
       <c r="B385" s="16" t="s">
@@ -19942,10 +21492,14 @@
         <f>VLOOKUP(A385, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-010.jpg</v>
       </c>
-    </row>
-    <row r="386" spans="1:30" ht="14">
+      <c r="AE385" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_017.json</v>
+      </c>
+    </row>
+    <row r="386" spans="1:31" ht="14">
       <c r="A386" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_018.json</v>
       </c>
       <c r="B386" s="16" t="s">
@@ -19975,10 +21529,14 @@
         <f>VLOOKUP(A386, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-011.jpg</v>
       </c>
-    </row>
-    <row r="387" spans="1:30" ht="14">
+      <c r="AE386" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_018.json</v>
+      </c>
+    </row>
+    <row r="387" spans="1:31" ht="14">
       <c r="A387" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_019.json</v>
       </c>
       <c r="B387" s="16" t="s">
@@ -20006,10 +21564,14 @@
         <f>VLOOKUP(A387, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
-    </row>
-    <row r="388" spans="1:30" ht="14">
+      <c r="AE387" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_019.json</v>
+      </c>
+    </row>
+    <row r="388" spans="1:31" ht="14">
       <c r="A388" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_020.json</v>
       </c>
       <c r="B388" s="16" t="s">
@@ -20037,10 +21599,14 @@
         <f>VLOOKUP(A388, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
-    </row>
-    <row r="389" spans="1:30" ht="28">
+      <c r="AE388" t="str">
+        <f t="shared" si="11"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_020.json</v>
+      </c>
+    </row>
+    <row r="389" spans="1:31" ht="28">
       <c r="A389" t="str">
-        <f t="shared" ref="A389:A449" si="6">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B389, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A389:A449" si="12">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B389, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_021.json</v>
       </c>
       <c r="B389" s="16" t="s">
@@ -20070,10 +21636,14 @@
         <f>VLOOKUP(A389, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
-    </row>
-    <row r="390" spans="1:30" ht="14">
+      <c r="AE389" t="str">
+        <f t="shared" ref="AE389:AE449" si="13">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A389, "/json/", "/manifest/")</f>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_021.json</v>
+      </c>
+    </row>
+    <row r="390" spans="1:31" ht="14">
       <c r="A390" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_022.json</v>
       </c>
       <c r="B390" s="16" t="s">
@@ -20103,10 +21673,14 @@
         <f>VLOOKUP(A390, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-014.jpg</v>
       </c>
-    </row>
-    <row r="391" spans="1:30" ht="14">
+      <c r="AE390" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_022.json</v>
+      </c>
+    </row>
+    <row r="391" spans="1:31" ht="14">
       <c r="A391" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_023.json</v>
       </c>
       <c r="B391" s="16" t="s">
@@ -20136,10 +21710,14 @@
         <f>VLOOKUP(A391, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-015.jpg</v>
       </c>
-    </row>
-    <row r="392" spans="1:30" ht="14">
+      <c r="AE391" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_023.json</v>
+      </c>
+    </row>
+    <row r="392" spans="1:31" ht="14">
       <c r="A392" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_024.json</v>
       </c>
       <c r="B392" s="16" t="s">
@@ -20172,10 +21750,14 @@
         <f>VLOOKUP(A392, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-015.jpg</v>
       </c>
-    </row>
-    <row r="393" spans="1:30" ht="14">
+      <c r="AE392" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_024.json</v>
+      </c>
+    </row>
+    <row r="393" spans="1:31" ht="14">
       <c r="A393" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_025.json</v>
       </c>
       <c r="B393" s="16" t="s">
@@ -20203,10 +21785,14 @@
         <f>VLOOKUP(A393, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
-    </row>
-    <row r="394" spans="1:30" ht="14">
+      <c r="AE393" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_025.json</v>
+      </c>
+    </row>
+    <row r="394" spans="1:31" ht="14">
       <c r="A394" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_026.json</v>
       </c>
       <c r="B394" s="16" t="s">
@@ -20234,10 +21820,14 @@
         <f>VLOOKUP(A394, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
-    </row>
-    <row r="395" spans="1:30" ht="14">
+      <c r="AE394" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_026.json</v>
+      </c>
+    </row>
+    <row r="395" spans="1:31" ht="14">
       <c r="A395" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_027.json</v>
       </c>
       <c r="B395" s="16" t="s">
@@ -20265,10 +21855,14 @@
         <f>VLOOKUP(A395, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
-    </row>
-    <row r="396" spans="1:30" ht="14">
+      <c r="AE395" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_027.json</v>
+      </c>
+    </row>
+    <row r="396" spans="1:31" ht="14">
       <c r="A396" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_028.json</v>
       </c>
       <c r="B396" s="16" t="s">
@@ -20296,10 +21890,14 @@
         <f>VLOOKUP(A396, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
-    </row>
-    <row r="397" spans="1:30" ht="14">
+      <c r="AE396" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_028.json</v>
+      </c>
+    </row>
+    <row r="397" spans="1:31" ht="14">
       <c r="A397" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_029.json</v>
       </c>
       <c r="B397" s="16" t="s">
@@ -20327,10 +21925,14 @@
         <f>VLOOKUP(A397, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
-    </row>
-    <row r="398" spans="1:30" ht="28">
+      <c r="AE397" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_029.json</v>
+      </c>
+    </row>
+    <row r="398" spans="1:31" ht="28">
       <c r="A398" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_030.json</v>
       </c>
       <c r="B398" s="16" t="s">
@@ -20358,10 +21960,14 @@
         <f>VLOOKUP(A398, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-017.jpg</v>
       </c>
-    </row>
-    <row r="399" spans="1:30" ht="14">
+      <c r="AE398" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_030.json</v>
+      </c>
+    </row>
+    <row r="399" spans="1:31" ht="14">
       <c r="A399" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_031.json</v>
       </c>
       <c r="B399" s="16" t="s">
@@ -20389,10 +21995,14 @@
         <f>VLOOKUP(A399, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
-    </row>
-    <row r="400" spans="1:30" ht="14">
+      <c r="AE399" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_031.json</v>
+      </c>
+    </row>
+    <row r="400" spans="1:31" ht="14">
       <c r="A400" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_032.json</v>
       </c>
       <c r="B400" s="16" t="s">
@@ -20420,10 +22030,14 @@
         <f>VLOOKUP(A400, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
-    </row>
-    <row r="401" spans="1:30" ht="14">
+      <c r="AE400" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_032.json</v>
+      </c>
+    </row>
+    <row r="401" spans="1:31" ht="14">
       <c r="A401" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_033.json</v>
       </c>
       <c r="B401" s="16" t="s">
@@ -20451,10 +22065,14 @@
         <f>VLOOKUP(A401, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
-    </row>
-    <row r="402" spans="1:30" ht="14">
+      <c r="AE401" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_033.json</v>
+      </c>
+    </row>
+    <row r="402" spans="1:31" ht="14">
       <c r="A402" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_034.json</v>
       </c>
       <c r="B402" s="16" t="s">
@@ -20482,10 +22100,14 @@
         <f>VLOOKUP(A402, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
-    </row>
-    <row r="403" spans="1:30" ht="14">
+      <c r="AE402" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_034.json</v>
+      </c>
+    </row>
+    <row r="403" spans="1:31" ht="14">
       <c r="A403" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_035.json</v>
       </c>
       <c r="B403" s="16" t="s">
@@ -20513,10 +22135,14 @@
         <f>VLOOKUP(A403, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-019.jpg</v>
       </c>
-    </row>
-    <row r="404" spans="1:30" ht="14">
+      <c r="AE403" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_035.json</v>
+      </c>
+    </row>
+    <row r="404" spans="1:31" ht="14">
       <c r="A404" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_036.json</v>
       </c>
       <c r="B404" s="16" t="s">
@@ -20549,10 +22175,14 @@
         <f>VLOOKUP(A404, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-019.jpg</v>
       </c>
-    </row>
-    <row r="405" spans="1:30" ht="14">
+      <c r="AE404" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_036.json</v>
+      </c>
+    </row>
+    <row r="405" spans="1:31" ht="14">
       <c r="A405" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_037.json</v>
       </c>
       <c r="B405" s="16" t="s">
@@ -20580,10 +22210,14 @@
         <f>VLOOKUP(A405, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
-    </row>
-    <row r="406" spans="1:30" ht="14">
+      <c r="AE405" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_037.json</v>
+      </c>
+    </row>
+    <row r="406" spans="1:31" ht="14">
       <c r="A406" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_038.json</v>
       </c>
       <c r="B406" s="16" t="s">
@@ -20611,10 +22245,14 @@
         <f>VLOOKUP(A406, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
-    </row>
-    <row r="407" spans="1:30" ht="14">
+      <c r="AE406" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_038.json</v>
+      </c>
+    </row>
+    <row r="407" spans="1:31" ht="14">
       <c r="A407" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_039.json</v>
       </c>
       <c r="B407" s="16" t="s">
@@ -20640,10 +22278,14 @@
         <f>VLOOKUP(A407, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
-    </row>
-    <row r="408" spans="1:30" ht="14">
+      <c r="AE407" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_039.json</v>
+      </c>
+    </row>
+    <row r="408" spans="1:31" ht="14">
       <c r="A408" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_001.json</v>
       </c>
       <c r="B408" s="16" t="s">
@@ -20674,10 +22316,14 @@
         <f>VLOOKUP(A408, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-001.jpg</v>
       </c>
-    </row>
-    <row r="409" spans="1:30" ht="14">
+      <c r="AE408" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_001.json</v>
+      </c>
+    </row>
+    <row r="409" spans="1:31" ht="14">
       <c r="A409" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_002.json</v>
       </c>
       <c r="B409" s="16" t="s">
@@ -20704,10 +22350,14 @@
         <f>VLOOKUP(A409, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
-    </row>
-    <row r="410" spans="1:30" ht="14">
+      <c r="AE409" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_002.json</v>
+      </c>
+    </row>
+    <row r="410" spans="1:31" ht="14">
       <c r="A410" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_003.json</v>
       </c>
       <c r="B410" s="16" t="s">
@@ -20736,10 +22386,14 @@
         <f>VLOOKUP(A410, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
-    </row>
-    <row r="411" spans="1:30" ht="14">
+      <c r="AE410" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_003.json</v>
+      </c>
+    </row>
+    <row r="411" spans="1:31" ht="14">
       <c r="A411" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_004.json</v>
       </c>
       <c r="B411" s="16" t="s">
@@ -20772,10 +22426,14 @@
         <f>VLOOKUP(A411, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
-    </row>
-    <row r="412" spans="1:30" ht="14">
+      <c r="AE411" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_004.json</v>
+      </c>
+    </row>
+    <row r="412" spans="1:31" ht="14">
       <c r="A412" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_005.json</v>
       </c>
       <c r="B412" s="16" t="s">
@@ -20804,10 +22462,14 @@
         <f>VLOOKUP(A412, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
-    </row>
-    <row r="413" spans="1:30" ht="28">
+      <c r="AE412" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_005.json</v>
+      </c>
+    </row>
+    <row r="413" spans="1:31" ht="28">
       <c r="A413" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_006.json</v>
       </c>
       <c r="B413" s="16" t="s">
@@ -20837,10 +22499,14 @@
         <f>VLOOKUP(A413, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
-    </row>
-    <row r="414" spans="1:30" ht="14">
+      <c r="AE413" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_006.json</v>
+      </c>
+    </row>
+    <row r="414" spans="1:31" ht="14">
       <c r="A414" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_007.json</v>
       </c>
       <c r="B414" s="16" t="s">
@@ -20870,10 +22536,14 @@
         <f>VLOOKUP(A414, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
-    </row>
-    <row r="415" spans="1:30" ht="14">
+      <c r="AE414" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_007.json</v>
+      </c>
+    </row>
+    <row r="415" spans="1:31" ht="14">
       <c r="A415" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_008.json</v>
       </c>
       <c r="B415" s="16" t="s">
@@ -20901,10 +22571,14 @@
         <f>VLOOKUP(A415, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
-    </row>
-    <row r="416" spans="1:30" ht="14">
+      <c r="AE415" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_008.json</v>
+      </c>
+    </row>
+    <row r="416" spans="1:31" ht="14">
       <c r="A416" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_009.json</v>
       </c>
       <c r="B416" s="16" t="s">
@@ -20932,10 +22606,14 @@
         <f>VLOOKUP(A416, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-004.jpg</v>
       </c>
-    </row>
-    <row r="417" spans="1:30" ht="14">
+      <c r="AE416" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_009.json</v>
+      </c>
+    </row>
+    <row r="417" spans="1:31" ht="14">
       <c r="A417" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_010.json</v>
       </c>
       <c r="B417" s="16" t="s">
@@ -20963,10 +22641,14 @@
         <f>VLOOKUP(A417, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-005.jpg</v>
       </c>
-    </row>
-    <row r="418" spans="1:30" ht="14">
+      <c r="AE417" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_010.json</v>
+      </c>
+    </row>
+    <row r="418" spans="1:31" ht="14">
       <c r="A418" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_011.json</v>
       </c>
       <c r="B418" s="16" t="s">
@@ -20994,10 +22676,14 @@
         <f>VLOOKUP(A418, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-005.jpg</v>
       </c>
-    </row>
-    <row r="419" spans="1:30" ht="14">
+      <c r="AE418" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_011.json</v>
+      </c>
+    </row>
+    <row r="419" spans="1:31" ht="14">
       <c r="A419" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_012.json</v>
       </c>
       <c r="B419" s="16" t="s">
@@ -21025,10 +22711,14 @@
         <f>VLOOKUP(A419, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
-    </row>
-    <row r="420" spans="1:30" ht="14">
+      <c r="AE419" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_012.json</v>
+      </c>
+    </row>
+    <row r="420" spans="1:31" ht="14">
       <c r="A420" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_013.json</v>
       </c>
       <c r="B420" s="16" t="s">
@@ -21056,10 +22746,14 @@
         <f>VLOOKUP(A420, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
-    </row>
-    <row r="421" spans="1:30" ht="14">
+      <c r="AE420" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_013.json</v>
+      </c>
+    </row>
+    <row r="421" spans="1:31" ht="14">
       <c r="A421" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_014.json</v>
       </c>
       <c r="B421" s="16" t="s">
@@ -21087,10 +22781,14 @@
         <f>VLOOKUP(A421, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
-    </row>
-    <row r="422" spans="1:30" ht="14">
+      <c r="AE421" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_014.json</v>
+      </c>
+    </row>
+    <row r="422" spans="1:31" ht="14">
       <c r="A422" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_015.json</v>
       </c>
       <c r="B422" s="16" t="s">
@@ -21118,10 +22816,14 @@
         <f>VLOOKUP(A422, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
-    </row>
-    <row r="423" spans="1:30" ht="14">
+      <c r="AE422" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_015.json</v>
+      </c>
+    </row>
+    <row r="423" spans="1:31" ht="14">
       <c r="A423" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_016.json</v>
       </c>
       <c r="B423" s="16" t="s">
@@ -21149,10 +22851,14 @@
         <f>VLOOKUP(A423, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-007.jpg</v>
       </c>
-    </row>
-    <row r="424" spans="1:30" ht="14">
+      <c r="AE423" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_016.json</v>
+      </c>
+    </row>
+    <row r="424" spans="1:31" ht="14">
       <c r="A424" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_017.json</v>
       </c>
       <c r="B424" s="16" t="s">
@@ -21180,10 +22886,14 @@
         <f>VLOOKUP(A424, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-007.jpg</v>
       </c>
-    </row>
-    <row r="425" spans="1:30" ht="28">
+      <c r="AE424" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_017.json</v>
+      </c>
+    </row>
+    <row r="425" spans="1:31" ht="28">
       <c r="A425" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_018.json</v>
       </c>
       <c r="B425" s="16" t="s">
@@ -21211,10 +22921,14 @@
         <f>VLOOKUP(A425, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-008.jpg</v>
       </c>
-    </row>
-    <row r="426" spans="1:30" ht="14">
+      <c r="AE425" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_018.json</v>
+      </c>
+    </row>
+    <row r="426" spans="1:31" ht="14">
       <c r="A426" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_019.json</v>
       </c>
       <c r="B426" s="16" t="s">
@@ -21242,10 +22956,14 @@
         <f>VLOOKUP(A426, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-009.jpg</v>
       </c>
-    </row>
-    <row r="427" spans="1:30" ht="14">
+      <c r="AE426" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_019.json</v>
+      </c>
+    </row>
+    <row r="427" spans="1:31" ht="14">
       <c r="A427" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_020.json</v>
       </c>
       <c r="B427" s="16" t="s">
@@ -21273,10 +22991,14 @@
         <f>VLOOKUP(A427, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-010.jpg</v>
       </c>
-    </row>
-    <row r="428" spans="1:30" ht="14">
+      <c r="AE427" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_020.json</v>
+      </c>
+    </row>
+    <row r="428" spans="1:31" ht="14">
       <c r="A428" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_021.json</v>
       </c>
       <c r="B428" s="16" t="s">
@@ -21306,10 +23028,14 @@
         <f>VLOOKUP(A428, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-011.jpg</v>
       </c>
-    </row>
-    <row r="429" spans="1:30" ht="28">
+      <c r="AE428" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_021.json</v>
+      </c>
+    </row>
+    <row r="429" spans="1:31" ht="28">
       <c r="A429" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_022.json</v>
       </c>
       <c r="B429" s="16" t="s">
@@ -21337,10 +23063,14 @@
         <f>VLOOKUP(A429, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-012.jpg</v>
       </c>
-    </row>
-    <row r="430" spans="1:30" ht="28">
+      <c r="AE429" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_022.json</v>
+      </c>
+    </row>
+    <row r="430" spans="1:31" ht="28">
       <c r="A430" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_023.json</v>
       </c>
       <c r="B430" s="16" t="s">
@@ -21368,10 +23098,14 @@
         <f>VLOOKUP(A430, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-013.jpg</v>
       </c>
-    </row>
-    <row r="431" spans="1:30" ht="28">
+      <c r="AE430" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_023.json</v>
+      </c>
+    </row>
+    <row r="431" spans="1:31" ht="28">
       <c r="A431" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_024.json</v>
       </c>
       <c r="B431" s="16" t="s">
@@ -21401,10 +23135,14 @@
         <f>VLOOKUP(A431, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-014.jpg</v>
       </c>
-    </row>
-    <row r="432" spans="1:30" ht="14">
+      <c r="AE431" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_024.json</v>
+      </c>
+    </row>
+    <row r="432" spans="1:31" ht="14">
       <c r="A432" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_025.json</v>
       </c>
       <c r="B432" s="16" t="s">
@@ -21432,10 +23170,14 @@
         <f>VLOOKUP(A432, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
-    </row>
-    <row r="433" spans="1:30" ht="14">
+      <c r="AE432" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_025.json</v>
+      </c>
+    </row>
+    <row r="433" spans="1:31" ht="14">
       <c r="A433" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_026.json</v>
       </c>
       <c r="B433" s="16" t="s">
@@ -21463,10 +23205,14 @@
         <f>VLOOKUP(A433, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
-    </row>
-    <row r="434" spans="1:30" ht="14">
+      <c r="AE433" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_026.json</v>
+      </c>
+    </row>
+    <row r="434" spans="1:31" ht="14">
       <c r="A434" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_027.json</v>
       </c>
       <c r="B434" s="16" t="s">
@@ -21494,10 +23240,14 @@
         <f>VLOOKUP(A434, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
-    </row>
-    <row r="435" spans="1:30" ht="14">
+      <c r="AE434" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_027.json</v>
+      </c>
+    </row>
+    <row r="435" spans="1:31" ht="14">
       <c r="A435" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_028.json</v>
       </c>
       <c r="B435" s="16" t="s">
@@ -21525,10 +23275,14 @@
         <f>VLOOKUP(A435, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
-    </row>
-    <row r="436" spans="1:30" ht="14">
+      <c r="AE435" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_028.json</v>
+      </c>
+    </row>
+    <row r="436" spans="1:31" ht="14">
       <c r="A436" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_029.json</v>
       </c>
       <c r="B436" s="16" t="s">
@@ -21556,10 +23310,14 @@
         <f>VLOOKUP(A436, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="437" spans="1:30" ht="14">
+      <c r="AE436" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_029.json</v>
+      </c>
+    </row>
+    <row r="437" spans="1:31" ht="14">
       <c r="A437" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_030.json</v>
       </c>
       <c r="B437" s="16" t="s">
@@ -21587,10 +23345,14 @@
         <f>VLOOKUP(A437, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="438" spans="1:30" ht="14">
+      <c r="AE437" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_030.json</v>
+      </c>
+    </row>
+    <row r="438" spans="1:31" ht="14">
       <c r="A438" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_031.json</v>
       </c>
       <c r="B438" s="16" t="s">
@@ -21620,10 +23382,14 @@
         <f>VLOOKUP(A438, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="439" spans="1:30" ht="14">
+      <c r="AE438" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_031.json</v>
+      </c>
+    </row>
+    <row r="439" spans="1:31" ht="14">
       <c r="A439" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_032.json</v>
       </c>
       <c r="B439" s="16" t="s">
@@ -21653,10 +23419,14 @@
         <f>VLOOKUP(A439, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="440" spans="1:30" ht="28">
+      <c r="AE439" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_032.json</v>
+      </c>
+    </row>
+    <row r="440" spans="1:31" ht="28">
       <c r="A440" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_033.json</v>
       </c>
       <c r="B440" s="16" t="s">
@@ -21689,10 +23459,14 @@
         <f>VLOOKUP(A440, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="441" spans="1:30" ht="14">
+      <c r="AE440" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_033.json</v>
+      </c>
+    </row>
+    <row r="441" spans="1:31" ht="14">
       <c r="A441" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_034.json</v>
       </c>
       <c r="B441" s="16" t="s">
@@ -21723,10 +23497,14 @@
         <f>VLOOKUP(A441, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="442" spans="1:30" ht="14">
+      <c r="AE441" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_034.json</v>
+      </c>
+    </row>
+    <row r="442" spans="1:31" ht="14">
       <c r="A442" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_035.json</v>
       </c>
       <c r="B442" s="16" t="s">
@@ -21759,10 +23537,14 @@
         <f>VLOOKUP(A442, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
-    </row>
-    <row r="443" spans="1:30" ht="14">
+      <c r="AE442" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_035.json</v>
+      </c>
+    </row>
+    <row r="443" spans="1:31" ht="14">
       <c r="A443" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_036.json</v>
       </c>
       <c r="B443" s="16" t="s">
@@ -21790,10 +23572,14 @@
         <f>VLOOKUP(A443, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-017.jpg</v>
       </c>
-    </row>
-    <row r="444" spans="1:30" ht="28">
+      <c r="AE443" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_036.json</v>
+      </c>
+    </row>
+    <row r="444" spans="1:31" ht="28">
       <c r="A444" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_037.json</v>
       </c>
       <c r="B444" s="16" t="s">
@@ -21821,10 +23607,14 @@
         <f>VLOOKUP(A444, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-018.jpg</v>
       </c>
-    </row>
-    <row r="445" spans="1:30" ht="14">
+      <c r="AE444" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_037.json</v>
+      </c>
+    </row>
+    <row r="445" spans="1:31" ht="14">
       <c r="A445" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_038.json</v>
       </c>
       <c r="B445" s="16" t="s">
@@ -21852,10 +23642,14 @@
         <f>VLOOKUP(A445, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-019.jpg</v>
       </c>
-    </row>
-    <row r="446" spans="1:30" ht="14">
+      <c r="AE445" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_038.json</v>
+      </c>
+    </row>
+    <row r="446" spans="1:31" ht="14">
       <c r="A446" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_039.json</v>
       </c>
       <c r="B446" s="16" t="s">
@@ -21888,10 +23682,14 @@
         <f>VLOOKUP(A446, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-019.jpg</v>
       </c>
-    </row>
-    <row r="447" spans="1:30" ht="14">
+      <c r="AE446" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_039.json</v>
+      </c>
+    </row>
+    <row r="447" spans="1:31" ht="14">
       <c r="A447" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_040.json</v>
       </c>
       <c r="B447" s="16" t="s">
@@ -21919,10 +23717,14 @@
         <f>VLOOKUP(A447, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
       </c>
-    </row>
-    <row r="448" spans="1:30" ht="14">
+      <c r="AE447" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_040.json</v>
+      </c>
+    </row>
+    <row r="448" spans="1:31" ht="14">
       <c r="A448" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_041.json</v>
       </c>
       <c r="B448" s="16" t="s">
@@ -21950,10 +23752,14 @@
         <f>VLOOKUP(A448, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
       </c>
-    </row>
-    <row r="449" spans="1:30" ht="14">
+      <c r="AE448" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_041.json</v>
+      </c>
+    </row>
+    <row r="449" spans="1:31" ht="14">
       <c r="A449" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_042.json</v>
       </c>
       <c r="B449" s="16" t="s">
@@ -21978,6 +23784,10 @@
       <c r="AD449" t="str">
         <f>VLOOKUP(A449, [1]Sheet1!$A:$B, 2, FALSE)</f>
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
+      </c>
+      <c r="AE449" t="str">
+        <f t="shared" si="13"/>
+        <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_042.json</v>
       </c>
     </row>
   </sheetData>
@@ -21987,6 +23797,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C7A0689C-743C-3441-9433-0C27CD22EE87}"/>
     <hyperlink ref="C2" r:id="rId2" xr:uid="{9D66068F-24A4-424C-9286-2AED924100AC}"/>
     <hyperlink ref="AD2" r:id="rId3" xr:uid="{F7C92E2A-D91A-6442-B362-EF5150D8DD99}"/>
+    <hyperlink ref="AE2" r:id="rId4" xr:uid="{FBFF13D9-0758-0B42-8E32-F9AF4864DAA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/data/yanesen-01_10.xlsx
+++ b/src/data/yanesen-01_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nakamura/git/lda/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3AC141-65FC-E744-BCFE-B34B7ED11376}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420D3A55-29DA-6440-867F-F4DB3B87DE6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2679" uniqueCount="1132">
   <si>
     <t>page</t>
   </si>
@@ -7496,10 +7496,10 @@
   <dimension ref="A1:AH449"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -7507,6 +7507,7 @@
     <col min="1" max="1" width="53.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" customWidth="1"/>
     <col min="26" max="26" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7606,23 +7607,74 @@
       <c r="C2" s="22" t="s">
         <v>1126</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="D2" s="22" t="str">
+        <f t="shared" ref="D2:S2" si="0">"http://purl.org/dc/terms/"&amp;D1</f>
+        <v>http://purl.org/dc/terms/creator</v>
+      </c>
+      <c r="E2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/subject</v>
+      </c>
+      <c r="F2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/publisher</v>
+      </c>
+      <c r="G2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/created</v>
+      </c>
+      <c r="H2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/issued</v>
+      </c>
+      <c r="I2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/type</v>
+      </c>
+      <c r="J2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/format</v>
+      </c>
+      <c r="K2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/extent</v>
+      </c>
+      <c r="L2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/language</v>
+      </c>
+      <c r="M2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/isPartOf</v>
+      </c>
+      <c r="N2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/description</v>
+      </c>
+      <c r="O2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/contributor</v>
+      </c>
+      <c r="P2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/isReferencedBy</v>
+      </c>
+      <c r="Q2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/references</v>
+      </c>
+      <c r="R2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/spatial</v>
+      </c>
+      <c r="S2" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>http://purl.org/dc/terms/temporal</v>
+      </c>
+      <c r="T2" s="22" t="str">
+        <f>"http://purl.org/dc/terms/"&amp;T1</f>
+        <v>http://purl.org/dc/terms/accessRights</v>
+      </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -7649,23 +7701,57 @@
       <c r="C3" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="D3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>1124</v>
+      </c>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -7722,7 +7808,7 @@
     </row>
     <row r="5" spans="1:34" ht="28">
       <c r="A5" t="str">
-        <f t="shared" ref="A5:A68" si="0">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B5, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A5:A68" si="1">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B5, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_002.json</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -7754,13 +7840,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-002.jpg</v>
       </c>
       <c r="AE5" t="str">
-        <f t="shared" ref="AE5:AE68" si="1">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A5, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE5:AE68" si="2">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A5, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_002.json</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="14">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_003.json</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -7799,13 +7885,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-002.jpg</v>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_003.json</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="14">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_004.json</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -7842,13 +7928,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-003.jpg</v>
       </c>
       <c r="AE7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_004.json</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="14">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_005.json</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -7885,13 +7971,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-003.jpg</v>
       </c>
       <c r="AE8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_005.json</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="14">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_006.json</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -7933,13 +8019,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-004.jpg</v>
       </c>
       <c r="AE9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_006.json</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="42">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_007.json</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -7976,13 +8062,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-005.jpg</v>
       </c>
       <c r="AE10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_007.json</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="14">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_008.json</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -8013,13 +8099,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-005.jpg</v>
       </c>
       <c r="AE11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_008.json</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="14">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_009.json</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -8049,13 +8135,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
       </c>
       <c r="AE12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_009.json</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="14">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_010.json</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -8091,13 +8177,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
       </c>
       <c r="AE13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_010.json</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="13">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_01_011.json</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -8132,13 +8218,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-01/yanesen-01-006.jpg</v>
       </c>
       <c r="AE14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_01_011.json</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="13">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_001.json</v>
       </c>
       <c r="B15" s="16" t="s">
@@ -8186,7 +8272,7 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-001.jpg</v>
       </c>
       <c r="AE15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_001.json</v>
       </c>
       <c r="AF15" s="18"/>
@@ -8195,7 +8281,7 @@
     </row>
     <row r="16" spans="1:34" ht="13">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_002.json</v>
       </c>
       <c r="B16" s="16" t="s">
@@ -8222,13 +8308,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
       <c r="AE16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_002.json</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="14">
       <c r="A17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_003.json</v>
       </c>
       <c r="B17" s="16" t="s">
@@ -8257,13 +8343,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
       <c r="AE17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_003.json</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="14">
       <c r="A18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_004.json</v>
       </c>
       <c r="B18" s="16" t="s">
@@ -8297,13 +8383,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
       <c r="AE18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_004.json</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="13">
       <c r="A19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_005.json</v>
       </c>
       <c r="B19" s="16" t="s">
@@ -8332,13 +8418,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-002.jpg</v>
       </c>
       <c r="AE19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_005.json</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="14">
       <c r="A20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_006.json</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -8372,13 +8458,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
       <c r="AE20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_006.json</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="14">
       <c r="A21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_007.json</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -8410,13 +8496,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
       <c r="AE21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_007.json</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="13">
       <c r="A22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_008.json</v>
       </c>
       <c r="B22" s="16" t="s">
@@ -8448,13 +8534,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
       <c r="AE22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_008.json</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="13">
       <c r="A23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_009.json</v>
       </c>
       <c r="B23" s="16" t="s">
@@ -8486,13 +8572,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
       <c r="AE23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_009.json</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="13">
       <c r="A24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_010.json</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -8524,13 +8610,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
       <c r="AE24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_010.json</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="13">
       <c r="A25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_011.json</v>
       </c>
       <c r="B25" s="16" t="s">
@@ -8562,13 +8648,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
       <c r="AE25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_011.json</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="13">
       <c r="A26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_012.json</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -8600,13 +8686,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
       <c r="AE26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_012.json</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="13">
       <c r="A27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_013.json</v>
       </c>
       <c r="B27" s="16" t="s">
@@ -8638,13 +8724,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
       <c r="AE27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_013.json</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="13">
       <c r="A28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_014.json</v>
       </c>
       <c r="B28" s="16" t="s">
@@ -8676,13 +8762,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-004.jpg</v>
       </c>
       <c r="AE28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_014.json</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="13">
       <c r="A29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_015.json</v>
       </c>
       <c r="B29" s="16" t="s">
@@ -8714,13 +8800,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_015.json</v>
       </c>
     </row>
     <row r="30" spans="1:31" ht="13">
       <c r="A30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_016.json</v>
       </c>
       <c r="B30" s="16" t="s">
@@ -8752,13 +8838,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
       <c r="AE30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_016.json</v>
       </c>
     </row>
     <row r="31" spans="1:31" ht="13">
       <c r="A31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_017.json</v>
       </c>
       <c r="B31" s="16" t="s">
@@ -8790,13 +8876,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
       <c r="AE31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_017.json</v>
       </c>
     </row>
     <row r="32" spans="1:31" ht="13">
       <c r="A32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_018.json</v>
       </c>
       <c r="B32" s="16" t="s">
@@ -8828,13 +8914,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
       <c r="AE32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_018.json</v>
       </c>
     </row>
     <row r="33" spans="1:31" ht="13">
       <c r="A33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_019.json</v>
       </c>
       <c r="B33" s="16" t="s">
@@ -8866,13 +8952,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-005.jpg</v>
       </c>
       <c r="AE33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_019.json</v>
       </c>
     </row>
     <row r="34" spans="1:31" ht="13">
       <c r="A34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_020.json</v>
       </c>
       <c r="B34" s="16" t="s">
@@ -8904,13 +8990,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
       <c r="AE34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_020.json</v>
       </c>
     </row>
     <row r="35" spans="1:31" ht="13">
       <c r="A35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_021.json</v>
       </c>
       <c r="B35" s="16" t="s">
@@ -8942,13 +9028,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
       <c r="AE35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_021.json</v>
       </c>
     </row>
     <row r="36" spans="1:31" ht="13">
       <c r="A36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_022.json</v>
       </c>
       <c r="B36" s="16" t="s">
@@ -8980,13 +9066,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_022.json</v>
       </c>
     </row>
     <row r="37" spans="1:31" ht="14">
       <c r="A37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_023.json</v>
       </c>
       <c r="B37" s="16" t="s">
@@ -9018,13 +9104,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-003.jpg</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_023.json</v>
       </c>
     </row>
     <row r="38" spans="1:31" ht="14">
       <c r="A38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_024.json</v>
       </c>
       <c r="B38" s="16" t="s">
@@ -9056,13 +9142,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-006.jpg</v>
       </c>
       <c r="AE38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_024.json</v>
       </c>
     </row>
     <row r="39" spans="1:31" ht="14">
       <c r="A39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_025.json</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -9094,13 +9180,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-007.jpg</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_025.json</v>
       </c>
     </row>
     <row r="40" spans="1:31" ht="13">
       <c r="A40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_026.json</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -9135,13 +9221,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-007.jpg</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_026.json</v>
       </c>
     </row>
     <row r="41" spans="1:31" ht="28">
       <c r="A41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_027.json</v>
       </c>
       <c r="B41" s="16" t="s">
@@ -9172,13 +9258,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-008.jpg</v>
       </c>
       <c r="AE41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_027.json</v>
       </c>
     </row>
     <row r="42" spans="1:31" ht="28">
       <c r="A42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_028.json</v>
       </c>
       <c r="B42" s="16" t="s">
@@ -9209,13 +9295,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-008.jpg</v>
       </c>
       <c r="AE42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_028.json</v>
       </c>
     </row>
     <row r="43" spans="1:31" ht="13">
       <c r="A43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_029.json</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -9247,13 +9333,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-009.jpg</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_029.json</v>
       </c>
     </row>
     <row r="44" spans="1:31" ht="13">
       <c r="A44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_030.json</v>
       </c>
       <c r="B44" s="16" t="s">
@@ -9282,13 +9368,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_030.json</v>
       </c>
     </row>
     <row r="45" spans="1:31" ht="13">
       <c r="A45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_031.json</v>
       </c>
       <c r="B45" s="16" t="s">
@@ -9317,13 +9403,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_031.json</v>
       </c>
     </row>
     <row r="46" spans="1:31" ht="13">
       <c r="A46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_032.json</v>
       </c>
       <c r="B46" s="16" t="s">
@@ -9352,13 +9438,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_032.json</v>
       </c>
     </row>
     <row r="47" spans="1:31" ht="13">
       <c r="A47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_033.json</v>
       </c>
       <c r="B47" s="16" t="s">
@@ -9390,13 +9476,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_033.json</v>
       </c>
     </row>
     <row r="48" spans="1:31" ht="13">
       <c r="A48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_034.json</v>
       </c>
       <c r="B48" s="16" t="s">
@@ -9425,13 +9511,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_034.json</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="13">
       <c r="A49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_035.json</v>
       </c>
       <c r="B49" s="16" t="s">
@@ -9460,13 +9546,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_035.json</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="13">
       <c r="A50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_036.json</v>
       </c>
       <c r="B50" s="16" t="s">
@@ -9495,13 +9581,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_036.json</v>
       </c>
     </row>
     <row r="51" spans="1:31" ht="13">
       <c r="A51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_037.json</v>
       </c>
       <c r="B51" s="16" t="s">
@@ -9530,13 +9616,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_037.json</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="14">
       <c r="A52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_038.json</v>
       </c>
       <c r="B52" s="16" t="s">
@@ -9565,13 +9651,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_038.json</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="14">
       <c r="A53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_039.json</v>
       </c>
       <c r="B53" s="16" t="s">
@@ -9602,13 +9688,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-011.jpg</v>
       </c>
       <c r="AE53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_039.json</v>
       </c>
     </row>
     <row r="54" spans="1:31" ht="14">
       <c r="A54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_040.json</v>
       </c>
       <c r="B54" s="16" t="s">
@@ -9637,13 +9723,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-012.jpg</v>
       </c>
       <c r="AE54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_040.json</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="14">
       <c r="A55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_041.json</v>
       </c>
       <c r="B55" s="16" t="s">
@@ -9677,13 +9763,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-013.jpg</v>
       </c>
       <c r="AE55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_041.json</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="28">
       <c r="A56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_042.json</v>
       </c>
       <c r="B56" s="16" t="s">
@@ -9712,13 +9798,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_042.json</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="14">
       <c r="A57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_043.json</v>
       </c>
       <c r="B57" s="16" t="s">
@@ -9752,13 +9838,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_043.json</v>
       </c>
     </row>
     <row r="58" spans="1:31" ht="28">
       <c r="A58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_044.json</v>
       </c>
       <c r="B58" s="16" t="s">
@@ -9789,13 +9875,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-015.jpg</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_044.json</v>
       </c>
     </row>
     <row r="59" spans="1:31" ht="28">
       <c r="A59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_045.json</v>
       </c>
       <c r="B59" s="16" t="s">
@@ -9824,13 +9910,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-016.jpg</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_045.json</v>
       </c>
     </row>
     <row r="60" spans="1:31" ht="14">
       <c r="A60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_046.json</v>
       </c>
       <c r="B60" s="16" t="s">
@@ -9861,13 +9947,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-017.jpg</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_046.json</v>
       </c>
     </row>
     <row r="61" spans="1:31" ht="14">
       <c r="A61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_047.json</v>
       </c>
       <c r="B61" s="16" t="s">
@@ -9896,13 +9982,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_047.json</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="14">
       <c r="A62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_048.json</v>
       </c>
       <c r="B62" s="16" t="s">
@@ -9931,13 +10017,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_048.json</v>
       </c>
     </row>
     <row r="63" spans="1:31" ht="14">
       <c r="A63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_049.json</v>
       </c>
       <c r="B63" s="16" t="s">
@@ -9966,13 +10052,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_049.json</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="14">
       <c r="A64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_02_050.json</v>
       </c>
       <c r="B64" s="16" t="s">
@@ -10001,13 +10087,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-02/yanesen-02-018.jpg</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_02_050.json</v>
       </c>
     </row>
     <row r="65" spans="1:31" ht="13">
       <c r="A65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_001.json</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -10034,13 +10120,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-001.jpg</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_001.json</v>
       </c>
     </row>
     <row r="66" spans="1:31" ht="13">
       <c r="A66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_002.json</v>
       </c>
       <c r="B66" s="16" t="s">
@@ -10068,13 +10154,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_002.json</v>
       </c>
     </row>
     <row r="67" spans="1:31" ht="14">
       <c r="A67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_003.json</v>
       </c>
       <c r="B67" s="16" t="s">
@@ -10104,13 +10190,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_003.json</v>
       </c>
     </row>
     <row r="68" spans="1:31" ht="14">
       <c r="A68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_004.json</v>
       </c>
       <c r="B68" s="16" t="s">
@@ -10144,13 +10230,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_004.json</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="13">
       <c r="A69" t="str">
-        <f t="shared" ref="A69:A132" si="2">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B69, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A69:A132" si="3">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B69, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_005.json</v>
       </c>
       <c r="B69" s="16" t="s">
@@ -10180,13 +10266,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-002.jpg</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" ref="AE69:AE132" si="3">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A69, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE69:AE132" si="4">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A69, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_005.json</v>
       </c>
     </row>
     <row r="70" spans="1:31" ht="13">
       <c r="A70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_006.json</v>
       </c>
       <c r="B70" s="16" t="s">
@@ -10215,13 +10301,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-003.jpg</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_006.json</v>
       </c>
     </row>
     <row r="71" spans="1:31" ht="14">
       <c r="A71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_007.json</v>
       </c>
       <c r="B71" s="16" t="s">
@@ -10252,13 +10338,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-004.jpg</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_007.json</v>
       </c>
     </row>
     <row r="72" spans="1:31" ht="13">
       <c r="A72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_008.json</v>
       </c>
       <c r="B72" s="16" t="s">
@@ -10287,13 +10373,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-004.jpg</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_008.json</v>
       </c>
     </row>
     <row r="73" spans="1:31" ht="13">
       <c r="A73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_009.json</v>
       </c>
       <c r="B73" s="16" t="s">
@@ -10322,13 +10408,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-007.jpg</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_009.json</v>
       </c>
     </row>
     <row r="74" spans="1:31" ht="13">
       <c r="A74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_010.json</v>
       </c>
       <c r="B74" s="16" t="s">
@@ -10357,13 +10443,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-008.jpg</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_010.json</v>
       </c>
     </row>
     <row r="75" spans="1:31" ht="13">
       <c r="A75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_011.json</v>
       </c>
       <c r="B75" s="16" t="s">
@@ -10392,13 +10478,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-008.jpg</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_011.json</v>
       </c>
     </row>
     <row r="76" spans="1:31" ht="13">
       <c r="A76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_012.json</v>
       </c>
       <c r="B76" s="16" t="s">
@@ -10427,13 +10513,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-009.jpg</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_012.json</v>
       </c>
     </row>
     <row r="77" spans="1:31" ht="14">
       <c r="A77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_013.json</v>
       </c>
       <c r="B77" s="16" t="s">
@@ -10464,13 +10550,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-009.jpg</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_013.json</v>
       </c>
     </row>
     <row r="78" spans="1:31" ht="14">
       <c r="A78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_014.json</v>
       </c>
       <c r="B78" s="16" t="s">
@@ -10501,13 +10587,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-010.jpg</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_014.json</v>
       </c>
     </row>
     <row r="79" spans="1:31" ht="13">
       <c r="A79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_015.json</v>
       </c>
       <c r="B79" s="16" t="s">
@@ -10536,13 +10622,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_015.json</v>
       </c>
     </row>
     <row r="80" spans="1:31" ht="13">
       <c r="A80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_016.json</v>
       </c>
       <c r="B80" s="16" t="s">
@@ -10571,13 +10657,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_016.json</v>
       </c>
     </row>
     <row r="81" spans="1:31" ht="13">
       <c r="A81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_017.json</v>
       </c>
       <c r="B81" s="16" t="s">
@@ -10606,13 +10692,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_017.json</v>
       </c>
     </row>
     <row r="82" spans="1:31" ht="14">
       <c r="A82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_018.json</v>
       </c>
       <c r="B82" s="16" t="s">
@@ -10646,13 +10732,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-011.jpg</v>
       </c>
       <c r="AE82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_018.json</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="13">
       <c r="A83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_019.json</v>
       </c>
       <c r="B83" s="16" t="s">
@@ -10681,13 +10767,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_019.json</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="13">
       <c r="A84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_020.json</v>
       </c>
       <c r="B84" s="16" t="s">
@@ -10716,13 +10802,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_020.json</v>
       </c>
     </row>
     <row r="85" spans="1:31" ht="14">
       <c r="A85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_021.json</v>
       </c>
       <c r="B85" s="16" t="s">
@@ -10753,13 +10839,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-012.jpg</v>
       </c>
       <c r="AE85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_021.json</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="13">
       <c r="A86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_022.json</v>
       </c>
       <c r="B86" s="16" t="s">
@@ -10791,13 +10877,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-013.jpg</v>
       </c>
       <c r="AE86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_022.json</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="13">
       <c r="A87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_023.json</v>
       </c>
       <c r="B87" s="16" t="s">
@@ -10829,13 +10915,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
       <c r="AE87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_023.json</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="14">
       <c r="A88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_024.json</v>
       </c>
       <c r="B88" s="16" t="s">
@@ -10869,13 +10955,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
       <c r="AE88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_024.json</v>
       </c>
     </row>
     <row r="89" spans="1:31" ht="13">
       <c r="A89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_025.json</v>
       </c>
       <c r="B89" s="16" t="s">
@@ -10904,13 +10990,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-015.jpg</v>
       </c>
       <c r="AE89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_025.json</v>
       </c>
     </row>
     <row r="90" spans="1:31" ht="13">
       <c r="A90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_026.json</v>
       </c>
       <c r="B90" s="16" t="s">
@@ -10939,13 +11025,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_026.json</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="13">
       <c r="A91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_027.json</v>
       </c>
       <c r="B91" s="16" t="s">
@@ -10974,13 +11060,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_027.json</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="13">
       <c r="A92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_028.json</v>
       </c>
       <c r="B92" s="16" t="s">
@@ -11009,13 +11095,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_028.json</v>
       </c>
     </row>
     <row r="93" spans="1:31" ht="13">
       <c r="A93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_029.json</v>
       </c>
       <c r="B93" s="16" t="s">
@@ -11044,13 +11130,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_029.json</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="13">
       <c r="A94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_030.json</v>
       </c>
       <c r="B94" s="16" t="s">
@@ -11079,13 +11165,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_030.json</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="13">
       <c r="A95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_031.json</v>
       </c>
       <c r="B95" s="16" t="s">
@@ -11114,13 +11200,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_031.json</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="13">
       <c r="A96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_032.json</v>
       </c>
       <c r="B96" s="16" t="s">
@@ -11149,13 +11235,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_032.json</v>
       </c>
     </row>
     <row r="97" spans="1:31" ht="13">
       <c r="A97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_033.json</v>
       </c>
       <c r="B97" s="16" t="s">
@@ -11184,13 +11270,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_033.json</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="13">
       <c r="A98" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_034.json</v>
       </c>
       <c r="B98" s="16" t="s">
@@ -11219,13 +11305,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_034.json</v>
       </c>
     </row>
     <row r="99" spans="1:31" ht="13">
       <c r="A99" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_035.json</v>
       </c>
       <c r="B99" s="16" t="s">
@@ -11254,13 +11340,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_035.json</v>
       </c>
     </row>
     <row r="100" spans="1:31" ht="13">
       <c r="A100" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_036.json</v>
       </c>
       <c r="B100" s="16" t="s">
@@ -11289,13 +11375,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_036.json</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="14">
       <c r="A101" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_037.json</v>
       </c>
       <c r="B101" s="16" t="s">
@@ -11326,13 +11412,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_037.json</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="14">
       <c r="A102" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_038.json</v>
       </c>
       <c r="B102" s="16" t="s">
@@ -11363,13 +11449,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-016.jpg</v>
       </c>
       <c r="AE102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_038.json</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="13">
       <c r="A103" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_039.json</v>
       </c>
       <c r="B103" s="16" t="s">
@@ -11399,13 +11485,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-017.jpg</v>
       </c>
       <c r="AE103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_039.json</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="13">
       <c r="A104" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_040.json</v>
       </c>
       <c r="B104" s="16" t="s">
@@ -11434,13 +11520,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
       <c r="AE104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_040.json</v>
       </c>
     </row>
     <row r="105" spans="1:31" ht="13">
       <c r="A105" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_041.json</v>
       </c>
       <c r="B105" s="16" t="s">
@@ -11469,13 +11555,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
       <c r="AE105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_041.json</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="13">
       <c r="A106" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_03_042.json</v>
       </c>
       <c r="B106" s="16" t="s">
@@ -11502,13 +11588,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-03/yanesen-03-018.jpg</v>
       </c>
       <c r="AE106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_03_042.json</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="13">
       <c r="A107" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_001.json</v>
       </c>
       <c r="B107" s="16" t="s">
@@ -11535,13 +11621,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-001.jpg</v>
       </c>
       <c r="AE107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_001.json</v>
       </c>
     </row>
     <row r="108" spans="1:31" ht="13">
       <c r="A108" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_002.json</v>
       </c>
       <c r="B108" s="16" t="s">
@@ -11568,13 +11654,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
       <c r="AE108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_002.json</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="14">
       <c r="A109" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_003.json</v>
       </c>
       <c r="B109" s="16" t="s">
@@ -11603,13 +11689,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
       <c r="AE109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_003.json</v>
       </c>
     </row>
     <row r="110" spans="1:31" ht="14">
       <c r="A110" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_004.json</v>
       </c>
       <c r="B110" s="16" t="s">
@@ -11643,13 +11729,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
       <c r="AE110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_004.json</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="13">
       <c r="A111" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_005.json</v>
       </c>
       <c r="B111" s="16" t="s">
@@ -11679,13 +11765,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-002.jpg</v>
       </c>
       <c r="AE111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_005.json</v>
       </c>
     </row>
     <row r="112" spans="1:31" ht="13">
       <c r="A112" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_006.json</v>
       </c>
       <c r="B112" s="16" t="s">
@@ -11714,13 +11800,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-003.jpg</v>
       </c>
       <c r="AE112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_006.json</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="14">
       <c r="A113" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_007.json</v>
       </c>
       <c r="B113" s="16" t="s">
@@ -11751,13 +11837,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
       <c r="AE113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_007.json</v>
       </c>
     </row>
     <row r="114" spans="1:31" ht="13">
       <c r="A114" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_008.json</v>
       </c>
       <c r="B114" s="16" t="s">
@@ -11786,13 +11872,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
       <c r="AE114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_008.json</v>
       </c>
     </row>
     <row r="115" spans="1:31" ht="13">
       <c r="A115" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_009.json</v>
       </c>
       <c r="B115" s="16" t="s">
@@ -11821,13 +11907,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
       <c r="AE115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_009.json</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="13">
       <c r="A116" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_010.json</v>
       </c>
       <c r="B116" s="16" t="s">
@@ -11856,13 +11942,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
       <c r="AE116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_010.json</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="13">
       <c r="A117" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_011.json</v>
       </c>
       <c r="B117" s="16" t="s">
@@ -11891,13 +11977,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-006.jpg</v>
       </c>
       <c r="AE117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_011.json</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="13">
       <c r="A118" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_012.json</v>
       </c>
       <c r="B118" s="16" t="s">
@@ -11926,13 +12012,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
       <c r="AE118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_012.json</v>
       </c>
     </row>
     <row r="119" spans="1:31" ht="13">
       <c r="A119" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_013.json</v>
       </c>
       <c r="B119" s="16" t="s">
@@ -11961,13 +12047,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
       <c r="AE119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_013.json</v>
       </c>
     </row>
     <row r="120" spans="1:31" ht="13.5" customHeight="1">
       <c r="A120" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_014.json</v>
       </c>
       <c r="B120" s="16" t="s">
@@ -11996,13 +12082,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-008.jpg</v>
       </c>
       <c r="AE120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_014.json</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="13.5" customHeight="1">
       <c r="A121" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_015.json</v>
       </c>
       <c r="B121" s="16" t="s">
@@ -12031,13 +12117,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-004.jpg</v>
       </c>
       <c r="AE121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_015.json</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="14">
       <c r="A122" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_016.json</v>
       </c>
       <c r="B122" s="16" t="s">
@@ -12068,13 +12154,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-005.jpg</v>
       </c>
       <c r="AE122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_016.json</v>
       </c>
     </row>
     <row r="123" spans="1:31" ht="13">
       <c r="A123" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_017.json</v>
       </c>
       <c r="B123" s="16" t="s">
@@ -12103,13 +12189,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-007.jpg</v>
       </c>
       <c r="AE123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_017.json</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="14">
       <c r="A124" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_018.json</v>
       </c>
       <c r="B124" s="16" t="s">
@@ -12140,13 +12226,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-008.jpg</v>
       </c>
       <c r="AE124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_018.json</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="13">
       <c r="A125" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_019.json</v>
       </c>
       <c r="B125" s="16" t="s">
@@ -12175,13 +12261,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-009.jpg</v>
       </c>
       <c r="AE125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_019.json</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="14">
       <c r="A126" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_020.json</v>
       </c>
       <c r="B126" s="16" t="s">
@@ -12215,13 +12301,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-009.jpg</v>
       </c>
       <c r="AE126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_020.json</v>
       </c>
     </row>
     <row r="127" spans="1:31" ht="1.5" customHeight="1">
       <c r="A127" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_021.json</v>
       </c>
       <c r="B127" s="16" t="s">
@@ -12252,13 +12338,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-010.jpg</v>
       </c>
       <c r="AE127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_021.json</v>
       </c>
     </row>
     <row r="128" spans="1:31" ht="13">
       <c r="A128" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_022.json</v>
       </c>
       <c r="B128" s="16" t="s">
@@ -12290,13 +12376,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-011.jpg</v>
       </c>
       <c r="AE128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_022.json</v>
       </c>
     </row>
     <row r="129" spans="1:31" ht="1.5" customHeight="1">
       <c r="A129" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_023.json</v>
       </c>
       <c r="B129" s="16" t="s">
@@ -12325,13 +12411,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-011.jpg</v>
       </c>
       <c r="AE129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_023.json</v>
       </c>
     </row>
     <row r="130" spans="1:31" ht="13">
       <c r="A130" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_024.json</v>
       </c>
       <c r="B130" s="16" t="s">
@@ -12363,13 +12449,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
       <c r="AE130" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_024.json</v>
       </c>
     </row>
     <row r="131" spans="1:31" ht="14">
       <c r="A131" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_025.json</v>
       </c>
       <c r="B131" s="16" t="s">
@@ -12403,13 +12489,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
       <c r="AE131" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_025.json</v>
       </c>
     </row>
     <row r="132" spans="1:31" ht="14">
       <c r="A132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_026.json</v>
       </c>
       <c r="B132" s="16" t="s">
@@ -12440,13 +12526,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-013.jpg</v>
       </c>
       <c r="AE132" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_026.json</v>
       </c>
     </row>
     <row r="133" spans="1:31" ht="13">
       <c r="A133" t="str">
-        <f t="shared" ref="A133:A196" si="4">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B133, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A133:A196" si="5">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B133, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_027.json</v>
       </c>
       <c r="B133" s="16" t="s">
@@ -12475,13 +12561,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-014.jpg</v>
       </c>
       <c r="AE133" t="str">
-        <f t="shared" ref="AE133:AE196" si="5">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A133, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE133:AE196" si="6">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A133, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_027.json</v>
       </c>
     </row>
     <row r="134" spans="1:31" ht="13">
       <c r="A134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_028.json</v>
       </c>
       <c r="B134" s="16" t="s">
@@ -12510,13 +12596,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-015.jpg</v>
       </c>
       <c r="AE134" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_028.json</v>
       </c>
     </row>
     <row r="135" spans="1:31" ht="13">
       <c r="A135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_029.json</v>
       </c>
       <c r="B135" s="16" t="s">
@@ -12545,13 +12631,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE135" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_029.json</v>
       </c>
     </row>
     <row r="136" spans="1:31" ht="13">
       <c r="A136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_030.json</v>
       </c>
       <c r="B136" s="16" t="s">
@@ -12580,13 +12666,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE136" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_030.json</v>
       </c>
     </row>
     <row r="137" spans="1:31" ht="13">
       <c r="A137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_031.json</v>
       </c>
       <c r="B137" s="16" t="s">
@@ -12615,13 +12701,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE137" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_031.json</v>
       </c>
     </row>
     <row r="138" spans="1:31" ht="13">
       <c r="A138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_032.json</v>
       </c>
       <c r="B138" s="16" t="s">
@@ -12650,13 +12736,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE138" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_032.json</v>
       </c>
     </row>
     <row r="139" spans="1:31" ht="13">
       <c r="A139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_033.json</v>
       </c>
       <c r="B139" s="16" t="s">
@@ -12685,13 +12771,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE139" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_033.json</v>
       </c>
     </row>
     <row r="140" spans="1:31" ht="13">
       <c r="A140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_034.json</v>
       </c>
       <c r="B140" s="16" t="s">
@@ -12720,13 +12806,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE140" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_034.json</v>
       </c>
     </row>
     <row r="141" spans="1:31" ht="13">
       <c r="A141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_035.json</v>
       </c>
       <c r="B141" s="16" t="s">
@@ -12755,13 +12841,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE141" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_035.json</v>
       </c>
     </row>
     <row r="142" spans="1:31" ht="13">
       <c r="A142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_036.json</v>
       </c>
       <c r="B142" s="16" t="s">
@@ -12790,13 +12876,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE142" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_036.json</v>
       </c>
     </row>
     <row r="143" spans="1:31" ht="13">
       <c r="A143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_037.json</v>
       </c>
       <c r="B143" s="16" t="s">
@@ -12825,13 +12911,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE143" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_037.json</v>
       </c>
     </row>
     <row r="144" spans="1:31" ht="13">
       <c r="A144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_038.json</v>
       </c>
       <c r="B144" s="16" t="s">
@@ -12860,13 +12946,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE144" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_038.json</v>
       </c>
     </row>
     <row r="145" spans="1:31" ht="13">
       <c r="A145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_039.json</v>
       </c>
       <c r="B145" s="16" t="s">
@@ -12895,13 +12981,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE145" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_039.json</v>
       </c>
     </row>
     <row r="146" spans="1:31" ht="13">
       <c r="A146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_040.json</v>
       </c>
       <c r="B146" s="16" t="s">
@@ -12930,13 +13016,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE146" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_040.json</v>
       </c>
     </row>
     <row r="147" spans="1:31" ht="13">
       <c r="A147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_041.json</v>
       </c>
       <c r="B147" s="16" t="s">
@@ -12965,13 +13051,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE147" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_041.json</v>
       </c>
     </row>
     <row r="148" spans="1:31" ht="13">
       <c r="A148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_042.json</v>
       </c>
       <c r="B148" s="16" t="s">
@@ -13000,13 +13086,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_042.json</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="14">
       <c r="A149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_043.json</v>
       </c>
       <c r="B149" s="16" t="s">
@@ -13037,13 +13123,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_043.json</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="13">
       <c r="A150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_044.json</v>
       </c>
       <c r="B150" s="16" t="s">
@@ -13072,13 +13158,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-016.jpg</v>
       </c>
       <c r="AE150" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_044.json</v>
       </c>
     </row>
     <row r="151" spans="1:31" ht="13">
       <c r="A151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_045.json</v>
       </c>
       <c r="B151" s="16" t="s">
@@ -13107,13 +13193,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-017.jpg</v>
       </c>
       <c r="AE151" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_045.json</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="14">
       <c r="A152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_046.json</v>
       </c>
       <c r="B152" s="16" t="s">
@@ -13147,13 +13233,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-017.jpg</v>
       </c>
       <c r="AE152" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_046.json</v>
       </c>
     </row>
     <row r="153" spans="1:31" ht="13">
       <c r="A153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_047.json</v>
       </c>
       <c r="B153" s="16" t="s">
@@ -13182,13 +13268,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
       <c r="AE153" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_047.json</v>
       </c>
     </row>
     <row r="154" spans="1:31" ht="13">
       <c r="A154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_048.json</v>
       </c>
       <c r="B154" s="16" t="s">
@@ -13217,13 +13303,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
       <c r="AE154" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_048.json</v>
       </c>
     </row>
     <row r="155" spans="1:31" ht="13">
       <c r="A155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_04_049.json</v>
       </c>
       <c r="B155" s="16" t="s">
@@ -13252,13 +13338,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-04/yanesen-04-018.jpg</v>
       </c>
       <c r="AE155" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_04_049.json</v>
       </c>
     </row>
     <row r="156" spans="1:31" ht="14">
       <c r="A156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_001.json</v>
       </c>
       <c r="B156" s="16" t="s">
@@ -13290,13 +13376,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-001.jpg</v>
       </c>
       <c r="AE156" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_001.json</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="13">
       <c r="A157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_002.json</v>
       </c>
       <c r="B157" s="16" t="s">
@@ -13324,13 +13410,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
       <c r="AE157" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_002.json</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="14">
       <c r="A158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_003.json</v>
       </c>
       <c r="B158" s="16" t="s">
@@ -13360,13 +13446,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
       <c r="AE158" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_003.json</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="14">
       <c r="A159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_004.json</v>
       </c>
       <c r="B159" s="16" t="s">
@@ -13400,13 +13486,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
       <c r="AE159" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_004.json</v>
       </c>
     </row>
     <row r="160" spans="1:31" ht="13">
       <c r="A160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_005.json</v>
       </c>
       <c r="B160" s="16" t="s">
@@ -13436,13 +13522,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-002.jpg</v>
       </c>
       <c r="AE160" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_005.json</v>
       </c>
     </row>
     <row r="161" spans="1:31" ht="14">
       <c r="A161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_006.json</v>
       </c>
       <c r="B161" s="16" t="s">
@@ -13473,13 +13559,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
       <c r="AE161" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_006.json</v>
       </c>
     </row>
     <row r="162" spans="1:31" ht="16.5" customHeight="1">
       <c r="A162" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_007.json</v>
       </c>
       <c r="B162" s="16" t="s">
@@ -13508,13 +13594,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
       <c r="AE162" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_007.json</v>
       </c>
     </row>
     <row r="163" spans="1:31" ht="15" customHeight="1">
       <c r="A163" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_008.json</v>
       </c>
       <c r="B163" s="16" t="s">
@@ -13543,13 +13629,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-003.jpg</v>
       </c>
       <c r="AE163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_008.json</v>
       </c>
     </row>
     <row r="164" spans="1:31" ht="13">
       <c r="A164" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_009.json</v>
       </c>
       <c r="B164" s="16" t="s">
@@ -13578,13 +13664,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
       <c r="AE164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_009.json</v>
       </c>
     </row>
     <row r="165" spans="1:31" ht="42">
       <c r="A165" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_010.json</v>
       </c>
       <c r="B165" s="16" t="s">
@@ -13615,13 +13701,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
       <c r="AE165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_010.json</v>
       </c>
     </row>
     <row r="166" spans="1:31" ht="13">
       <c r="A166" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_011.json</v>
       </c>
       <c r="B166" s="16" t="s">
@@ -13650,13 +13736,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-004.jpg</v>
       </c>
       <c r="AE166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_011.json</v>
       </c>
     </row>
     <row r="167" spans="1:31" ht="16.5" customHeight="1">
       <c r="A167" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_012.json</v>
       </c>
       <c r="B167" s="16" t="s">
@@ -13687,13 +13773,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
       <c r="AE167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_012.json</v>
       </c>
     </row>
     <row r="168" spans="1:31" ht="17.25" customHeight="1">
       <c r="A168" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_013.json</v>
       </c>
       <c r="B168" s="16" t="s">
@@ -13722,13 +13808,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
       <c r="AE168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_013.json</v>
       </c>
     </row>
     <row r="169" spans="1:31" ht="16.5" customHeight="1">
       <c r="A169" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_014.json</v>
       </c>
       <c r="B169" s="16" t="s">
@@ -13759,13 +13845,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
       <c r="AE169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_014.json</v>
       </c>
     </row>
     <row r="170" spans="1:31" ht="13">
       <c r="A170" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_015.json</v>
       </c>
       <c r="B170" s="16" t="s">
@@ -13794,13 +13880,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-005.jpg</v>
       </c>
       <c r="AE170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_015.json</v>
       </c>
     </row>
     <row r="171" spans="1:31" ht="1.5" customHeight="1">
       <c r="A171" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_016.json</v>
       </c>
       <c r="B171" s="16" t="s">
@@ -13829,13 +13915,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
       <c r="AE171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_016.json</v>
       </c>
     </row>
     <row r="172" spans="1:31" ht="13">
       <c r="A172" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_017.json</v>
       </c>
       <c r="B172" s="16" t="s">
@@ -13864,13 +13950,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
       <c r="AE172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_017.json</v>
       </c>
     </row>
     <row r="173" spans="1:31" ht="13">
       <c r="A173" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_018.json</v>
       </c>
       <c r="B173" s="16" t="s">
@@ -13899,13 +13985,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-006.jpg</v>
       </c>
       <c r="AE173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_018.json</v>
       </c>
     </row>
     <row r="174" spans="1:31" ht="13">
       <c r="A174" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_019.json</v>
       </c>
       <c r="B174" s="16" t="s">
@@ -13934,13 +14020,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-007.jpg</v>
       </c>
       <c r="AE174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_019.json</v>
       </c>
     </row>
     <row r="175" spans="1:31" ht="13">
       <c r="A175" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_020.json</v>
       </c>
       <c r="B175" s="16" t="s">
@@ -13969,13 +14055,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-007.jpg</v>
       </c>
       <c r="AE175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_020.json</v>
       </c>
     </row>
     <row r="176" spans="1:31" ht="13">
       <c r="A176" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_021.json</v>
       </c>
       <c r="B176" s="16" t="s">
@@ -14007,13 +14093,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-008.jpg</v>
       </c>
       <c r="AE176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_021.json</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="14">
       <c r="A177" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_022.json</v>
       </c>
       <c r="B177" s="16" t="s">
@@ -14047,13 +14133,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-008.jpg</v>
       </c>
       <c r="AE177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_022.json</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="14">
       <c r="A178" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_023.json</v>
       </c>
       <c r="B178" s="16" t="s">
@@ -14084,13 +14170,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-009.jpg</v>
       </c>
       <c r="AE178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_023.json</v>
       </c>
     </row>
     <row r="179" spans="1:31" ht="13">
       <c r="A179" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_024.json</v>
       </c>
       <c r="B179" s="16" t="s">
@@ -14119,13 +14205,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-009.jpg</v>
       </c>
       <c r="AE179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_024.json</v>
       </c>
     </row>
     <row r="180" spans="1:31" ht="14">
       <c r="A180" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_025.json</v>
       </c>
       <c r="B180" s="16" t="s">
@@ -14156,13 +14242,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-010.jpg</v>
       </c>
       <c r="AE180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_025.json</v>
       </c>
     </row>
     <row r="181" spans="1:31" ht="13">
       <c r="A181" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_026.json</v>
       </c>
       <c r="B181" s="16" t="s">
@@ -14191,13 +14277,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-011.jpg</v>
       </c>
       <c r="AE181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_026.json</v>
       </c>
     </row>
     <row r="182" spans="1:31" ht="13">
       <c r="A182" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_027.json</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -14226,13 +14312,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-011.jpg</v>
       </c>
       <c r="AE182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_027.json</v>
       </c>
     </row>
     <row r="183" spans="1:31" ht="13">
       <c r="A183" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_028.json</v>
       </c>
       <c r="B183" s="16" t="s">
@@ -14264,13 +14350,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-012.jpg</v>
       </c>
       <c r="AE183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_028.json</v>
       </c>
     </row>
     <row r="184" spans="1:31" ht="14">
       <c r="A184" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_029.json</v>
       </c>
       <c r="B184" s="16" t="s">
@@ -14304,13 +14390,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-014.jpg</v>
       </c>
       <c r="AE184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_029.json</v>
       </c>
     </row>
     <row r="185" spans="1:31" ht="13">
       <c r="A185" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_030.json</v>
       </c>
       <c r="B185" s="16" t="s">
@@ -14339,13 +14425,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-015.jpg</v>
       </c>
       <c r="AE185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_030.json</v>
       </c>
     </row>
     <row r="186" spans="1:31" ht="13">
       <c r="A186" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_031.json</v>
       </c>
       <c r="B186" s="16" t="s">
@@ -14374,13 +14460,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-015.jpg</v>
       </c>
       <c r="AE186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_031.json</v>
       </c>
     </row>
     <row r="187" spans="1:31" ht="13">
       <c r="A187" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_032.json</v>
       </c>
       <c r="B187" s="16" t="s">
@@ -14409,13 +14495,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-016.jpg</v>
       </c>
       <c r="AE187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_032.json</v>
       </c>
     </row>
     <row r="188" spans="1:31" ht="13">
       <c r="A188" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_033.json</v>
       </c>
       <c r="B188" s="16" t="s">
@@ -14444,13 +14530,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_033.json</v>
       </c>
     </row>
     <row r="189" spans="1:31" ht="13">
       <c r="A189" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_034.json</v>
       </c>
       <c r="B189" s="16" t="s">
@@ -14479,13 +14565,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_034.json</v>
       </c>
     </row>
     <row r="190" spans="1:31" ht="13">
       <c r="A190" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_035.json</v>
       </c>
       <c r="B190" s="16" t="s">
@@ -14514,13 +14600,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_035.json</v>
       </c>
     </row>
     <row r="191" spans="1:31" ht="13">
       <c r="A191" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_036.json</v>
       </c>
       <c r="B191" s="16" t="s">
@@ -14549,13 +14635,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_036.json</v>
       </c>
     </row>
     <row r="192" spans="1:31" ht="13">
       <c r="A192" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_037.json</v>
       </c>
       <c r="B192" s="16" t="s">
@@ -14584,13 +14670,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_037.json</v>
       </c>
     </row>
     <row r="193" spans="1:31" ht="13">
       <c r="A193" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_038.json</v>
       </c>
       <c r="B193" s="16" t="s">
@@ -14619,13 +14705,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_038.json</v>
       </c>
     </row>
     <row r="194" spans="1:31" ht="13">
       <c r="A194" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_039.json</v>
       </c>
       <c r="B194" s="16" t="s">
@@ -14654,13 +14740,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE194" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_039.json</v>
       </c>
     </row>
     <row r="195" spans="1:31" ht="13">
       <c r="A195" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_040.json</v>
       </c>
       <c r="B195" s="16" t="s">
@@ -14689,13 +14775,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE195" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_040.json</v>
       </c>
     </row>
     <row r="196" spans="1:31" ht="13">
       <c r="A196" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_041.json</v>
       </c>
       <c r="B196" s="16" t="s">
@@ -14724,13 +14810,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE196" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_041.json</v>
       </c>
     </row>
     <row r="197" spans="1:31" ht="13">
       <c r="A197" t="str">
-        <f t="shared" ref="A197:A260" si="6">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B197, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A197:A260" si="7">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B197, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_042.json</v>
       </c>
       <c r="B197" s="16" t="s">
@@ -14759,13 +14845,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE197" t="str">
-        <f t="shared" ref="AE197:AE260" si="7">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A197, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE197:AE260" si="8">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A197, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_042.json</v>
       </c>
     </row>
     <row r="198" spans="1:31" ht="13">
       <c r="A198" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_043.json</v>
       </c>
       <c r="B198" s="16" t="s">
@@ -14794,13 +14880,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE198" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_043.json</v>
       </c>
     </row>
     <row r="199" spans="1:31" ht="13">
       <c r="A199" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_044.json</v>
       </c>
       <c r="B199" s="16" t="s">
@@ -14829,13 +14915,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE199" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_044.json</v>
       </c>
     </row>
     <row r="200" spans="1:31" ht="13">
       <c r="A200" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_045.json</v>
       </c>
       <c r="B200" s="16" t="s">
@@ -14864,13 +14950,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE200" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_045.json</v>
       </c>
     </row>
     <row r="201" spans="1:31" ht="13">
       <c r="A201" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_046.json</v>
       </c>
       <c r="B201" s="16" t="s">
@@ -14899,13 +14985,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE201" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_046.json</v>
       </c>
     </row>
     <row r="202" spans="1:31" ht="13">
       <c r="A202" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_047.json</v>
       </c>
       <c r="B202" s="16" t="s">
@@ -14934,13 +15020,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE202" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_047.json</v>
       </c>
     </row>
     <row r="203" spans="1:31" ht="13">
       <c r="A203" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_048.json</v>
       </c>
       <c r="B203" s="16" t="s">
@@ -14969,13 +15055,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE203" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_048.json</v>
       </c>
     </row>
     <row r="204" spans="1:31" ht="13">
       <c r="A204" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_049.json</v>
       </c>
       <c r="B204" s="16" t="s">
@@ -15004,13 +15090,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE204" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_049.json</v>
       </c>
     </row>
     <row r="205" spans="1:31" ht="13.5" customHeight="1">
       <c r="A205" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_050.json</v>
       </c>
       <c r="B205" s="16" t="s">
@@ -15039,13 +15125,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE205" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_050.json</v>
       </c>
     </row>
     <row r="206" spans="1:31" ht="13.5" customHeight="1">
       <c r="A206" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_051.json</v>
       </c>
       <c r="B206" s="16" t="s">
@@ -15074,13 +15160,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE206" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_051.json</v>
       </c>
     </row>
     <row r="207" spans="1:31" ht="13">
       <c r="A207" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_052.json</v>
       </c>
       <c r="B207" s="16" t="s">
@@ -15109,13 +15195,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-017.jpg</v>
       </c>
       <c r="AE207" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_052.json</v>
       </c>
     </row>
     <row r="208" spans="1:31" ht="13">
       <c r="A208" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_053.json</v>
       </c>
       <c r="B208" s="16" t="s">
@@ -15144,13 +15230,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
       <c r="AE208" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_053.json</v>
       </c>
     </row>
     <row r="209" spans="1:31" ht="13">
       <c r="A209" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_054.json</v>
       </c>
       <c r="B209" s="16" t="s">
@@ -15179,13 +15265,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
       <c r="AE209" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_054.json</v>
       </c>
     </row>
     <row r="210" spans="1:31" ht="13">
       <c r="A210" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_05_055.json</v>
       </c>
       <c r="B210" s="16" t="s">
@@ -15214,13 +15300,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-05/yanesen-05-018.jpg</v>
       </c>
       <c r="AE210" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_05_055.json</v>
       </c>
     </row>
     <row r="211" spans="1:31" ht="13">
       <c r="A211" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_001.json</v>
       </c>
       <c r="B211" s="16" t="s">
@@ -15247,13 +15333,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-001.jpg</v>
       </c>
       <c r="AE211" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_001.json</v>
       </c>
     </row>
     <row r="212" spans="1:31" ht="13">
       <c r="A212" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_002.json</v>
       </c>
       <c r="B212" s="16" t="s">
@@ -15280,13 +15366,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
       <c r="AE212" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_002.json</v>
       </c>
     </row>
     <row r="213" spans="1:31" ht="14">
       <c r="A213" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_003.json</v>
       </c>
       <c r="B213" s="16" t="s">
@@ -15315,13 +15401,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
       <c r="AE213" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_003.json</v>
       </c>
     </row>
     <row r="214" spans="1:31" ht="14">
       <c r="A214" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_004.json</v>
       </c>
       <c r="B214" s="16" t="s">
@@ -15355,13 +15441,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
       <c r="AE214" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_004.json</v>
       </c>
     </row>
     <row r="215" spans="1:31" ht="13">
       <c r="A215" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_005.json</v>
       </c>
       <c r="B215" s="16" t="s">
@@ -15391,13 +15477,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-002.jpg</v>
       </c>
       <c r="AE215" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_005.json</v>
       </c>
     </row>
     <row r="216" spans="1:31" ht="13">
       <c r="A216" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_006.json</v>
       </c>
       <c r="B216" s="16" t="s">
@@ -15426,13 +15512,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-003.jpg</v>
       </c>
       <c r="AE216" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_006.json</v>
       </c>
     </row>
     <row r="217" spans="1:31" ht="14">
       <c r="A217" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_007.json</v>
       </c>
       <c r="B217" s="16" t="s">
@@ -15463,13 +15549,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
       <c r="AE217" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_007.json</v>
       </c>
     </row>
     <row r="218" spans="1:31" ht="13">
       <c r="A218" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_008.json</v>
       </c>
       <c r="B218" s="16" t="s">
@@ -15498,13 +15584,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
       <c r="AE218" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_008.json</v>
       </c>
     </row>
     <row r="219" spans="1:31" ht="13">
       <c r="A219" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_009.json</v>
       </c>
       <c r="B219" s="16" t="s">
@@ -15533,13 +15619,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-004.jpg</v>
       </c>
       <c r="AE219" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_009.json</v>
       </c>
     </row>
     <row r="220" spans="1:31" ht="13">
       <c r="A220" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_010.json</v>
       </c>
       <c r="B220" s="16" t="s">
@@ -15568,13 +15654,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-005.jpg</v>
       </c>
       <c r="AE220" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_010.json</v>
       </c>
     </row>
     <row r="221" spans="1:31" ht="13">
       <c r="A221" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_011.json</v>
       </c>
       <c r="B221" s="16" t="s">
@@ -15603,13 +15689,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-005.jpg</v>
       </c>
       <c r="AE221" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_011.json</v>
       </c>
     </row>
     <row r="222" spans="1:31" ht="13">
       <c r="A222" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_012.json</v>
       </c>
       <c r="B222" s="16" t="s">
@@ -15638,13 +15724,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
       <c r="AE222" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_012.json</v>
       </c>
     </row>
     <row r="223" spans="1:31" ht="13">
       <c r="A223" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_013.json</v>
       </c>
       <c r="B223" s="16" t="s">
@@ -15673,13 +15759,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
       <c r="AE223" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_013.json</v>
       </c>
     </row>
     <row r="224" spans="1:31" ht="13">
       <c r="A224" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_014.json</v>
       </c>
       <c r="B224" s="16" t="s">
@@ -15708,13 +15794,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-006.jpg</v>
       </c>
       <c r="AE224" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_014.json</v>
       </c>
     </row>
     <row r="225" spans="1:31" ht="13">
       <c r="A225" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_015.json</v>
       </c>
       <c r="B225" s="16" t="s">
@@ -15743,13 +15829,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-007.jpg</v>
       </c>
       <c r="AE225" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_015.json</v>
       </c>
     </row>
     <row r="226" spans="1:31" ht="13">
       <c r="A226" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_016.json</v>
       </c>
       <c r="B226" s="16" t="s">
@@ -15778,13 +15864,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-007.jpg</v>
       </c>
       <c r="AE226" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_016.json</v>
       </c>
     </row>
     <row r="227" spans="1:31" ht="13">
       <c r="A227" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_017.json</v>
       </c>
       <c r="B227" s="16" t="s">
@@ -15813,13 +15899,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
       <c r="AE227" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_017.json</v>
       </c>
     </row>
     <row r="228" spans="1:31" ht="13">
       <c r="A228" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_018.json</v>
       </c>
       <c r="B228" s="16" t="s">
@@ -15848,13 +15934,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
       <c r="AE228" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_018.json</v>
       </c>
     </row>
     <row r="229" spans="1:31" ht="13">
       <c r="A229" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_019.json</v>
       </c>
       <c r="B229" s="16" t="s">
@@ -15883,13 +15969,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
       <c r="AE229" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_019.json</v>
       </c>
     </row>
     <row r="230" spans="1:31" ht="13">
       <c r="A230" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_020.json</v>
       </c>
       <c r="B230" s="16" t="s">
@@ -15918,13 +16004,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-008.jpg</v>
       </c>
       <c r="AE230" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_020.json</v>
       </c>
     </row>
     <row r="231" spans="1:31" ht="13">
       <c r="A231" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_021.json</v>
       </c>
       <c r="B231" s="16" t="s">
@@ -15953,13 +16039,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
       <c r="AE231" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_021.json</v>
       </c>
     </row>
     <row r="232" spans="1:31" ht="13">
       <c r="A232" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_022.json</v>
       </c>
       <c r="B232" s="16" t="s">
@@ -15988,13 +16074,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
       <c r="AE232" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_022.json</v>
       </c>
     </row>
     <row r="233" spans="1:31" ht="13">
       <c r="A233" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_023.json</v>
       </c>
       <c r="B233" s="16" t="s">
@@ -16023,13 +16109,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-009.jpg</v>
       </c>
       <c r="AE233" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_023.json</v>
       </c>
     </row>
     <row r="234" spans="1:31" ht="13">
       <c r="A234" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_024.json</v>
       </c>
       <c r="B234" s="16" t="s">
@@ -16058,13 +16144,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-010.jpg</v>
       </c>
       <c r="AE234" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_024.json</v>
       </c>
     </row>
     <row r="235" spans="1:31" ht="13">
       <c r="A235" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_025.json</v>
       </c>
       <c r="B235" s="16" t="s">
@@ -16096,13 +16182,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-010.jpg</v>
       </c>
       <c r="AE235" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_025.json</v>
       </c>
     </row>
     <row r="236" spans="1:31" ht="13">
       <c r="A236" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_026.json</v>
       </c>
       <c r="B236" s="16" t="s">
@@ -16131,13 +16217,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-011.jpg</v>
       </c>
       <c r="AE236" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_026.json</v>
       </c>
     </row>
     <row r="237" spans="1:31" ht="14">
       <c r="A237" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_027.json</v>
       </c>
       <c r="B237" s="16" t="s">
@@ -16168,13 +16254,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-012.jpg</v>
       </c>
       <c r="AE237" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_027.json</v>
       </c>
     </row>
     <row r="238" spans="1:31" ht="13">
       <c r="A238" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_028.json</v>
       </c>
       <c r="B238" s="16" t="s">
@@ -16206,13 +16292,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-013.jpg</v>
       </c>
       <c r="AE238" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_028.json</v>
       </c>
     </row>
     <row r="239" spans="1:31" ht="13">
       <c r="A239" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_029.json</v>
       </c>
       <c r="B239" s="16" t="s">
@@ -16244,13 +16330,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-015.jpg</v>
       </c>
       <c r="AE239" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_029.json</v>
       </c>
     </row>
     <row r="240" spans="1:31" ht="13">
       <c r="A240" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_030.json</v>
       </c>
       <c r="B240" s="16" t="s">
@@ -16282,13 +16368,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
       <c r="AE240" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_030.json</v>
       </c>
     </row>
     <row r="241" spans="1:31" ht="14">
       <c r="A241" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_031.json</v>
       </c>
       <c r="B241" s="16" t="s">
@@ -16322,13 +16408,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
       <c r="AE241" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_031.json</v>
       </c>
     </row>
     <row r="242" spans="1:31" ht="13">
       <c r="A242" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_032.json</v>
       </c>
       <c r="B242" s="16" t="s">
@@ -16360,13 +16446,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-016.jpg</v>
       </c>
       <c r="AE242" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_032.json</v>
       </c>
     </row>
     <row r="243" spans="1:31" ht="13">
       <c r="A243" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_033.json</v>
       </c>
       <c r="B243" s="16" t="s">
@@ -16395,13 +16481,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-017.jpg</v>
       </c>
       <c r="AE243" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_033.json</v>
       </c>
     </row>
     <row r="244" spans="1:31" ht="13">
       <c r="A244" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_034.json</v>
       </c>
       <c r="B244" s="16" t="s">
@@ -16430,13 +16516,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-017.jpg</v>
       </c>
       <c r="AE244" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_034.json</v>
       </c>
     </row>
     <row r="245" spans="1:31" ht="28.5" customHeight="1">
       <c r="A245" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_035.json</v>
       </c>
       <c r="B245" s="16" t="s">
@@ -16465,13 +16551,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE245" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_035.json</v>
       </c>
     </row>
     <row r="246" spans="1:31" ht="28.5" customHeight="1">
       <c r="A246" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_036.json</v>
       </c>
       <c r="B246" s="16" t="s">
@@ -16503,13 +16589,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE246" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_036.json</v>
       </c>
     </row>
     <row r="247" spans="1:31" ht="28.5" customHeight="1">
       <c r="A247" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_037.json</v>
       </c>
       <c r="B247" s="16" t="s">
@@ -16541,13 +16627,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE247" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_037.json</v>
       </c>
     </row>
     <row r="248" spans="1:31" ht="28.5" customHeight="1">
       <c r="A248" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_038.json</v>
       </c>
       <c r="B248" s="16" t="s">
@@ -16579,13 +16665,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE248" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_038.json</v>
       </c>
     </row>
     <row r="249" spans="1:31" ht="28.5" customHeight="1">
       <c r="A249" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_039.json</v>
       </c>
       <c r="B249" s="16" t="s">
@@ -16617,13 +16703,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE249" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_039.json</v>
       </c>
     </row>
     <row r="250" spans="1:31" ht="28.5" customHeight="1">
       <c r="A250" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_040.json</v>
       </c>
       <c r="B250" s="16" t="s">
@@ -16652,13 +16738,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE250" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_040.json</v>
       </c>
     </row>
     <row r="251" spans="1:31" ht="28.5" customHeight="1">
       <c r="A251" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_041.json</v>
       </c>
       <c r="B251" s="16" t="s">
@@ -16687,13 +16773,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE251" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_041.json</v>
       </c>
     </row>
     <row r="252" spans="1:31" ht="28.5" customHeight="1">
       <c r="A252" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_042.json</v>
       </c>
       <c r="B252" s="16" t="s">
@@ -16722,13 +16808,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE252" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_042.json</v>
       </c>
     </row>
     <row r="253" spans="1:31" ht="13">
       <c r="A253" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_043.json</v>
       </c>
       <c r="B253" s="16" t="s">
@@ -16757,13 +16843,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-018.jpg</v>
       </c>
       <c r="AE253" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_043.json</v>
       </c>
     </row>
     <row r="254" spans="1:31" ht="28">
       <c r="A254" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_044.json</v>
       </c>
       <c r="B254" s="16" t="s">
@@ -16794,13 +16880,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-019.jpg</v>
       </c>
       <c r="AE254" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_044.json</v>
       </c>
     </row>
     <row r="255" spans="1:31" ht="13">
       <c r="A255" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_045.json</v>
       </c>
       <c r="B255" s="16" t="s">
@@ -16829,13 +16915,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE255" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_045.json</v>
       </c>
     </row>
     <row r="256" spans="1:31" ht="13">
       <c r="A256" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_046.json</v>
       </c>
       <c r="B256" s="16" t="s">
@@ -16864,13 +16950,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE256" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_046.json</v>
       </c>
     </row>
     <row r="257" spans="1:31" ht="13">
       <c r="A257" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_047.json</v>
       </c>
       <c r="B257" s="16" t="s">
@@ -16899,13 +16985,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE257" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_047.json</v>
       </c>
     </row>
     <row r="258" spans="1:31" ht="13">
       <c r="A258" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_048.json</v>
       </c>
       <c r="B258" s="16" t="s">
@@ -16934,13 +17020,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE258" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_048.json</v>
       </c>
     </row>
     <row r="259" spans="1:31" ht="13">
       <c r="A259" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_049.json</v>
       </c>
       <c r="B259" s="16" t="s">
@@ -16969,13 +17055,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE259" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_049.json</v>
       </c>
     </row>
     <row r="260" spans="1:31" ht="13">
       <c r="A260" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_050.json</v>
       </c>
       <c r="B260" s="16" t="s">
@@ -17004,13 +17090,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE260" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_050.json</v>
       </c>
     </row>
     <row r="261" spans="1:31" ht="13">
       <c r="A261" t="str">
-        <f t="shared" ref="A261:A324" si="8">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B261, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A261:A324" si="9">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B261, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_051.json</v>
       </c>
       <c r="B261" s="16" t="s">
@@ -17039,13 +17125,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE261" t="str">
-        <f t="shared" ref="AE261:AE324" si="9">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A261, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE261:AE324" si="10">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A261, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_051.json</v>
       </c>
     </row>
     <row r="262" spans="1:31" ht="13">
       <c r="A262" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_052.json</v>
       </c>
       <c r="B262" s="16" t="s">
@@ -17074,13 +17160,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE262" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_052.json</v>
       </c>
     </row>
     <row r="263" spans="1:31" ht="13">
       <c r="A263" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_053.json</v>
       </c>
       <c r="B263" s="16" t="s">
@@ -17109,13 +17195,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE263" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_053.json</v>
       </c>
     </row>
     <row r="264" spans="1:31" ht="13">
       <c r="A264" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_054.json</v>
       </c>
       <c r="B264" s="16" t="s">
@@ -17144,13 +17230,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-020.jpg</v>
       </c>
       <c r="AE264" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_054.json</v>
       </c>
     </row>
     <row r="265" spans="1:31" ht="13">
       <c r="A265" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_055.json</v>
       </c>
       <c r="B265" s="16" t="s">
@@ -17179,13 +17265,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-021.jpg</v>
       </c>
       <c r="AE265" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_055.json</v>
       </c>
     </row>
     <row r="266" spans="1:31" ht="14">
       <c r="A266" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_056.json</v>
       </c>
       <c r="B266" s="16" t="s">
@@ -17214,13 +17300,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
       <c r="AE266" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_056.json</v>
       </c>
     </row>
     <row r="267" spans="1:31" ht="14">
       <c r="A267" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_057.json</v>
       </c>
       <c r="B267" s="16" t="s">
@@ -17249,13 +17335,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
       <c r="AE267" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_057.json</v>
       </c>
     </row>
     <row r="268" spans="1:31" ht="14">
       <c r="A268" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_06_058.json</v>
       </c>
       <c r="B268" s="16" t="s">
@@ -17282,13 +17368,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-06/yanesen-06-022.jpg</v>
       </c>
       <c r="AE268" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_06_058.json</v>
       </c>
     </row>
     <row r="269" spans="1:31" ht="14">
       <c r="A269" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_001.json</v>
       </c>
       <c r="B269" s="16" t="s">
@@ -17317,13 +17403,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-001.jpg</v>
       </c>
       <c r="AE269" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_001.json</v>
       </c>
     </row>
     <row r="270" spans="1:31" ht="13">
       <c r="A270" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_002.json</v>
       </c>
       <c r="B270" s="16" t="s">
@@ -17350,13 +17436,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
       <c r="AE270" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_002.json</v>
       </c>
     </row>
     <row r="271" spans="1:31" ht="14">
       <c r="A271" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_003.json</v>
       </c>
       <c r="B271" s="16" t="s">
@@ -17385,13 +17471,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
       <c r="AE271" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_003.json</v>
       </c>
     </row>
     <row r="272" spans="1:31" ht="14">
       <c r="A272" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_004.json</v>
       </c>
       <c r="B272" s="16" t="s">
@@ -17425,13 +17511,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
       <c r="AE272" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_004.json</v>
       </c>
     </row>
     <row r="273" spans="1:31" ht="13">
       <c r="A273" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_005.json</v>
       </c>
       <c r="B273" s="16" t="s">
@@ -17461,13 +17547,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-002.jpg</v>
       </c>
       <c r="AE273" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_005.json</v>
       </c>
     </row>
     <row r="274" spans="1:31" ht="13">
       <c r="A274" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_006.json</v>
       </c>
       <c r="B274" s="16" t="s">
@@ -17496,13 +17582,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-003.jpg</v>
       </c>
       <c r="AE274" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_006.json</v>
       </c>
     </row>
     <row r="275" spans="1:31" ht="14">
       <c r="A275" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_007.json</v>
       </c>
       <c r="B275" s="16" t="s">
@@ -17533,13 +17619,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-004.jpg</v>
       </c>
       <c r="AE275" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_007.json</v>
       </c>
     </row>
     <row r="276" spans="1:31" ht="13">
       <c r="A276" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_008.json</v>
       </c>
       <c r="B276" s="16" t="s">
@@ -17568,13 +17654,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-004.jpg</v>
       </c>
       <c r="AE276" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_008.json</v>
       </c>
     </row>
     <row r="277" spans="1:31" ht="13">
       <c r="A277" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_009.json</v>
       </c>
       <c r="B277" s="16" t="s">
@@ -17603,13 +17689,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE277" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_009.json</v>
       </c>
     </row>
     <row r="278" spans="1:31" ht="13">
       <c r="A278" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_010.json</v>
       </c>
       <c r="B278" s="16" t="s">
@@ -17638,13 +17724,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE278" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_010.json</v>
       </c>
     </row>
     <row r="279" spans="1:31" ht="13">
       <c r="A279" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_011.json</v>
       </c>
       <c r="B279" s="16" t="s">
@@ -17673,13 +17759,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE279" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_011.json</v>
       </c>
     </row>
     <row r="280" spans="1:31" ht="13">
       <c r="A280" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_012.json</v>
       </c>
       <c r="B280" s="16" t="s">
@@ -17708,13 +17794,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE280" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_012.json</v>
       </c>
     </row>
     <row r="281" spans="1:31" ht="13">
       <c r="A281" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_013.json</v>
       </c>
       <c r="B281" s="16" t="s">
@@ -17743,13 +17829,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE281" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_013.json</v>
       </c>
     </row>
     <row r="282" spans="1:31" ht="13">
       <c r="A282" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_014.json</v>
       </c>
       <c r="B282" s="16" t="s">
@@ -17778,13 +17864,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
       <c r="AE282" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_014.json</v>
       </c>
     </row>
     <row r="283" spans="1:31" ht="13">
       <c r="A283" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_015.json</v>
       </c>
       <c r="B283" s="16" t="s">
@@ -17813,13 +17899,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
       <c r="AE283" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_015.json</v>
       </c>
     </row>
     <row r="284" spans="1:31" ht="13">
       <c r="A284" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_016.json</v>
       </c>
       <c r="B284" s="16" t="s">
@@ -17848,13 +17934,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
       <c r="AE284" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_016.json</v>
       </c>
     </row>
     <row r="285" spans="1:31" ht="13">
       <c r="A285" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_017.json</v>
       </c>
       <c r="B285" s="16" t="s">
@@ -17883,13 +17969,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-005.jpg</v>
       </c>
       <c r="AE285" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_017.json</v>
       </c>
     </row>
     <row r="286" spans="1:31" ht="14">
       <c r="A286" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_018.json</v>
       </c>
       <c r="B286" s="16" t="s">
@@ -17923,13 +18009,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-006.jpg</v>
       </c>
       <c r="AE286" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_018.json</v>
       </c>
     </row>
     <row r="287" spans="1:31" ht="14">
       <c r="A287" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_019.json</v>
       </c>
       <c r="B287" s="16" t="s">
@@ -17958,13 +18044,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-007.jpg</v>
       </c>
       <c r="AE287" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_019.json</v>
       </c>
     </row>
     <row r="288" spans="1:31" ht="14">
       <c r="A288" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_020.json</v>
       </c>
       <c r="B288" s="16" t="s">
@@ -17993,13 +18079,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-007.jpg</v>
       </c>
       <c r="AE288" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_020.json</v>
       </c>
     </row>
     <row r="289" spans="1:31" ht="14">
       <c r="A289" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_021.json</v>
       </c>
       <c r="B289" s="16" t="s">
@@ -18030,13 +18116,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
       <c r="AE289" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_021.json</v>
       </c>
     </row>
     <row r="290" spans="1:31" ht="14">
       <c r="A290" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_022.json</v>
       </c>
       <c r="B290" s="16" t="s">
@@ -18067,13 +18153,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
       <c r="AE290" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_022.json</v>
       </c>
     </row>
     <row r="291" spans="1:31" ht="28">
       <c r="A291" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_023.json</v>
       </c>
       <c r="B291" s="16" t="s">
@@ -18104,13 +18190,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-008.jpg</v>
       </c>
       <c r="AE291" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_023.json</v>
       </c>
     </row>
     <row r="292" spans="1:31" ht="14">
       <c r="A292" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_024.json</v>
       </c>
       <c r="B292" s="16" t="s">
@@ -18139,13 +18225,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-009.jpg</v>
       </c>
       <c r="AE292" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_024.json</v>
       </c>
     </row>
     <row r="293" spans="1:31" ht="14">
       <c r="A293" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_025.json</v>
       </c>
       <c r="B293" s="16" t="s">
@@ -18176,13 +18262,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-010.jpg</v>
       </c>
       <c r="AE293" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_025.json</v>
       </c>
     </row>
     <row r="294" spans="1:31" ht="14">
       <c r="A294" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_026.json</v>
       </c>
       <c r="B294" s="16" t="s">
@@ -18211,13 +18297,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-011.jpg</v>
       </c>
       <c r="AE294" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_026.json</v>
       </c>
     </row>
     <row r="295" spans="1:31" ht="14">
       <c r="A295" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_027.json</v>
       </c>
       <c r="B295" s="16" t="s">
@@ -18251,13 +18337,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
       <c r="AE295" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_027.json</v>
       </c>
     </row>
     <row r="296" spans="1:31" ht="14">
       <c r="A296" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_028.json</v>
       </c>
       <c r="B296" s="16" t="s">
@@ -18291,13 +18377,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
       <c r="AE296" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_028.json</v>
       </c>
     </row>
     <row r="297" spans="1:31" ht="28">
       <c r="A297" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_029.json</v>
       </c>
       <c r="B297" s="16" t="s">
@@ -18331,13 +18417,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-012.jpg</v>
       </c>
       <c r="AE297" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_029.json</v>
       </c>
     </row>
     <row r="298" spans="1:31" ht="13">
       <c r="A298" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_030.json</v>
       </c>
       <c r="B298" s="16" t="s">
@@ -18366,13 +18452,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-013.jpg</v>
       </c>
       <c r="AE298" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_030.json</v>
       </c>
     </row>
     <row r="299" spans="1:31" ht="14">
       <c r="A299" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_031.json</v>
       </c>
       <c r="B299" s="16" t="s">
@@ -18406,13 +18492,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-013.jpg</v>
       </c>
       <c r="AE299" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_031.json</v>
       </c>
     </row>
     <row r="300" spans="1:31" ht="28">
       <c r="A300" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_032.json</v>
       </c>
       <c r="B300" s="16" t="s">
@@ -18443,13 +18529,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-014.jpg</v>
       </c>
       <c r="AE300" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_032.json</v>
       </c>
     </row>
     <row r="301" spans="1:31" ht="13">
       <c r="A301" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_033.json</v>
       </c>
       <c r="B301" s="16" t="s">
@@ -18478,13 +18564,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-014.jpg</v>
       </c>
       <c r="AE301" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_033.json</v>
       </c>
     </row>
     <row r="302" spans="1:31" ht="28">
       <c r="A302" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_034.json</v>
       </c>
       <c r="B302" s="16" t="s">
@@ -18515,13 +18601,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-015.jpg</v>
       </c>
       <c r="AE302" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_034.json</v>
       </c>
     </row>
     <row r="303" spans="1:31" ht="13">
       <c r="A303" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_035.json</v>
       </c>
       <c r="B303" s="16" t="s">
@@ -18550,13 +18636,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE303" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_035.json</v>
       </c>
     </row>
     <row r="304" spans="1:31" ht="13">
       <c r="A304" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_036.json</v>
       </c>
       <c r="B304" s="16" t="s">
@@ -18585,13 +18671,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE304" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_036.json</v>
       </c>
     </row>
     <row r="305" spans="1:31" ht="13">
       <c r="A305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_037.json</v>
       </c>
       <c r="B305" s="16" t="s">
@@ -18620,13 +18706,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE305" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_037.json</v>
       </c>
     </row>
     <row r="306" spans="1:31" ht="15" customHeight="1">
       <c r="A306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_038.json</v>
       </c>
       <c r="B306" s="16" t="s">
@@ -18655,13 +18741,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE306" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_038.json</v>
       </c>
     </row>
     <row r="307" spans="1:31" ht="15" customHeight="1">
       <c r="A307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_039.json</v>
       </c>
       <c r="B307" s="16" t="s">
@@ -18690,13 +18776,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE307" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_039.json</v>
       </c>
     </row>
     <row r="308" spans="1:31" ht="15" customHeight="1">
       <c r="A308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_040.json</v>
       </c>
       <c r="B308" s="16" t="s">
@@ -18725,13 +18811,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE308" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_040.json</v>
       </c>
     </row>
     <row r="309" spans="1:31" ht="15" customHeight="1">
       <c r="A309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_041.json</v>
       </c>
       <c r="B309" s="16" t="s">
@@ -18760,13 +18846,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE309" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_041.json</v>
       </c>
     </row>
     <row r="310" spans="1:31" ht="15" customHeight="1">
       <c r="A310" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_042.json</v>
       </c>
       <c r="B310" s="16" t="s">
@@ -18795,13 +18881,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE310" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_042.json</v>
       </c>
     </row>
     <row r="311" spans="1:31" ht="15" customHeight="1">
       <c r="A311" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_043.json</v>
       </c>
       <c r="B311" s="16" t="s">
@@ -18830,13 +18916,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE311" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_043.json</v>
       </c>
     </row>
     <row r="312" spans="1:31" ht="15" customHeight="1">
       <c r="A312" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_044.json</v>
       </c>
       <c r="B312" s="16" t="s">
@@ -18865,13 +18951,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE312" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_044.json</v>
       </c>
     </row>
     <row r="313" spans="1:31" ht="15" customHeight="1">
       <c r="A313" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_045.json</v>
       </c>
       <c r="B313" s="16" t="s">
@@ -18900,13 +18986,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE313" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_045.json</v>
       </c>
     </row>
     <row r="314" spans="1:31" ht="15" customHeight="1">
       <c r="A314" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_046.json</v>
       </c>
       <c r="B314" s="16" t="s">
@@ -18935,13 +19021,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE314" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_046.json</v>
       </c>
     </row>
     <row r="315" spans="1:31" ht="15" customHeight="1">
       <c r="A315" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_047.json</v>
       </c>
       <c r="B315" s="16" t="s">
@@ -18970,13 +19056,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE315" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_047.json</v>
       </c>
     </row>
     <row r="316" spans="1:31" ht="15" customHeight="1">
       <c r="A316" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_048.json</v>
       </c>
       <c r="B316" s="16" t="s">
@@ -19005,13 +19091,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE316" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_048.json</v>
       </c>
     </row>
     <row r="317" spans="1:31" ht="15" customHeight="1">
       <c r="A317" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_049.json</v>
       </c>
       <c r="B317" s="16" t="s">
@@ -19040,13 +19126,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-016.jpg</v>
       </c>
       <c r="AE317" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_049.json</v>
       </c>
     </row>
     <row r="318" spans="1:31" ht="15" customHeight="1">
       <c r="A318" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_050.json</v>
       </c>
       <c r="B318" s="16" t="s">
@@ -19075,13 +19161,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-017.jpg</v>
       </c>
       <c r="AE318" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_050.json</v>
       </c>
     </row>
     <row r="319" spans="1:31" ht="28">
       <c r="A319" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_051.json</v>
       </c>
       <c r="B319" s="16" t="s">
@@ -19112,13 +19198,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-017.jpg</v>
       </c>
       <c r="AE319" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_051.json</v>
       </c>
     </row>
     <row r="320" spans="1:31" ht="14">
       <c r="A320" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_052.json</v>
       </c>
       <c r="B320" s="16" t="s">
@@ -19147,13 +19233,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
       <c r="AE320" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_052.json</v>
       </c>
     </row>
     <row r="321" spans="1:31" ht="14">
       <c r="A321" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_053.json</v>
       </c>
       <c r="B321" s="16" t="s">
@@ -19182,13 +19268,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
       <c r="AE321" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_053.json</v>
       </c>
     </row>
     <row r="322" spans="1:31" ht="14">
       <c r="A322" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_07_054.json</v>
       </c>
       <c r="B322" s="16" t="s">
@@ -19217,13 +19303,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-07/yanesen-07-018.jpg</v>
       </c>
       <c r="AE322" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_07_054.json</v>
       </c>
     </row>
     <row r="323" spans="1:31" ht="28">
       <c r="A323" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_001.json</v>
       </c>
       <c r="B323" s="16" t="s">
@@ -19252,13 +19338,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-001.jpg</v>
       </c>
       <c r="AE323" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_001.json</v>
       </c>
     </row>
     <row r="324" spans="1:31" ht="14">
       <c r="A324" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_002.json</v>
       </c>
       <c r="B324" s="16" t="s">
@@ -19285,13 +19371,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
       <c r="AE324" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_002.json</v>
       </c>
     </row>
     <row r="325" spans="1:31" ht="14">
       <c r="A325" t="str">
-        <f t="shared" ref="A325:A388" si="10">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B325, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A325:A388" si="11">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B325, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_003.json</v>
       </c>
       <c r="B325" s="16" t="s">
@@ -19320,13 +19406,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
       <c r="AE325" t="str">
-        <f t="shared" ref="AE325:AE388" si="11">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A325, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE325:AE388" si="12">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A325, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_003.json</v>
       </c>
     </row>
     <row r="326" spans="1:31" ht="14">
       <c r="A326" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_004.json</v>
       </c>
       <c r="B326" s="16" t="s">
@@ -19360,13 +19446,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
       <c r="AE326" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_004.json</v>
       </c>
     </row>
     <row r="327" spans="1:31" ht="14">
       <c r="A327" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_005.json</v>
       </c>
       <c r="B327" s="16" t="s">
@@ -19396,13 +19482,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-002.jpg</v>
       </c>
       <c r="AE327" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_005.json</v>
       </c>
     </row>
     <row r="328" spans="1:31" ht="14">
       <c r="A328" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_006.json</v>
       </c>
       <c r="B328" s="16" t="s">
@@ -19433,13 +19519,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-003.jpg</v>
       </c>
       <c r="AE328" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_006.json</v>
       </c>
     </row>
     <row r="329" spans="1:31" ht="14">
       <c r="A329" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_007.json</v>
       </c>
       <c r="B329" s="16" t="s">
@@ -19471,13 +19557,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-003.jpg</v>
       </c>
       <c r="AE329" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_007.json</v>
       </c>
     </row>
     <row r="330" spans="1:31" ht="14">
       <c r="A330" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_008.json</v>
       </c>
       <c r="B330" s="16" t="s">
@@ -19509,13 +19595,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
       <c r="AE330" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_008.json</v>
       </c>
     </row>
     <row r="331" spans="1:31" ht="14">
       <c r="A331" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_009.json</v>
       </c>
       <c r="B331" s="16" t="s">
@@ -19544,13 +19630,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
       <c r="AE331" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_009.json</v>
       </c>
     </row>
     <row r="332" spans="1:31" ht="28">
       <c r="A332" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_010.json</v>
       </c>
       <c r="B332" s="16" t="s">
@@ -19584,13 +19670,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-004.jpg</v>
       </c>
       <c r="AE332" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_010.json</v>
       </c>
     </row>
     <row r="333" spans="1:31" ht="14">
       <c r="A333" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_011.json</v>
       </c>
       <c r="B333" s="16" t="s">
@@ -19621,13 +19707,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-005.jpg</v>
       </c>
       <c r="AE333" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_011.json</v>
       </c>
     </row>
     <row r="334" spans="1:31" ht="14">
       <c r="A334" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_012.json</v>
       </c>
       <c r="B334" s="16" t="s">
@@ -19656,13 +19742,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-005.jpg</v>
       </c>
       <c r="AE334" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_012.json</v>
       </c>
     </row>
     <row r="335" spans="1:31" ht="14">
       <c r="A335" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_013.json</v>
       </c>
       <c r="B335" s="16" t="s">
@@ -19691,13 +19777,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-006.jpg</v>
       </c>
       <c r="AE335" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_013.json</v>
       </c>
     </row>
     <row r="336" spans="1:31" ht="14">
       <c r="A336" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_014.json</v>
       </c>
       <c r="B336" s="16" t="s">
@@ -19728,13 +19814,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-006.jpg</v>
       </c>
       <c r="AE336" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_014.json</v>
       </c>
     </row>
     <row r="337" spans="1:31" ht="14">
       <c r="A337" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_015.json</v>
       </c>
       <c r="B337" s="16" t="s">
@@ -19765,13 +19851,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
       <c r="AE337" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_015.json</v>
       </c>
     </row>
     <row r="338" spans="1:31" ht="14">
       <c r="A338" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_016.json</v>
       </c>
       <c r="B338" s="16" t="s">
@@ -19802,13 +19888,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
       <c r="AE338" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_016.json</v>
       </c>
     </row>
     <row r="339" spans="1:31" ht="14">
       <c r="A339" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_017.json</v>
       </c>
       <c r="B339" s="16" t="s">
@@ -19839,13 +19925,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
       <c r="AE339" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_017.json</v>
       </c>
     </row>
     <row r="340" spans="1:31" ht="14">
       <c r="A340" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_018.json</v>
       </c>
       <c r="B340" s="16" t="s">
@@ -19874,13 +19960,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-007.jpg</v>
       </c>
       <c r="AE340" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_018.json</v>
       </c>
     </row>
     <row r="341" spans="1:31" ht="28">
       <c r="A341" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_019.json</v>
       </c>
       <c r="B341" s="16" t="s">
@@ -19909,13 +19995,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-008.jpg</v>
       </c>
       <c r="AE341" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_019.json</v>
       </c>
     </row>
     <row r="342" spans="1:31" ht="14">
       <c r="A342" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_020.json</v>
       </c>
       <c r="B342" s="16" t="s">
@@ -19944,13 +20030,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-008.jpg</v>
       </c>
       <c r="AE342" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_020.json</v>
       </c>
     </row>
     <row r="343" spans="1:31" ht="28">
       <c r="A343" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_021.json</v>
       </c>
       <c r="B343" s="16" t="s">
@@ -19979,13 +20065,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-010.jpg</v>
       </c>
       <c r="AE343" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_021.json</v>
       </c>
     </row>
     <row r="344" spans="1:31" ht="14">
       <c r="A344" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_022.json</v>
       </c>
       <c r="B344" s="16" t="s">
@@ -20016,13 +20102,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-011.jpg</v>
       </c>
       <c r="AE344" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_022.json</v>
       </c>
     </row>
     <row r="345" spans="1:31" ht="28">
       <c r="A345" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_023.json</v>
       </c>
       <c r="B345" s="16" t="s">
@@ -20051,13 +20137,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
       <c r="AE345" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_023.json</v>
       </c>
     </row>
     <row r="346" spans="1:31" ht="28">
       <c r="A346" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_024.json</v>
       </c>
       <c r="B346" s="16" t="s">
@@ -20086,13 +20172,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
       <c r="AE346" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_024.json</v>
       </c>
     </row>
     <row r="347" spans="1:31" ht="14">
       <c r="A347" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_025.json</v>
       </c>
       <c r="B347" s="16" t="s">
@@ -20123,13 +20209,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-012.jpg</v>
       </c>
       <c r="AE347" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_025.json</v>
       </c>
     </row>
     <row r="348" spans="1:31" ht="14">
       <c r="A348" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_026.json</v>
       </c>
       <c r="B348" s="16" t="s">
@@ -20160,13 +20246,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-014.jpg</v>
       </c>
       <c r="AE348" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_026.json</v>
       </c>
     </row>
     <row r="349" spans="1:31" ht="14">
       <c r="A349" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_027.json</v>
       </c>
       <c r="B349" s="16" t="s">
@@ -20195,13 +20281,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
       <c r="AE349" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_027.json</v>
       </c>
     </row>
     <row r="350" spans="1:31" ht="14">
       <c r="A350" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_028.json</v>
       </c>
       <c r="B350" s="16" t="s">
@@ -20233,13 +20319,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
       <c r="AE350" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_028.json</v>
       </c>
     </row>
     <row r="351" spans="1:31" ht="14">
       <c r="A351" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_029.json</v>
       </c>
       <c r="B351" s="16" t="s">
@@ -20273,13 +20359,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-015.jpg</v>
       </c>
       <c r="AE351" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_029.json</v>
       </c>
     </row>
     <row r="352" spans="1:31" ht="28">
       <c r="A352" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_030.json</v>
       </c>
       <c r="B352" s="16" t="s">
@@ -20310,13 +20396,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-016.jpg</v>
       </c>
       <c r="AE352" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_030.json</v>
       </c>
     </row>
     <row r="353" spans="1:31" ht="28">
       <c r="A353" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_031.json</v>
       </c>
       <c r="B353" s="16" t="s">
@@ -20345,13 +20431,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
       <c r="AE353" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_031.json</v>
       </c>
     </row>
     <row r="354" spans="1:31" ht="14">
       <c r="A354" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_032.json</v>
       </c>
       <c r="B354" s="16" t="s">
@@ -20380,13 +20466,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
       <c r="AE354" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_032.json</v>
       </c>
     </row>
     <row r="355" spans="1:31" ht="14">
       <c r="A355" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_033.json</v>
       </c>
       <c r="B355" s="16" t="s">
@@ -20415,13 +20501,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-017.jpg</v>
       </c>
       <c r="AE355" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_033.json</v>
       </c>
     </row>
     <row r="356" spans="1:31" ht="14">
       <c r="A356" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_034.json</v>
       </c>
       <c r="B356" s="16" t="s">
@@ -20450,13 +20536,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE356" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_034.json</v>
       </c>
     </row>
     <row r="357" spans="1:31" ht="14">
       <c r="A357" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_035.json</v>
       </c>
       <c r="B357" s="16" t="s">
@@ -20485,13 +20571,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE357" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_035.json</v>
       </c>
     </row>
     <row r="358" spans="1:31" ht="14">
       <c r="A358" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_036.json</v>
       </c>
       <c r="B358" s="16" t="s">
@@ -20520,13 +20606,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE358" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_036.json</v>
       </c>
     </row>
     <row r="359" spans="1:31" ht="14">
       <c r="A359" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_037.json</v>
       </c>
       <c r="B359" s="16" t="s">
@@ -20555,13 +20641,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE359" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_037.json</v>
       </c>
     </row>
     <row r="360" spans="1:31" ht="28">
       <c r="A360" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_038.json</v>
       </c>
       <c r="B360" s="16" t="s">
@@ -20590,13 +20676,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE360" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_038.json</v>
       </c>
     </row>
     <row r="361" spans="1:31" ht="28">
       <c r="A361" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_039.json</v>
       </c>
       <c r="B361" s="16" t="s">
@@ -20625,13 +20711,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE361" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_039.json</v>
       </c>
     </row>
     <row r="362" spans="1:31" ht="28">
       <c r="A362" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_040.json</v>
       </c>
       <c r="B362" s="16" t="s">
@@ -20660,13 +20746,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-018.jpg</v>
       </c>
       <c r="AE362" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_040.json</v>
       </c>
     </row>
     <row r="363" spans="1:31" ht="14">
       <c r="A363" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_041.json</v>
       </c>
       <c r="B363" s="16" t="s">
@@ -20695,13 +20781,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
       <c r="AE363" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_041.json</v>
       </c>
     </row>
     <row r="364" spans="1:31" ht="14">
       <c r="A364" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_042.json</v>
       </c>
       <c r="B364" s="16" t="s">
@@ -20735,13 +20821,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
       <c r="AE364" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_042.json</v>
       </c>
     </row>
     <row r="365" spans="1:31" ht="28">
       <c r="A365" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_043.json</v>
       </c>
       <c r="B365" s="16" t="s">
@@ -20775,13 +20861,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-019.jpg</v>
       </c>
       <c r="AE365" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_043.json</v>
       </c>
     </row>
     <row r="366" spans="1:31" ht="14">
       <c r="A366" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_044.json</v>
       </c>
       <c r="B366" s="16" t="s">
@@ -20810,13 +20896,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
       <c r="AE366" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_044.json</v>
       </c>
     </row>
     <row r="367" spans="1:31" ht="14">
       <c r="A367" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_045.json</v>
       </c>
       <c r="B367" s="16" t="s">
@@ -20845,13 +20931,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
       <c r="AE367" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_045.json</v>
       </c>
     </row>
     <row r="368" spans="1:31" ht="14">
       <c r="A368" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_08_046.json</v>
       </c>
       <c r="B368" s="16" t="s">
@@ -20878,13 +20964,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-08/yanesen-08-020.jpg</v>
       </c>
       <c r="AE368" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_08_046.json</v>
       </c>
     </row>
     <row r="369" spans="1:31" ht="14">
       <c r="A369" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_001.json</v>
       </c>
       <c r="B369" s="16" t="s">
@@ -20916,13 +21002,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-001.jpg</v>
       </c>
       <c r="AE369" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_001.json</v>
       </c>
     </row>
     <row r="370" spans="1:31" ht="14">
       <c r="A370" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_002.json</v>
       </c>
       <c r="B370" s="16" t="s">
@@ -20950,13 +21036,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
       <c r="AE370" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_002.json</v>
       </c>
     </row>
     <row r="371" spans="1:31" ht="14">
       <c r="A371" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_003.json</v>
       </c>
       <c r="B371" s="16" t="s">
@@ -20986,13 +21072,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
       <c r="AE371" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_003.json</v>
       </c>
     </row>
     <row r="372" spans="1:31" ht="14">
       <c r="A372" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_004.json</v>
       </c>
       <c r="B372" s="16" t="s">
@@ -21026,13 +21112,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
       <c r="AE372" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_004.json</v>
       </c>
     </row>
     <row r="373" spans="1:31" ht="14">
       <c r="A373" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_005.json</v>
       </c>
       <c r="B373" s="16" t="s">
@@ -21062,13 +21148,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-002.jpg</v>
       </c>
       <c r="AE373" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_005.json</v>
       </c>
     </row>
     <row r="374" spans="1:31" ht="28">
       <c r="A374" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_006.json</v>
       </c>
       <c r="B374" s="16" t="s">
@@ -21099,13 +21185,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-003.jpg</v>
       </c>
       <c r="AE374" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_006.json</v>
       </c>
     </row>
     <row r="375" spans="1:31" ht="14">
       <c r="A375" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_007.json</v>
       </c>
       <c r="B375" s="16" t="s">
@@ -21134,13 +21220,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-003.jpg</v>
       </c>
       <c r="AE375" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_007.json</v>
       </c>
     </row>
     <row r="376" spans="1:31" ht="14">
       <c r="A376" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_008.json</v>
       </c>
       <c r="B376" s="16" t="s">
@@ -21169,13 +21255,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-004.jpg</v>
       </c>
       <c r="AE376" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_008.json</v>
       </c>
     </row>
     <row r="377" spans="1:31" ht="42">
       <c r="A377" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_009.json</v>
       </c>
       <c r="B377" s="16" t="s">
@@ -21209,13 +21295,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-004.jpg</v>
       </c>
       <c r="AE377" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_009.json</v>
       </c>
     </row>
     <row r="378" spans="1:31" ht="14">
       <c r="A378" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_010.json</v>
       </c>
       <c r="B378" s="16" t="s">
@@ -21244,13 +21330,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-005.jpg</v>
       </c>
       <c r="AE378" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_010.json</v>
       </c>
     </row>
     <row r="379" spans="1:31" ht="14">
       <c r="A379" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_011.json</v>
       </c>
       <c r="B379" s="16" t="s">
@@ -21279,13 +21365,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-006.jpg</v>
       </c>
       <c r="AE379" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_011.json</v>
       </c>
     </row>
     <row r="380" spans="1:31" ht="14">
       <c r="A380" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_012.json</v>
       </c>
       <c r="B380" s="16" t="s">
@@ -21314,13 +21400,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-006.jpg</v>
       </c>
       <c r="AE380" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_012.json</v>
       </c>
     </row>
     <row r="381" spans="1:31" ht="14">
       <c r="A381" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_013.json</v>
       </c>
       <c r="B381" s="16" t="s">
@@ -21349,13 +21435,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-007.jpg</v>
       </c>
       <c r="AE381" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_013.json</v>
       </c>
     </row>
     <row r="382" spans="1:31" ht="28">
       <c r="A382" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_014.json</v>
       </c>
       <c r="B382" s="16" t="s">
@@ -21386,13 +21472,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-008.jpg</v>
       </c>
       <c r="AE382" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_014.json</v>
       </c>
     </row>
     <row r="383" spans="1:31" ht="28">
       <c r="A383" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_015.json</v>
       </c>
       <c r="B383" s="16" t="s">
@@ -21421,13 +21507,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-009.jpg</v>
       </c>
       <c r="AE383" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_015.json</v>
       </c>
     </row>
     <row r="384" spans="1:31" ht="28">
       <c r="A384" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_016.json</v>
       </c>
       <c r="B384" s="16" t="s">
@@ -21456,13 +21542,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-010.jpg</v>
       </c>
       <c r="AE384" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_016.json</v>
       </c>
     </row>
     <row r="385" spans="1:31" ht="14">
       <c r="A385" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_017.json</v>
       </c>
       <c r="B385" s="16" t="s">
@@ -21493,13 +21579,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-010.jpg</v>
       </c>
       <c r="AE385" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_017.json</v>
       </c>
     </row>
     <row r="386" spans="1:31" ht="14">
       <c r="A386" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_018.json</v>
       </c>
       <c r="B386" s="16" t="s">
@@ -21530,13 +21616,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-011.jpg</v>
       </c>
       <c r="AE386" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_018.json</v>
       </c>
     </row>
     <row r="387" spans="1:31" ht="14">
       <c r="A387" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_019.json</v>
       </c>
       <c r="B387" s="16" t="s">
@@ -21565,13 +21651,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
       <c r="AE387" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_019.json</v>
       </c>
     </row>
     <row r="388" spans="1:31" ht="14">
       <c r="A388" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_020.json</v>
       </c>
       <c r="B388" s="16" t="s">
@@ -21600,13 +21686,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
       <c r="AE388" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_020.json</v>
       </c>
     </row>
     <row r="389" spans="1:31" ht="28">
       <c r="A389" t="str">
-        <f t="shared" ref="A389:A449" si="12">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B389, "/", "_")&amp;".json"</f>
+        <f t="shared" ref="A389:A449" si="13">"https://nakamura196.github.io/lda/data/json/"&amp;SUBSTITUTE(B389, "/", "_")&amp;".json"</f>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_021.json</v>
       </c>
       <c r="B389" s="16" t="s">
@@ -21637,13 +21723,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-012.jpg</v>
       </c>
       <c r="AE389" t="str">
-        <f t="shared" ref="AE389:AE449" si="13">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A389, "/json/", "/manifest/")</f>
+        <f t="shared" ref="AE389:AE449" si="14">"https://nakamura196.github.io/uv/?manifest="&amp;SUBSTITUTE(A389, "/json/", "/manifest/")</f>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_021.json</v>
       </c>
     </row>
     <row r="390" spans="1:31" ht="14">
       <c r="A390" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_022.json</v>
       </c>
       <c r="B390" s="16" t="s">
@@ -21674,13 +21760,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-014.jpg</v>
       </c>
       <c r="AE390" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_022.json</v>
       </c>
     </row>
     <row r="391" spans="1:31" ht="14">
       <c r="A391" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_023.json</v>
       </c>
       <c r="B391" s="16" t="s">
@@ -21711,13 +21797,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-015.jpg</v>
       </c>
       <c r="AE391" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_023.json</v>
       </c>
     </row>
     <row r="392" spans="1:31" ht="14">
       <c r="A392" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_024.json</v>
       </c>
       <c r="B392" s="16" t="s">
@@ -21751,13 +21837,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-015.jpg</v>
       </c>
       <c r="AE392" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_024.json</v>
       </c>
     </row>
     <row r="393" spans="1:31" ht="14">
       <c r="A393" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_025.json</v>
       </c>
       <c r="B393" s="16" t="s">
@@ -21786,13 +21872,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
       <c r="AE393" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_025.json</v>
       </c>
     </row>
     <row r="394" spans="1:31" ht="14">
       <c r="A394" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_026.json</v>
       </c>
       <c r="B394" s="16" t="s">
@@ -21821,13 +21907,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
       <c r="AE394" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_026.json</v>
       </c>
     </row>
     <row r="395" spans="1:31" ht="14">
       <c r="A395" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_027.json</v>
       </c>
       <c r="B395" s="16" t="s">
@@ -21856,13 +21942,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
       <c r="AE395" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_027.json</v>
       </c>
     </row>
     <row r="396" spans="1:31" ht="14">
       <c r="A396" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_028.json</v>
       </c>
       <c r="B396" s="16" t="s">
@@ -21891,13 +21977,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
       <c r="AE396" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_028.json</v>
       </c>
     </row>
     <row r="397" spans="1:31" ht="14">
       <c r="A397" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_029.json</v>
       </c>
       <c r="B397" s="16" t="s">
@@ -21926,13 +22012,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-016.jpg</v>
       </c>
       <c r="AE397" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_029.json</v>
       </c>
     </row>
     <row r="398" spans="1:31" ht="28">
       <c r="A398" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_030.json</v>
       </c>
       <c r="B398" s="16" t="s">
@@ -21961,13 +22047,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-017.jpg</v>
       </c>
       <c r="AE398" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_030.json</v>
       </c>
     </row>
     <row r="399" spans="1:31" ht="14">
       <c r="A399" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_031.json</v>
       </c>
       <c r="B399" s="16" t="s">
@@ -21996,13 +22082,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
       <c r="AE399" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_031.json</v>
       </c>
     </row>
     <row r="400" spans="1:31" ht="14">
       <c r="A400" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_032.json</v>
       </c>
       <c r="B400" s="16" t="s">
@@ -22031,13 +22117,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
       <c r="AE400" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_032.json</v>
       </c>
     </row>
     <row r="401" spans="1:31" ht="14">
       <c r="A401" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_033.json</v>
       </c>
       <c r="B401" s="16" t="s">
@@ -22066,13 +22152,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
       <c r="AE401" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_033.json</v>
       </c>
     </row>
     <row r="402" spans="1:31" ht="14">
       <c r="A402" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_034.json</v>
       </c>
       <c r="B402" s="16" t="s">
@@ -22101,13 +22187,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-018.jpg</v>
       </c>
       <c r="AE402" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_034.json</v>
       </c>
     </row>
     <row r="403" spans="1:31" ht="14">
       <c r="A403" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_035.json</v>
       </c>
       <c r="B403" s="16" t="s">
@@ -22136,13 +22222,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-019.jpg</v>
       </c>
       <c r="AE403" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_035.json</v>
       </c>
     </row>
     <row r="404" spans="1:31" ht="14">
       <c r="A404" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_036.json</v>
       </c>
       <c r="B404" s="16" t="s">
@@ -22176,13 +22262,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-019.jpg</v>
       </c>
       <c r="AE404" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_036.json</v>
       </c>
     </row>
     <row r="405" spans="1:31" ht="14">
       <c r="A405" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_037.json</v>
       </c>
       <c r="B405" s="16" t="s">
@@ -22211,13 +22297,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
       <c r="AE405" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_037.json</v>
       </c>
     </row>
     <row r="406" spans="1:31" ht="14">
       <c r="A406" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_038.json</v>
       </c>
       <c r="B406" s="16" t="s">
@@ -22246,13 +22332,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
       <c r="AE406" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_038.json</v>
       </c>
     </row>
     <row r="407" spans="1:31" ht="14">
       <c r="A407" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_09_039.json</v>
       </c>
       <c r="B407" s="16" t="s">
@@ -22279,13 +22365,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-09/yanesen-09-020.jpg</v>
       </c>
       <c r="AE407" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_09_039.json</v>
       </c>
     </row>
     <row r="408" spans="1:31" ht="14">
       <c r="A408" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_001.json</v>
       </c>
       <c r="B408" s="16" t="s">
@@ -22317,13 +22403,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-001.jpg</v>
       </c>
       <c r="AE408" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_001.json</v>
       </c>
     </row>
     <row r="409" spans="1:31" ht="14">
       <c r="A409" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_002.json</v>
       </c>
       <c r="B409" s="16" t="s">
@@ -22351,13 +22437,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
       <c r="AE409" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_002.json</v>
       </c>
     </row>
     <row r="410" spans="1:31" ht="14">
       <c r="A410" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_003.json</v>
       </c>
       <c r="B410" s="16" t="s">
@@ -22387,13 +22473,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
       <c r="AE410" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_003.json</v>
       </c>
     </row>
     <row r="411" spans="1:31" ht="14">
       <c r="A411" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_004.json</v>
       </c>
       <c r="B411" s="16" t="s">
@@ -22427,13 +22513,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
       <c r="AE411" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_004.json</v>
       </c>
     </row>
     <row r="412" spans="1:31" ht="14">
       <c r="A412" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_005.json</v>
       </c>
       <c r="B412" s="16" t="s">
@@ -22463,13 +22549,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-002.jpg</v>
       </c>
       <c r="AE412" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_005.json</v>
       </c>
     </row>
     <row r="413" spans="1:31" ht="28">
       <c r="A413" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_006.json</v>
       </c>
       <c r="B413" s="16" t="s">
@@ -22500,13 +22586,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
       <c r="AE413" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_006.json</v>
       </c>
     </row>
     <row r="414" spans="1:31" ht="14">
       <c r="A414" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_007.json</v>
       </c>
       <c r="B414" s="16" t="s">
@@ -22537,13 +22623,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
       <c r="AE414" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_007.json</v>
       </c>
     </row>
     <row r="415" spans="1:31" ht="14">
       <c r="A415" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_008.json</v>
       </c>
       <c r="B415" s="16" t="s">
@@ -22572,13 +22658,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-003.jpg</v>
       </c>
       <c r="AE415" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_008.json</v>
       </c>
     </row>
     <row r="416" spans="1:31" ht="14">
       <c r="A416" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_009.json</v>
       </c>
       <c r="B416" s="16" t="s">
@@ -22607,13 +22693,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-004.jpg</v>
       </c>
       <c r="AE416" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_009.json</v>
       </c>
     </row>
     <row r="417" spans="1:31" ht="14">
       <c r="A417" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_010.json</v>
       </c>
       <c r="B417" s="16" t="s">
@@ -22642,13 +22728,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-005.jpg</v>
       </c>
       <c r="AE417" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_010.json</v>
       </c>
     </row>
     <row r="418" spans="1:31" ht="14">
       <c r="A418" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_011.json</v>
       </c>
       <c r="B418" s="16" t="s">
@@ -22677,13 +22763,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-005.jpg</v>
       </c>
       <c r="AE418" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_011.json</v>
       </c>
     </row>
     <row r="419" spans="1:31" ht="14">
       <c r="A419" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_012.json</v>
       </c>
       <c r="B419" s="16" t="s">
@@ -22712,13 +22798,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
       <c r="AE419" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_012.json</v>
       </c>
     </row>
     <row r="420" spans="1:31" ht="14">
       <c r="A420" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_013.json</v>
       </c>
       <c r="B420" s="16" t="s">
@@ -22747,13 +22833,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
       <c r="AE420" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_013.json</v>
       </c>
     </row>
     <row r="421" spans="1:31" ht="14">
       <c r="A421" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_014.json</v>
       </c>
       <c r="B421" s="16" t="s">
@@ -22782,13 +22868,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
       <c r="AE421" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_014.json</v>
       </c>
     </row>
     <row r="422" spans="1:31" ht="14">
       <c r="A422" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_015.json</v>
       </c>
       <c r="B422" s="16" t="s">
@@ -22817,13 +22903,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-006.jpg</v>
       </c>
       <c r="AE422" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_015.json</v>
       </c>
     </row>
     <row r="423" spans="1:31" ht="14">
       <c r="A423" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_016.json</v>
       </c>
       <c r="B423" s="16" t="s">
@@ -22852,13 +22938,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-007.jpg</v>
       </c>
       <c r="AE423" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_016.json</v>
       </c>
     </row>
     <row r="424" spans="1:31" ht="14">
       <c r="A424" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_017.json</v>
       </c>
       <c r="B424" s="16" t="s">
@@ -22887,13 +22973,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-007.jpg</v>
       </c>
       <c r="AE424" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_017.json</v>
       </c>
     </row>
     <row r="425" spans="1:31" ht="28">
       <c r="A425" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_018.json</v>
       </c>
       <c r="B425" s="16" t="s">
@@ -22922,13 +23008,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-008.jpg</v>
       </c>
       <c r="AE425" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_018.json</v>
       </c>
     </row>
     <row r="426" spans="1:31" ht="14">
       <c r="A426" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_019.json</v>
       </c>
       <c r="B426" s="16" t="s">
@@ -22957,13 +23043,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-009.jpg</v>
       </c>
       <c r="AE426" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_019.json</v>
       </c>
     </row>
     <row r="427" spans="1:31" ht="14">
       <c r="A427" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_020.json</v>
       </c>
       <c r="B427" s="16" t="s">
@@ -22992,13 +23078,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-010.jpg</v>
       </c>
       <c r="AE427" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_020.json</v>
       </c>
     </row>
     <row r="428" spans="1:31" ht="14">
       <c r="A428" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_021.json</v>
       </c>
       <c r="B428" s="16" t="s">
@@ -23029,13 +23115,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-011.jpg</v>
       </c>
       <c r="AE428" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_021.json</v>
       </c>
     </row>
     <row r="429" spans="1:31" ht="28">
       <c r="A429" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_022.json</v>
       </c>
       <c r="B429" s="16" t="s">
@@ -23064,13 +23150,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-012.jpg</v>
       </c>
       <c r="AE429" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_022.json</v>
       </c>
     </row>
     <row r="430" spans="1:31" ht="28">
       <c r="A430" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_023.json</v>
       </c>
       <c r="B430" s="16" t="s">
@@ -23099,13 +23185,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-013.jpg</v>
       </c>
       <c r="AE430" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_023.json</v>
       </c>
     </row>
     <row r="431" spans="1:31" ht="28">
       <c r="A431" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_024.json</v>
       </c>
       <c r="B431" s="16" t="s">
@@ -23136,13 +23222,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-014.jpg</v>
       </c>
       <c r="AE431" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_024.json</v>
       </c>
     </row>
     <row r="432" spans="1:31" ht="14">
       <c r="A432" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_025.json</v>
       </c>
       <c r="B432" s="16" t="s">
@@ -23171,13 +23257,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
       <c r="AE432" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_025.json</v>
       </c>
     </row>
     <row r="433" spans="1:31" ht="14">
       <c r="A433" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_026.json</v>
       </c>
       <c r="B433" s="16" t="s">
@@ -23206,13 +23292,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
       <c r="AE433" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_026.json</v>
       </c>
     </row>
     <row r="434" spans="1:31" ht="14">
       <c r="A434" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_027.json</v>
       </c>
       <c r="B434" s="16" t="s">
@@ -23241,13 +23327,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
       <c r="AE434" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_027.json</v>
       </c>
     </row>
     <row r="435" spans="1:31" ht="14">
       <c r="A435" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_028.json</v>
       </c>
       <c r="B435" s="16" t="s">
@@ -23276,13 +23362,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-015.jpg</v>
       </c>
       <c r="AE435" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_028.json</v>
       </c>
     </row>
     <row r="436" spans="1:31" ht="14">
       <c r="A436" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_029.json</v>
       </c>
       <c r="B436" s="16" t="s">
@@ -23311,13 +23397,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE436" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_029.json</v>
       </c>
     </row>
     <row r="437" spans="1:31" ht="14">
       <c r="A437" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_030.json</v>
       </c>
       <c r="B437" s="16" t="s">
@@ -23346,13 +23432,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE437" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_030.json</v>
       </c>
     </row>
     <row r="438" spans="1:31" ht="14">
       <c r="A438" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_031.json</v>
       </c>
       <c r="B438" s="16" t="s">
@@ -23383,13 +23469,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE438" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_031.json</v>
       </c>
     </row>
     <row r="439" spans="1:31" ht="14">
       <c r="A439" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_032.json</v>
       </c>
       <c r="B439" s="16" t="s">
@@ -23420,13 +23506,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE439" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_032.json</v>
       </c>
     </row>
     <row r="440" spans="1:31" ht="28">
       <c r="A440" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_033.json</v>
       </c>
       <c r="B440" s="16" t="s">
@@ -23460,13 +23546,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE440" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_033.json</v>
       </c>
     </row>
     <row r="441" spans="1:31" ht="14">
       <c r="A441" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_034.json</v>
       </c>
       <c r="B441" s="16" t="s">
@@ -23498,13 +23584,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE441" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_034.json</v>
       </c>
     </row>
     <row r="442" spans="1:31" ht="14">
       <c r="A442" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_035.json</v>
       </c>
       <c r="B442" s="16" t="s">
@@ -23538,13 +23624,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-016.jpg</v>
       </c>
       <c r="AE442" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_035.json</v>
       </c>
     </row>
     <row r="443" spans="1:31" ht="14">
       <c r="A443" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_036.json</v>
       </c>
       <c r="B443" s="16" t="s">
@@ -23573,13 +23659,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-017.jpg</v>
       </c>
       <c r="AE443" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_036.json</v>
       </c>
     </row>
     <row r="444" spans="1:31" ht="28">
       <c r="A444" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_037.json</v>
       </c>
       <c r="B444" s="16" t="s">
@@ -23608,13 +23694,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-018.jpg</v>
       </c>
       <c r="AE444" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_037.json</v>
       </c>
     </row>
     <row r="445" spans="1:31" ht="14">
       <c r="A445" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_038.json</v>
       </c>
       <c r="B445" s="16" t="s">
@@ -23643,13 +23729,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-019.jpg</v>
       </c>
       <c r="AE445" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_038.json</v>
       </c>
     </row>
     <row r="446" spans="1:31" ht="14">
       <c r="A446" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_039.json</v>
       </c>
       <c r="B446" s="16" t="s">
@@ -23683,13 +23769,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-019.jpg</v>
       </c>
       <c r="AE446" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_039.json</v>
       </c>
     </row>
     <row r="447" spans="1:31" ht="14">
       <c r="A447" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_040.json</v>
       </c>
       <c r="B447" s="16" t="s">
@@ -23718,13 +23804,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
       </c>
       <c r="AE447" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_040.json</v>
       </c>
     </row>
     <row r="448" spans="1:31" ht="14">
       <c r="A448" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_041.json</v>
       </c>
       <c r="B448" s="16" t="s">
@@ -23753,13 +23839,13 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
       </c>
       <c r="AE448" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_041.json</v>
       </c>
     </row>
     <row r="449" spans="1:31" ht="14">
       <c r="A449" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>https://nakamura196.github.io/lda/data/json/yanesen_10_042.json</v>
       </c>
       <c r="B449" s="16" t="s">
@@ -23786,7 +23872,7 @@
         <v>https://nakamura196.github.io/lda/data/images/yanesen/yanesen-10/yanesen-10-020.jpg</v>
       </c>
       <c r="AE449" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>https://nakamura196.github.io/uv/?manifest=https://nakamura196.github.io/lda/data/manifest/yanesen_10_042.json</v>
       </c>
     </row>
@@ -23798,6 +23884,8 @@
     <hyperlink ref="C2" r:id="rId2" xr:uid="{9D66068F-24A4-424C-9286-2AED924100AC}"/>
     <hyperlink ref="AD2" r:id="rId3" xr:uid="{F7C92E2A-D91A-6442-B362-EF5150D8DD99}"/>
     <hyperlink ref="AE2" r:id="rId4" xr:uid="{FBFF13D9-0758-0B42-8E32-F9AF4864DAA7}"/>
+    <hyperlink ref="T2" r:id="rId5" display="http://purl.org/dc/terms/creator" xr:uid="{2D0E1F36-F0AB-854D-857C-FCE91A6A282F}"/>
+    <hyperlink ref="D2:S2" r:id="rId6" display="http://purl.org/dc/terms/creator" xr:uid="{F82AE87E-8093-9A4C-9E25-CE8242CCA725}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
